--- a/BASE DE DADOS - ENGIE.xlsx
+++ b/BASE DE DADOS - ENGIE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ef138d049f110aa/Área de Trabalho/JULIO/TCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{63989C9F-242C-4C1C-AFF7-B84FD5326898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1162895-1C1E-4BFA-B6BB-DD40A75D82AB}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="8_{63989C9F-242C-4C1C-AFF7-B84FD5326898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3799C02-34CE-4812-9C86-89B3977B095F}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="6588" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{902EDEFF-FA73-4CDA-B984-442BFAC16CE0}"/>
+    <workbookView xWindow="-23148" yWindow="6588" windowWidth="23256" windowHeight="12456" xr2:uid="{902EDEFF-FA73-4CDA-B984-442BFAC16CE0}"/>
   </bookViews>
   <sheets>
     <sheet name="DRE CONSOLIDADO" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>ATIVO CIRCULANTE</t>
   </si>
@@ -127,30 +127,6 @@
     <t>DATA</t>
   </si>
   <si>
-    <t>ENGIE3</t>
-  </si>
-  <si>
-    <t>7,273,026</t>
-  </si>
-  <si>
-    <t>6,113,665</t>
-  </si>
-  <si>
-    <t>5,890,219</t>
-  </si>
-  <si>
-    <t>5,775,159</t>
-  </si>
-  <si>
-    <t>5,380,926</t>
-  </si>
-  <si>
-    <t>5,979,644</t>
-  </si>
-  <si>
-    <t>4,170,261</t>
-  </si>
-  <si>
     <t>    Fornecedores</t>
   </si>
   <si>
@@ -185,6 +161,9 @@
   </si>
   <si>
     <t>Balanço Patrimonial Consolidado</t>
+  </si>
+  <si>
+    <t>EGIE3</t>
   </si>
 </sst>
 </file>
@@ -786,7 +765,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -831,8 +810,9 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -937,8 +917,9 @@
     <xf numFmtId="0" fontId="13" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="45">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -968,6 +949,7 @@
     <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Moeda" xfId="44" builtinId="4"/>
     <cellStyle name="Moeda 2" xfId="43" xr:uid="{6914F18D-AEE1-48F6-8B91-3C9D3CBBBD3B}"/>
     <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -995,6 +977,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1317,8 +1303,8 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,25 +1318,25 @@
         <v>17</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1407,7 +1393,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B4" s="26">
         <v>-1031423</v>
@@ -1563,7 +1549,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B10" s="26">
         <v>-983859</v>
@@ -1589,7 +1575,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B11" s="26">
         <v>-419271</v>
@@ -1676,7 +1662,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,7 +1674,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B1" s="36">
         <v>45657</v>
@@ -1952,31 +1938,31 @@
       <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>36</v>
+      <c r="B11" s="20">
+        <v>7273026</v>
+      </c>
+      <c r="C11" s="20">
+        <v>6113665</v>
+      </c>
+      <c r="D11" s="20">
+        <v>5890219</v>
+      </c>
+      <c r="E11" s="20">
+        <v>5775159</v>
+      </c>
+      <c r="F11" s="20">
+        <v>5380926</v>
+      </c>
+      <c r="G11" s="20">
+        <v>5979644</v>
+      </c>
+      <c r="H11" s="20">
+        <v>4170261</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B12" s="33">
         <v>1061422</v>
@@ -2245,8 +2231,8 @@
   <sheetPr codeName="Planilha4"/>
   <dimension ref="A1:K1840"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2262,7 +2248,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>27</v>
@@ -19825,7 +19811,7 @@
         <v>91.97</v>
       </c>
     </row>
-    <row r="1585" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1585" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1585" s="13">
         <v>43481</v>
       </c>
@@ -19836,7 +19822,7 @@
         <v>91.15</v>
       </c>
     </row>
-    <row r="1586" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1586" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1586" s="13">
         <v>43480</v>
       </c>
@@ -19847,7 +19833,7 @@
         <v>90.61</v>
       </c>
     </row>
-    <row r="1587" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1587" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1587" s="13">
         <v>43479</v>
       </c>
@@ -19858,7 +19844,7 @@
         <v>91.21</v>
       </c>
     </row>
-    <row r="1588" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1588" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1588" s="13">
         <v>43476</v>
       </c>
@@ -19869,7 +19855,7 @@
         <v>90.38</v>
       </c>
     </row>
-    <row r="1589" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1589" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1589" s="13">
         <v>43475</v>
       </c>
@@ -19880,7 +19866,7 @@
         <v>90.42</v>
       </c>
     </row>
-    <row r="1590" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1590" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1590" s="13">
         <v>43474</v>
       </c>
@@ -19891,7 +19877,7 @@
         <v>90.32</v>
       </c>
     </row>
-    <row r="1591" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1591" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1591" s="13">
         <v>43473</v>
       </c>
@@ -19902,7 +19888,7 @@
         <v>88.83</v>
       </c>
     </row>
-    <row r="1592" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1592" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1592" s="13">
         <v>43472</v>
       </c>
@@ -19913,7 +19899,7 @@
         <v>88.48</v>
       </c>
     </row>
-    <row r="1593" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1593" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1593" s="13">
         <v>43469</v>
       </c>
@@ -19924,7 +19910,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="1594" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1594" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1594" s="13">
         <v>43468</v>
       </c>
@@ -19935,7 +19921,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1595" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1595" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1595" s="13">
         <v>43467</v>
       </c>
@@ -19946,7 +19932,7 @@
         <v>87.9</v>
       </c>
     </row>
-    <row r="1596" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1596" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1596" s="13">
         <v>43462</v>
       </c>
@@ -19956,8 +19942,12 @@
       <c r="C1596" s="15">
         <v>84.6</v>
       </c>
-    </row>
-    <row r="1597" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1596" s="38">
+        <f>C1348/C1596</f>
+        <v>1.3147754137115841</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1597" s="13">
         <v>43461</v>
       </c>
@@ -19968,7 +19958,7 @@
         <v>82.65</v>
       </c>
     </row>
-    <row r="1598" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1598" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1598" s="13">
         <v>43460</v>
       </c>
@@ -19979,7 +19969,7 @@
         <v>82.14</v>
       </c>
     </row>
-    <row r="1599" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1599" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1599" s="13">
         <v>43455</v>
       </c>
@@ -19990,7 +19980,7 @@
         <v>82.44</v>
       </c>
     </row>
-    <row r="1600" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1600" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1600" s="13">
         <v>43454</v>
       </c>
@@ -22465,7 +22455,7 @@
         <v>80.83</v>
       </c>
     </row>
-    <row r="1825" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1825" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1825" s="13">
         <v>43123</v>
       </c>
@@ -22476,7 +22466,7 @@
         <v>77.8</v>
       </c>
     </row>
-    <row r="1826" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1826" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1826" s="13">
         <v>43122</v>
       </c>
@@ -22487,7 +22477,7 @@
         <v>78.84</v>
       </c>
     </row>
-    <row r="1827" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1827" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1827" s="13">
         <v>43119</v>
       </c>
@@ -22498,7 +22488,7 @@
         <v>78.42</v>
       </c>
     </row>
-    <row r="1828" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1828" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1828" s="13">
         <v>43118</v>
       </c>
@@ -22509,7 +22499,7 @@
         <v>78.099999999999994</v>
       </c>
     </row>
-    <row r="1829" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1829" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1829" s="13">
         <v>43117</v>
       </c>
@@ -22520,7 +22510,7 @@
         <v>78.41</v>
       </c>
     </row>
-    <row r="1830" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1830" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1830" s="13">
         <v>43116</v>
       </c>
@@ -22531,7 +22521,7 @@
         <v>77.06</v>
       </c>
     </row>
-    <row r="1831" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1831" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1831" s="13">
         <v>43115</v>
       </c>
@@ -22542,7 +22532,7 @@
         <v>77.069999999999993</v>
       </c>
     </row>
-    <row r="1832" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1832" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1832" s="13">
         <v>43112</v>
       </c>
@@ -22553,7 +22543,7 @@
         <v>76.67</v>
       </c>
     </row>
-    <row r="1833" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1833" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1833" s="13">
         <v>43111</v>
       </c>
@@ -22564,7 +22554,7 @@
         <v>76.66</v>
       </c>
     </row>
-    <row r="1834" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1834" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1834" s="13">
         <v>43110</v>
       </c>
@@ -22575,7 +22565,7 @@
         <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="1835" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1835" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1835" s="13">
         <v>43109</v>
       </c>
@@ -22586,7 +22576,7 @@
         <v>76.16</v>
       </c>
     </row>
-    <row r="1836" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1836" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1836" s="13">
         <v>43108</v>
       </c>
@@ -22597,7 +22587,7 @@
         <v>76.760000000000005</v>
       </c>
     </row>
-    <row r="1837" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1837" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1837" s="13">
         <v>43105</v>
       </c>
@@ -22608,7 +22598,7 @@
         <v>76.44</v>
       </c>
     </row>
-    <row r="1838" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1838" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1838" s="13">
         <v>43104</v>
       </c>
@@ -22619,7 +22609,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="1839" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1839" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1839" s="13">
         <v>43103</v>
       </c>
@@ -22629,8 +22619,12 @@
       <c r="C1839" s="15">
         <v>75.3</v>
       </c>
-    </row>
-    <row r="1840" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1839" s="5">
+        <f>11/75</f>
+        <v>0.14666666666666667</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1840" s="13">
         <v>43102</v>
       </c>
@@ -22639,6 +22633,14 @@
       </c>
       <c r="C1840" s="15">
         <v>75.099999999999994</v>
+      </c>
+      <c r="D1840" s="5">
+        <f>C1596/C1840</f>
+        <v>1.1264980026631159</v>
+      </c>
+      <c r="E1840" s="5">
+        <f>84.6/75.1</f>
+        <v>1.1264980026631159</v>
       </c>
     </row>
   </sheetData>

--- a/BASE DE DADOS - ENGIE.xlsx
+++ b/BASE DE DADOS - ENGIE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ef138d049f110aa/Área de Trabalho/JULIO/TCC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julio\OneDrive\Área de Trabalho\JULIO\TCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="8_{63989C9F-242C-4C1C-AFF7-B84FD5326898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8728DFC1-423F-40AC-88CA-39FDAF72A875}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBD1170-3695-467B-9502-305FF2CDE023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{902EDEFF-FA73-4CDA-B984-442BFAC16CE0}"/>
+    <workbookView xWindow="-23148" yWindow="6588" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{902EDEFF-FA73-4CDA-B984-442BFAC16CE0}"/>
   </bookViews>
   <sheets>
     <sheet name="DRE CONSOLIDADO" sheetId="2" r:id="rId1"/>
@@ -1110,10 +1110,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -3507,7 +3503,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:AL23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -6196,8 +6192,8 @@
   <sheetPr codeName="Planilha4"/>
   <dimension ref="A1:K1840"/>
   <sheetViews>
-    <sheetView topLeftCell="A1098" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1100" sqref="B1100"/>
+    <sheetView tabSelected="1" topLeftCell="A1816" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D1840" sqref="D1839:E1840"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23907,10 +23903,7 @@
       <c r="C1596" s="14">
         <v>84.6</v>
       </c>
-      <c r="D1596" s="21">
-        <f>C1348/C1596</f>
-        <v>1.3147754137115841</v>
-      </c>
+      <c r="D1596" s="21"/>
     </row>
     <row r="1597" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1597" s="12">
@@ -26420,7 +26413,7 @@
         <v>80.83</v>
       </c>
     </row>
-    <row r="1825" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1825" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1825" s="12">
         <v>43123</v>
       </c>
@@ -26431,7 +26424,7 @@
         <v>77.8</v>
       </c>
     </row>
-    <row r="1826" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1826" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1826" s="12">
         <v>43122</v>
       </c>
@@ -26442,7 +26435,7 @@
         <v>78.84</v>
       </c>
     </row>
-    <row r="1827" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1827" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1827" s="12">
         <v>43119</v>
       </c>
@@ -26453,7 +26446,7 @@
         <v>78.42</v>
       </c>
     </row>
-    <row r="1828" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1828" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1828" s="12">
         <v>43118</v>
       </c>
@@ -26464,7 +26457,7 @@
         <v>78.099999999999994</v>
       </c>
     </row>
-    <row r="1829" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1829" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1829" s="12">
         <v>43117</v>
       </c>
@@ -26475,7 +26468,7 @@
         <v>78.41</v>
       </c>
     </row>
-    <row r="1830" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1830" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1830" s="12">
         <v>43116</v>
       </c>
@@ -26486,7 +26479,7 @@
         <v>77.06</v>
       </c>
     </row>
-    <row r="1831" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1831" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1831" s="12">
         <v>43115</v>
       </c>
@@ -26497,7 +26490,7 @@
         <v>77.069999999999993</v>
       </c>
     </row>
-    <row r="1832" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1832" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1832" s="12">
         <v>43112</v>
       </c>
@@ -26508,7 +26501,7 @@
         <v>76.67</v>
       </c>
     </row>
-    <row r="1833" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1833" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1833" s="12">
         <v>43111</v>
       </c>
@@ -26519,7 +26512,7 @@
         <v>76.66</v>
       </c>
     </row>
-    <row r="1834" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1834" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1834" s="12">
         <v>43110</v>
       </c>
@@ -26530,7 +26523,7 @@
         <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="1835" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1835" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1835" s="12">
         <v>43109</v>
       </c>
@@ -26541,7 +26534,7 @@
         <v>76.16</v>
       </c>
     </row>
-    <row r="1836" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1836" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1836" s="12">
         <v>43108</v>
       </c>
@@ -26552,7 +26545,7 @@
         <v>76.760000000000005</v>
       </c>
     </row>
-    <row r="1837" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1837" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1837" s="12">
         <v>43105</v>
       </c>
@@ -26563,7 +26556,7 @@
         <v>76.44</v>
       </c>
     </row>
-    <row r="1838" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1838" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1838" s="12">
         <v>43104</v>
       </c>
@@ -26574,7 +26567,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="1839" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1839" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1839" s="12">
         <v>43103</v>
       </c>
@@ -26584,12 +26577,8 @@
       <c r="C1839" s="14">
         <v>75.3</v>
       </c>
-      <c r="D1839" s="5">
-        <f>11/75</f>
-        <v>0.14666666666666667</v>
-      </c>
-    </row>
-    <row r="1840" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1840" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1840" s="12">
         <v>43102</v>
       </c>
@@ -26598,14 +26587,6 @@
       </c>
       <c r="C1840" s="14">
         <v>75.099999999999994</v>
-      </c>
-      <c r="D1840" s="5">
-        <f>C1596/C1840</f>
-        <v>1.1264980026631159</v>
-      </c>
-      <c r="E1840" s="5">
-        <f>84.6/75.1</f>
-        <v>1.1264980026631159</v>
       </c>
     </row>
   </sheetData>

--- a/BASE DE DADOS - ENGIE.xlsx
+++ b/BASE DE DADOS - ENGIE.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julio\OneDrive\Área de Trabalho\JULIO\TCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulioBaroni\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBD1170-3695-467B-9502-305FF2CDE023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C2CE67E-5FC0-449B-BD6F-0E633ED6607F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="6588" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{902EDEFF-FA73-4CDA-B984-442BFAC16CE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{902EDEFF-FA73-4CDA-B984-442BFAC16CE0}"/>
   </bookViews>
   <sheets>
-    <sheet name="DRE CONSOLIDADO" sheetId="2" r:id="rId1"/>
-    <sheet name="BALANÇO PATRIMONIAL CONSOLIDADO" sheetId="1" r:id="rId2"/>
+    <sheet name="DRE CONSOLIDADO" sheetId="4" r:id="rId1"/>
+    <sheet name="BALANÇO PATRIMONIAL CONSOLIDAD" sheetId="5" r:id="rId2"/>
     <sheet name="PREÇO" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
   <si>
     <t>ATIVO CIRCULANTE</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>EGIE3</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Ativo/Passivo</t>
@@ -296,14 +293,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,12 +481,6 @@
       <color rgb="FF232A31"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -716,7 +704,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -887,19 +875,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -942,11 +919,10 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -979,78 +955,50 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="25" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="33" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="33" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="33" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="25" fillId="33" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="35" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="27" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="35" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="44">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1080,8 +1028,8 @@
     <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Moeda" xfId="44" builtinId="4"/>
-    <cellStyle name="Moeda 2" xfId="43" xr:uid="{6914F18D-AEE1-48F6-8B91-3C9D3CBBBD3B}"/>
+    <cellStyle name="Moeda" xfId="43" builtinId="4"/>
+    <cellStyle name="Moeda 2" xfId="42" xr:uid="{6914F18D-AEE1-48F6-8B91-3C9D3CBBBD3B}"/>
     <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -1095,7 +1043,6 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vírgula" xfId="42" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1426,2072 +1373,1892 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E133B4-20E7-4B59-B6B3-3AC688A7A472}">
-  <sheetPr codeName="Planilha2"/>
-  <dimension ref="A1:AU18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A04A773-D0DA-480C-AA72-034A96122FDD}">
+  <dimension ref="A1:AU13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53" customWidth="1"/>
-    <col min="2" max="47" width="10.85546875" customWidth="1"/>
-    <col min="49" max="49" width="10.140625" customWidth="1"/>
-    <col min="50" max="50" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="36" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="11" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="47" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="33" t="s">
+      <c r="J1" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="K1" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="L1" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="M1" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="33" t="s">
+      <c r="O1" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="P1" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="Q1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="R1" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" s="33" t="s">
+      <c r="T1" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="U1" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="V1" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="W1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="W1" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="X1" s="33" t="s">
+      <c r="Y1" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="Y1" s="33" t="s">
+      <c r="Z1" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="Z1" s="33" t="s">
+      <c r="AA1" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="AA1" s="33" t="s">
+      <c r="AB1" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="AB1" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC1" s="33" t="s">
+      <c r="AD1" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AE1" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="AE1" s="33" t="s">
+      <c r="AF1" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="33" t="s">
+      <c r="AG1" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH1" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="AG1" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH1" s="33" t="s">
+      <c r="AI1" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="AI1" s="33" t="s">
+      <c r="AJ1" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="AJ1" s="33" t="s">
+      <c r="AK1" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="AK1" s="33" t="s">
+      <c r="AL1" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="AL1" s="33" t="s">
+      <c r="AM1" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="AM1" s="33" t="s">
+      <c r="AN1" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="AN1" s="33" t="s">
+      <c r="AO1" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="AO1" s="33" t="s">
+      <c r="AP1" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="AP1" s="33" t="s">
+      <c r="AQ1" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="AQ1" s="33" t="s">
+      <c r="AR1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="AR1" s="33" t="s">
+      <c r="AS1" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="AS1" s="33" t="s">
+      <c r="AT1" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="AT1" s="33" t="s">
+      <c r="AU1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="AU1" s="33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47" s="36" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="35">
-        <v>3013069</v>
-      </c>
-      <c r="C2" s="35">
-        <v>11218635</v>
-      </c>
-      <c r="D2" s="35">
-        <v>3270906</v>
-      </c>
-      <c r="E2" s="35">
-        <v>2536849</v>
-      </c>
-      <c r="F2" s="35">
-        <v>2801463</v>
-      </c>
-      <c r="G2" s="35">
-        <v>2609417</v>
-      </c>
-      <c r="H2" s="35">
-        <v>10747784</v>
-      </c>
-      <c r="I2" s="35">
-        <v>2710991</v>
-      </c>
-      <c r="J2" s="35">
-        <v>2513512</v>
-      </c>
-      <c r="K2" s="35">
-        <v>2609533</v>
-      </c>
-      <c r="L2" s="35">
-        <v>2913748</v>
-      </c>
-      <c r="M2" s="35">
-        <v>11906605</v>
-      </c>
-      <c r="N2" s="35">
-        <v>3101414</v>
-      </c>
-      <c r="O2" s="35">
-        <v>2746625</v>
-      </c>
-      <c r="P2" s="35">
-        <v>2996265</v>
-      </c>
-      <c r="Q2" s="35">
-        <v>3062301</v>
-      </c>
-      <c r="R2" s="35">
-        <v>12540673</v>
-      </c>
-      <c r="S2" s="35">
-        <v>2768822</v>
-      </c>
-      <c r="T2" s="35">
-        <v>3388846</v>
-      </c>
-      <c r="U2" s="35">
-        <v>3133065</v>
-      </c>
-      <c r="V2" s="35">
-        <v>3249940</v>
-      </c>
-      <c r="W2" s="35">
-        <v>12259159</v>
-      </c>
-      <c r="X2" s="35">
-        <v>3769234</v>
-      </c>
-      <c r="Y2" s="35">
-        <v>3208816</v>
-      </c>
-      <c r="Z2" s="35">
-        <v>2686515</v>
-      </c>
-      <c r="AA2" s="35">
-        <v>2594594</v>
-      </c>
-      <c r="AB2" s="35">
-        <v>9804478</v>
-      </c>
-      <c r="AC2" s="35">
-        <v>2795124</v>
-      </c>
-      <c r="AD2" s="35">
-        <v>2494116</v>
-      </c>
-      <c r="AE2" s="35">
-        <v>2176479</v>
-      </c>
-      <c r="AF2" s="35">
-        <v>2338759</v>
-      </c>
-      <c r="AG2" s="35">
-        <v>8794792</v>
-      </c>
-      <c r="AH2" s="35">
-        <v>2302321</v>
-      </c>
-      <c r="AI2" s="35">
-        <v>2488646</v>
-      </c>
-      <c r="AJ2" s="35">
-        <v>2134972</v>
-      </c>
-      <c r="AK2" s="35">
-        <v>1868853</v>
-      </c>
-      <c r="AL2" s="35">
-        <v>7009957</v>
-      </c>
-      <c r="AM2" s="35">
-        <v>2067364</v>
-      </c>
-      <c r="AN2" s="35">
-        <v>1654738</v>
-      </c>
-      <c r="AO2" s="35">
-        <v>1681943</v>
-      </c>
-      <c r="AP2" s="35">
-        <v>1605912</v>
-      </c>
-      <c r="AQ2" s="35">
-        <v>6442371</v>
-      </c>
-      <c r="AR2" s="35">
-        <v>1666209</v>
-      </c>
-      <c r="AS2" s="35">
-        <v>1602820</v>
-      </c>
-      <c r="AT2" s="35">
-        <v>1570687</v>
-      </c>
-      <c r="AU2" s="35">
-        <v>1602655</v>
-      </c>
-    </row>
-    <row r="3" spans="1:47" s="36" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="B2">
+        <v>3013069000</v>
+      </c>
+      <c r="C2">
+        <v>11218635000</v>
+      </c>
+      <c r="D2">
+        <v>3270906000</v>
+      </c>
+      <c r="E2">
+        <v>2536849000</v>
+      </c>
+      <c r="F2">
+        <v>2801463000</v>
+      </c>
+      <c r="G2">
+        <v>2609417000</v>
+      </c>
+      <c r="H2">
+        <v>10747784000</v>
+      </c>
+      <c r="I2">
+        <v>2710991000</v>
+      </c>
+      <c r="J2">
+        <v>2513512000</v>
+      </c>
+      <c r="K2">
+        <v>2609533000</v>
+      </c>
+      <c r="L2">
+        <v>2913748000</v>
+      </c>
+      <c r="M2">
+        <v>11906605000</v>
+      </c>
+      <c r="N2">
+        <v>3101414000</v>
+      </c>
+      <c r="O2">
+        <v>2746625000</v>
+      </c>
+      <c r="P2">
+        <v>2996265000</v>
+      </c>
+      <c r="Q2">
+        <v>3062301000</v>
+      </c>
+      <c r="R2">
+        <v>12540673000</v>
+      </c>
+      <c r="S2">
+        <v>2768822000</v>
+      </c>
+      <c r="T2">
+        <v>3388846000</v>
+      </c>
+      <c r="U2">
+        <v>3133065000</v>
+      </c>
+      <c r="V2">
+        <v>3249940000</v>
+      </c>
+      <c r="W2">
+        <v>12259159000</v>
+      </c>
+      <c r="X2">
+        <v>3769234000</v>
+      </c>
+      <c r="Y2">
+        <v>3208816000</v>
+      </c>
+      <c r="Z2">
+        <v>2686515000</v>
+      </c>
+      <c r="AA2">
+        <v>2594594000</v>
+      </c>
+      <c r="AB2">
+        <v>9804478000</v>
+      </c>
+      <c r="AC2">
+        <v>2795124000</v>
+      </c>
+      <c r="AD2">
+        <v>2494116000</v>
+      </c>
+      <c r="AE2">
+        <v>2176479000</v>
+      </c>
+      <c r="AF2">
+        <v>2338759000</v>
+      </c>
+      <c r="AG2">
+        <v>8794792000</v>
+      </c>
+      <c r="AH2">
+        <v>2302321000</v>
+      </c>
+      <c r="AI2">
+        <v>2488646000</v>
+      </c>
+      <c r="AJ2">
+        <v>2134972000</v>
+      </c>
+      <c r="AK2">
+        <v>1868853000</v>
+      </c>
+      <c r="AL2">
+        <v>7009957000</v>
+      </c>
+      <c r="AM2">
+        <v>2067364000</v>
+      </c>
+      <c r="AN2">
+        <v>1654738000</v>
+      </c>
+      <c r="AO2">
+        <v>1681943000</v>
+      </c>
+      <c r="AP2">
+        <v>1605912000</v>
+      </c>
+      <c r="AQ2">
+        <v>6442371000</v>
+      </c>
+      <c r="AR2">
+        <v>1666209000</v>
+      </c>
+      <c r="AS2">
+        <v>1602820000</v>
+      </c>
+      <c r="AT2">
+        <v>1570687000</v>
+      </c>
+      <c r="AU2">
+        <v>1602655000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="35">
-        <v>-1372321</v>
-      </c>
-      <c r="C3" s="35">
-        <v>-5112053</v>
-      </c>
-      <c r="D3" s="35">
-        <v>-1674952</v>
-      </c>
-      <c r="E3" s="35">
-        <v>-1233285</v>
-      </c>
-      <c r="F3" s="35">
-        <v>-1109404</v>
-      </c>
-      <c r="G3" s="35">
-        <v>-1094412</v>
-      </c>
-      <c r="H3" s="35">
-        <v>-4840645</v>
-      </c>
-      <c r="I3" s="35">
-        <v>-1334607</v>
-      </c>
-      <c r="J3" s="35">
-        <v>-1194657</v>
-      </c>
-      <c r="K3" s="35">
-        <v>-1078474</v>
-      </c>
-      <c r="L3" s="35">
-        <v>-1232907</v>
-      </c>
-      <c r="M3" s="35">
-        <v>-6317412</v>
-      </c>
-      <c r="N3" s="35">
-        <v>-1694780</v>
-      </c>
-      <c r="O3" s="35">
-        <v>-1658589</v>
-      </c>
-      <c r="P3" s="35">
-        <v>-1443876</v>
-      </c>
-      <c r="Q3" s="35">
-        <v>-1535308</v>
-      </c>
-      <c r="R3" s="35">
-        <v>-6629461</v>
-      </c>
-      <c r="S3" s="35">
-        <v>-882011</v>
-      </c>
-      <c r="T3" s="35">
-        <v>-1991466</v>
-      </c>
-      <c r="U3" s="35">
-        <v>-1909579</v>
-      </c>
-      <c r="V3" s="35">
-        <v>-1846405</v>
-      </c>
-      <c r="W3" s="35">
-        <v>-6795857</v>
-      </c>
-      <c r="X3" s="35">
-        <v>-1634156</v>
-      </c>
-      <c r="Y3" s="35">
-        <v>-2040361</v>
-      </c>
-      <c r="Z3" s="35">
-        <v>-1582366</v>
-      </c>
-      <c r="AA3" s="35">
-        <v>-1538974</v>
-      </c>
-      <c r="AB3" s="35">
-        <v>-5652963</v>
-      </c>
-      <c r="AC3" s="35">
-        <v>-1728820</v>
-      </c>
-      <c r="AD3" s="35">
-        <v>-1422305</v>
-      </c>
-      <c r="AE3" s="35">
-        <v>-1243871</v>
-      </c>
-      <c r="AF3" s="35">
-        <v>-1257967</v>
-      </c>
-      <c r="AG3" s="35">
-        <v>-4875986</v>
-      </c>
-      <c r="AH3" s="35">
-        <v>-1326090</v>
-      </c>
-      <c r="AI3" s="35">
-        <v>-1583250</v>
-      </c>
-      <c r="AJ3" s="35">
-        <v>-1023065</v>
-      </c>
-      <c r="AK3" s="35">
-        <v>-943581</v>
-      </c>
-      <c r="AL3" s="35">
-        <v>-4003871</v>
-      </c>
-      <c r="AM3" s="35">
-        <v>-1164528</v>
-      </c>
-      <c r="AN3" s="35">
-        <v>-1066020</v>
-      </c>
-      <c r="AO3" s="35">
-        <v>-946971</v>
-      </c>
-      <c r="AP3" s="35">
-        <v>-826352</v>
-      </c>
-      <c r="AQ3" s="35">
-        <v>-3701457</v>
-      </c>
-      <c r="AR3" s="35">
-        <v>-950884</v>
-      </c>
-      <c r="AS3" s="35">
-        <v>-910044</v>
-      </c>
-      <c r="AT3" s="35">
-        <v>-924247</v>
-      </c>
-      <c r="AU3" s="35">
-        <v>-916282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>-1372321000</v>
+      </c>
+      <c r="C3">
+        <v>-5112053000</v>
+      </c>
+      <c r="D3">
+        <v>-1674952000</v>
+      </c>
+      <c r="E3">
+        <v>-1233285000</v>
+      </c>
+      <c r="F3">
+        <v>-1109404000</v>
+      </c>
+      <c r="G3">
+        <v>-1094412000</v>
+      </c>
+      <c r="H3">
+        <v>-4840645000</v>
+      </c>
+      <c r="I3">
+        <v>-1334607000</v>
+      </c>
+      <c r="J3">
+        <v>-1194657000</v>
+      </c>
+      <c r="K3">
+        <v>-1078474000</v>
+      </c>
+      <c r="L3">
+        <v>-1232907000</v>
+      </c>
+      <c r="M3">
+        <v>-6317412000</v>
+      </c>
+      <c r="N3">
+        <v>-1694780000</v>
+      </c>
+      <c r="O3">
+        <v>-1658589000</v>
+      </c>
+      <c r="P3">
+        <v>-1443876000</v>
+      </c>
+      <c r="Q3">
+        <v>-1535308000</v>
+      </c>
+      <c r="R3">
+        <v>-6629461000</v>
+      </c>
+      <c r="S3">
+        <v>-882011000</v>
+      </c>
+      <c r="T3">
+        <v>-1991466000</v>
+      </c>
+      <c r="U3">
+        <v>-1909579000</v>
+      </c>
+      <c r="V3">
+        <v>-1846405000</v>
+      </c>
+      <c r="W3">
+        <v>-6795857000</v>
+      </c>
+      <c r="X3">
+        <v>-1634156000</v>
+      </c>
+      <c r="Y3">
+        <v>-2040361000</v>
+      </c>
+      <c r="Z3">
+        <v>-1582366000</v>
+      </c>
+      <c r="AA3">
+        <v>-1538974000</v>
+      </c>
+      <c r="AB3">
+        <v>-5652963000</v>
+      </c>
+      <c r="AC3">
+        <v>-1728820000</v>
+      </c>
+      <c r="AD3">
+        <v>-1422305000</v>
+      </c>
+      <c r="AE3">
+        <v>-1243871000</v>
+      </c>
+      <c r="AF3">
+        <v>-1257967000</v>
+      </c>
+      <c r="AG3">
+        <v>-4875986000</v>
+      </c>
+      <c r="AH3">
+        <v>-1326090000</v>
+      </c>
+      <c r="AI3">
+        <v>-1583250000</v>
+      </c>
+      <c r="AJ3">
+        <v>-1023065000</v>
+      </c>
+      <c r="AK3">
+        <v>-943581000</v>
+      </c>
+      <c r="AL3">
+        <v>-4003871000</v>
+      </c>
+      <c r="AM3">
+        <v>-1164528000</v>
+      </c>
+      <c r="AN3">
+        <v>-1066020000</v>
+      </c>
+      <c r="AO3">
+        <v>-946971000</v>
+      </c>
+      <c r="AP3">
+        <v>-826352000</v>
+      </c>
+      <c r="AQ3">
+        <v>-3701457000</v>
+      </c>
+      <c r="AR3">
+        <v>-950884000</v>
+      </c>
+      <c r="AS3">
+        <v>-910044000</v>
+      </c>
+      <c r="AT3">
+        <v>-924247000</v>
+      </c>
+      <c r="AU3">
+        <v>-916282000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="17">
-        <v>-311651</v>
-      </c>
-      <c r="C4" s="17">
-        <v>-1031423</v>
-      </c>
-      <c r="D4" s="17">
-        <v>-278871</v>
-      </c>
-      <c r="E4" s="17">
-        <v>-262700</v>
-      </c>
-      <c r="F4" s="17">
-        <v>-254602</v>
-      </c>
-      <c r="G4" s="17">
-        <v>-235250</v>
-      </c>
-      <c r="H4" s="17">
-        <v>-881946</v>
-      </c>
-      <c r="I4" s="17">
-        <v>-221993</v>
-      </c>
-      <c r="J4" s="17">
-        <v>-221731</v>
-      </c>
-      <c r="K4" s="17">
-        <v>-221443</v>
-      </c>
-      <c r="L4" s="17">
-        <v>-216779</v>
-      </c>
-      <c r="M4" s="17">
-        <v>-953346</v>
-      </c>
-      <c r="N4" s="17">
-        <v>-217934</v>
-      </c>
-      <c r="O4" s="17">
-        <v>-243950</v>
-      </c>
-      <c r="P4" s="17">
-        <v>-250637</v>
-      </c>
-      <c r="Q4" s="17">
-        <v>-240825</v>
-      </c>
-      <c r="R4" s="17">
-        <v>-1012205</v>
-      </c>
-      <c r="S4" s="17">
-        <v>-325418</v>
-      </c>
-      <c r="T4" s="17">
-        <v>-230706</v>
-      </c>
-      <c r="U4" s="17">
-        <v>-231106</v>
-      </c>
-      <c r="V4" s="17">
-        <v>-224975</v>
-      </c>
-      <c r="W4" s="17">
-        <v>-893821</v>
-      </c>
-      <c r="X4" s="17">
-        <v>-217759</v>
-      </c>
-      <c r="Y4" s="17">
-        <v>-217914</v>
-      </c>
-      <c r="Z4" s="17">
-        <v>-227904</v>
-      </c>
-      <c r="AA4" s="17">
-        <v>-230244</v>
-      </c>
-      <c r="AB4" s="17">
-        <v>-844390</v>
-      </c>
-      <c r="AC4" s="17">
-        <v>-236090</v>
-      </c>
-      <c r="AD4" s="17">
-        <v>-221656</v>
-      </c>
-      <c r="AE4" s="17">
-        <v>-199452</v>
-      </c>
-      <c r="AF4" s="17">
-        <v>-187192</v>
-      </c>
-      <c r="AG4" s="17">
-        <v>-649627</v>
-      </c>
-      <c r="AH4" s="17">
-        <v>-171004</v>
-      </c>
-      <c r="AI4" s="17">
-        <v>-157617</v>
-      </c>
-      <c r="AJ4" s="17">
-        <v>-154286</v>
-      </c>
-      <c r="AK4" s="17">
-        <v>-166720</v>
-      </c>
-      <c r="AL4" s="17">
-        <v>-639899</v>
-      </c>
-      <c r="AM4" s="17">
-        <v>-166118</v>
-      </c>
-      <c r="AN4" s="17">
-        <v>-161782</v>
-      </c>
-      <c r="AO4" s="17">
-        <v>-164427</v>
-      </c>
-      <c r="AP4" s="17">
-        <v>-147572</v>
-      </c>
-      <c r="AQ4" s="17">
-        <v>-622060</v>
-      </c>
-      <c r="AR4" s="17">
-        <v>-158322</v>
-      </c>
-      <c r="AS4" s="17">
-        <v>-156062</v>
-      </c>
-      <c r="AT4" s="17">
-        <v>-155696</v>
-      </c>
-      <c r="AU4" s="17">
-        <v>-151980</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47" s="36" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="B4">
+        <v>-311651000</v>
+      </c>
+      <c r="C4">
+        <v>-1031423000</v>
+      </c>
+      <c r="D4">
+        <v>-278871000</v>
+      </c>
+      <c r="E4">
+        <v>-262700000</v>
+      </c>
+      <c r="F4">
+        <v>-254602000</v>
+      </c>
+      <c r="G4">
+        <v>-235250000</v>
+      </c>
+      <c r="H4">
+        <v>-881946000</v>
+      </c>
+      <c r="I4">
+        <v>-221993000</v>
+      </c>
+      <c r="J4">
+        <v>-221731000</v>
+      </c>
+      <c r="K4">
+        <v>-221443000</v>
+      </c>
+      <c r="L4">
+        <v>-216779000</v>
+      </c>
+      <c r="M4">
+        <v>-953346000</v>
+      </c>
+      <c r="N4">
+        <v>-217934000</v>
+      </c>
+      <c r="O4">
+        <v>-243950000</v>
+      </c>
+      <c r="P4">
+        <v>-250637000</v>
+      </c>
+      <c r="Q4">
+        <v>-240825000</v>
+      </c>
+      <c r="R4">
+        <v>-1012205000</v>
+      </c>
+      <c r="S4">
+        <v>-325418000</v>
+      </c>
+      <c r="T4">
+        <v>-230706000</v>
+      </c>
+      <c r="U4">
+        <v>-231106000</v>
+      </c>
+      <c r="V4">
+        <v>-224975000</v>
+      </c>
+      <c r="W4">
+        <v>-893821000</v>
+      </c>
+      <c r="X4">
+        <v>-217759000</v>
+      </c>
+      <c r="Y4">
+        <v>-217914000</v>
+      </c>
+      <c r="Z4">
+        <v>-227904000</v>
+      </c>
+      <c r="AA4">
+        <v>-230244000</v>
+      </c>
+      <c r="AB4">
+        <v>-844390000</v>
+      </c>
+      <c r="AC4">
+        <v>-236090000</v>
+      </c>
+      <c r="AD4">
+        <v>-221656000</v>
+      </c>
+      <c r="AE4">
+        <v>-199452000</v>
+      </c>
+      <c r="AF4">
+        <v>-187192000</v>
+      </c>
+      <c r="AG4">
+        <v>-649627000</v>
+      </c>
+      <c r="AH4">
+        <v>-171004000</v>
+      </c>
+      <c r="AI4">
+        <v>-157617000</v>
+      </c>
+      <c r="AJ4">
+        <v>-154286000</v>
+      </c>
+      <c r="AK4">
+        <v>-166720000</v>
+      </c>
+      <c r="AL4">
+        <v>-639899000</v>
+      </c>
+      <c r="AM4">
+        <v>-166118000</v>
+      </c>
+      <c r="AN4">
+        <v>-161782000</v>
+      </c>
+      <c r="AO4">
+        <v>-164427000</v>
+      </c>
+      <c r="AP4">
+        <v>-147572000</v>
+      </c>
+      <c r="AQ4">
+        <v>-622060000</v>
+      </c>
+      <c r="AR4">
+        <v>-158322000</v>
+      </c>
+      <c r="AS4">
+        <v>-156062000</v>
+      </c>
+      <c r="AT4">
+        <v>-155696000</v>
+      </c>
+      <c r="AU4">
+        <v>-151980000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="35">
-        <v>1640748</v>
-      </c>
-      <c r="C5" s="35">
-        <v>6106582</v>
-      </c>
-      <c r="D5" s="35">
-        <v>1595954</v>
-      </c>
-      <c r="E5" s="35">
-        <v>1303564</v>
-      </c>
-      <c r="F5" s="35">
-        <v>1692059</v>
-      </c>
-      <c r="G5" s="35">
-        <v>1515005</v>
-      </c>
-      <c r="H5" s="35">
-        <v>5907139</v>
-      </c>
-      <c r="I5" s="35">
-        <v>1376384</v>
-      </c>
-      <c r="J5" s="35">
-        <v>1318855</v>
-      </c>
-      <c r="K5" s="35">
-        <v>1531059</v>
-      </c>
-      <c r="L5" s="35">
-        <v>1680841</v>
-      </c>
-      <c r="M5" s="35">
-        <v>5589193</v>
-      </c>
-      <c r="N5" s="35">
-        <v>1406634</v>
-      </c>
-      <c r="O5" s="35">
-        <v>1088036</v>
-      </c>
-      <c r="P5" s="35">
-        <v>1552389</v>
-      </c>
-      <c r="Q5" s="35">
-        <v>1526993</v>
-      </c>
-      <c r="R5" s="35">
-        <v>5911212</v>
-      </c>
-      <c r="S5" s="35">
-        <v>1886811</v>
-      </c>
-      <c r="T5" s="35">
-        <v>1397380</v>
-      </c>
-      <c r="U5" s="35">
-        <v>1223486</v>
-      </c>
-      <c r="V5" s="35">
-        <v>1403535</v>
-      </c>
-      <c r="W5" s="35">
-        <v>5463302</v>
-      </c>
-      <c r="X5" s="35">
-        <v>2135078</v>
-      </c>
-      <c r="Y5" s="35">
-        <v>1168455</v>
-      </c>
-      <c r="Z5" s="35">
-        <v>1104149</v>
-      </c>
-      <c r="AA5" s="35">
-        <v>1055620</v>
-      </c>
-      <c r="AB5" s="35">
-        <v>4151515</v>
-      </c>
-      <c r="AC5" s="35">
-        <v>1066304</v>
-      </c>
-      <c r="AD5" s="35">
-        <v>1071811</v>
-      </c>
-      <c r="AE5" s="35">
-        <v>932608</v>
-      </c>
-      <c r="AF5" s="35">
-        <v>1080792</v>
-      </c>
-      <c r="AG5" s="35">
-        <v>3918806</v>
-      </c>
-      <c r="AH5" s="35">
-        <v>976231</v>
-      </c>
-      <c r="AI5" s="35">
-        <v>905396</v>
-      </c>
-      <c r="AJ5" s="35">
-        <v>1111907</v>
-      </c>
-      <c r="AK5" s="35">
-        <v>925272</v>
-      </c>
-      <c r="AL5" s="35">
-        <v>3006086</v>
-      </c>
-      <c r="AM5" s="35">
-        <v>902836</v>
-      </c>
-      <c r="AN5" s="35">
-        <v>588718</v>
-      </c>
-      <c r="AO5" s="35">
-        <v>734972</v>
-      </c>
-      <c r="AP5" s="35">
-        <v>779560</v>
-      </c>
-      <c r="AQ5" s="35">
-        <v>2740914</v>
-      </c>
-      <c r="AR5" s="35">
-        <v>715325</v>
-      </c>
-      <c r="AS5" s="35">
-        <v>692776</v>
-      </c>
-      <c r="AT5" s="35">
-        <v>646440</v>
-      </c>
-      <c r="AU5" s="35">
-        <v>686373</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47" s="36" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="B5">
+        <v>1640748000</v>
+      </c>
+      <c r="C5">
+        <v>6106582000</v>
+      </c>
+      <c r="D5">
+        <v>1595954000</v>
+      </c>
+      <c r="E5">
+        <v>1303564000</v>
+      </c>
+      <c r="F5">
+        <v>1692059000</v>
+      </c>
+      <c r="G5">
+        <v>1515005000</v>
+      </c>
+      <c r="H5">
+        <v>5907139000</v>
+      </c>
+      <c r="I5">
+        <v>1376384000</v>
+      </c>
+      <c r="J5">
+        <v>1318855000</v>
+      </c>
+      <c r="K5">
+        <v>1531059000</v>
+      </c>
+      <c r="L5">
+        <v>1680841000</v>
+      </c>
+      <c r="M5">
+        <v>5589193000</v>
+      </c>
+      <c r="N5">
+        <v>1406634000</v>
+      </c>
+      <c r="O5">
+        <v>1088036000</v>
+      </c>
+      <c r="P5">
+        <v>1552389000</v>
+      </c>
+      <c r="Q5">
+        <v>1526993000</v>
+      </c>
+      <c r="R5">
+        <v>5911212000</v>
+      </c>
+      <c r="S5">
+        <v>1886811000</v>
+      </c>
+      <c r="T5">
+        <v>1397380000</v>
+      </c>
+      <c r="U5">
+        <v>1223486000</v>
+      </c>
+      <c r="V5">
+        <v>1403535000</v>
+      </c>
+      <c r="W5">
+        <v>5463302000</v>
+      </c>
+      <c r="X5">
+        <v>2135078000</v>
+      </c>
+      <c r="Y5">
+        <v>1168455000</v>
+      </c>
+      <c r="Z5">
+        <v>1104149000</v>
+      </c>
+      <c r="AA5">
+        <v>1055620000</v>
+      </c>
+      <c r="AB5">
+        <v>4151515000</v>
+      </c>
+      <c r="AC5">
+        <v>1066304000</v>
+      </c>
+      <c r="AD5">
+        <v>1071811000</v>
+      </c>
+      <c r="AE5">
+        <v>932608000</v>
+      </c>
+      <c r="AF5">
+        <v>1080792000</v>
+      </c>
+      <c r="AG5">
+        <v>3918806000</v>
+      </c>
+      <c r="AH5">
+        <v>976231000</v>
+      </c>
+      <c r="AI5">
+        <v>905396000</v>
+      </c>
+      <c r="AJ5">
+        <v>1111907000</v>
+      </c>
+      <c r="AK5">
+        <v>925272000</v>
+      </c>
+      <c r="AL5">
+        <v>3006086000</v>
+      </c>
+      <c r="AM5">
+        <v>902836000</v>
+      </c>
+      <c r="AN5">
+        <v>588718000</v>
+      </c>
+      <c r="AO5">
+        <v>734972000</v>
+      </c>
+      <c r="AP5">
+        <v>779560000</v>
+      </c>
+      <c r="AQ5">
+        <v>2740914000</v>
+      </c>
+      <c r="AR5">
+        <v>715325000</v>
+      </c>
+      <c r="AS5">
+        <v>692776000</v>
+      </c>
+      <c r="AT5">
+        <v>646440000</v>
+      </c>
+      <c r="AU5">
+        <v>686373000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="35">
-        <v>-85251</v>
-      </c>
-      <c r="C6" s="35">
-        <v>861354</v>
-      </c>
-      <c r="D6" s="35">
-        <v>-129216</v>
-      </c>
-      <c r="E6" s="35">
-        <v>-103023</v>
-      </c>
-      <c r="F6" s="35">
-        <v>-149468</v>
-      </c>
-      <c r="G6" s="35">
-        <v>1243061</v>
-      </c>
-      <c r="H6" s="35">
-        <v>-539958</v>
-      </c>
-      <c r="I6" s="35">
-        <v>-23607</v>
-      </c>
-      <c r="J6" s="35">
-        <v>-164080</v>
-      </c>
-      <c r="K6" s="35">
-        <v>-260475</v>
-      </c>
-      <c r="L6" s="35">
-        <v>-91796</v>
-      </c>
-      <c r="M6" s="35">
-        <v>-515745</v>
-      </c>
-      <c r="N6" s="35">
-        <v>-112576</v>
-      </c>
-      <c r="O6" s="35">
-        <v>-73962</v>
-      </c>
-      <c r="P6" s="35">
-        <v>-255998</v>
-      </c>
-      <c r="Q6" s="35">
-        <v>-58068</v>
-      </c>
-      <c r="R6" s="35">
-        <v>-1615073</v>
-      </c>
-      <c r="S6" s="35">
-        <v>-1265355</v>
-      </c>
-      <c r="T6" s="35">
-        <v>-39702</v>
-      </c>
-      <c r="U6" s="35">
-        <v>-239340</v>
-      </c>
-      <c r="V6" s="35">
-        <v>-70676</v>
-      </c>
-      <c r="W6" s="35">
-        <v>-380790</v>
-      </c>
-      <c r="X6" s="35">
-        <v>-190433</v>
-      </c>
-      <c r="Y6" s="35">
-        <v>-61514</v>
-      </c>
-      <c r="Z6" s="35">
-        <v>-66846</v>
-      </c>
-      <c r="AA6" s="35">
-        <v>-61997</v>
-      </c>
-      <c r="AB6" s="35">
-        <v>62269</v>
-      </c>
-      <c r="AC6" s="35">
-        <v>-78804</v>
-      </c>
-      <c r="AD6" s="35">
-        <v>262600</v>
-      </c>
-      <c r="AE6" s="35">
-        <v>-57376</v>
-      </c>
-      <c r="AF6" s="35">
-        <v>-64151</v>
-      </c>
-      <c r="AG6" s="35">
-        <v>-250724</v>
-      </c>
-      <c r="AH6" s="35">
-        <v>-73115</v>
-      </c>
-      <c r="AI6" s="35">
-        <v>-56418</v>
-      </c>
-      <c r="AJ6" s="35">
-        <v>-73428</v>
-      </c>
-      <c r="AK6" s="35">
-        <v>-47763</v>
-      </c>
-      <c r="AL6" s="35">
-        <v>-153993</v>
-      </c>
-      <c r="AM6" s="35">
-        <v>-22135</v>
-      </c>
-      <c r="AN6" s="35">
-        <v>-42069</v>
-      </c>
-      <c r="AO6" s="35">
-        <v>-45992</v>
-      </c>
-      <c r="AP6" s="35">
-        <v>-43797</v>
-      </c>
-      <c r="AQ6" s="35">
-        <v>-316465</v>
-      </c>
-      <c r="AR6" s="35">
-        <v>-172491</v>
-      </c>
-      <c r="AS6" s="35">
-        <v>-43782</v>
-      </c>
-      <c r="AT6" s="35">
-        <v>-52419</v>
-      </c>
-      <c r="AU6" s="35">
-        <v>-47773</v>
-      </c>
-    </row>
-    <row r="7" spans="1:47" s="36" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="B6">
+        <v>-85251000</v>
+      </c>
+      <c r="C6">
+        <v>861354000</v>
+      </c>
+      <c r="D6">
+        <v>-129216000</v>
+      </c>
+      <c r="E6">
+        <v>-103023000</v>
+      </c>
+      <c r="F6">
+        <v>-149468000</v>
+      </c>
+      <c r="G6">
+        <v>1243061000</v>
+      </c>
+      <c r="H6">
+        <v>-539958000</v>
+      </c>
+      <c r="I6">
+        <v>-23607000</v>
+      </c>
+      <c r="J6">
+        <v>-164080000</v>
+      </c>
+      <c r="K6">
+        <v>-260475000</v>
+      </c>
+      <c r="L6">
+        <v>-91796000</v>
+      </c>
+      <c r="M6">
+        <v>-515745000</v>
+      </c>
+      <c r="N6">
+        <v>-112576000</v>
+      </c>
+      <c r="O6">
+        <v>-73962000</v>
+      </c>
+      <c r="P6">
+        <v>-255998000</v>
+      </c>
+      <c r="Q6">
+        <v>-58068000</v>
+      </c>
+      <c r="R6">
+        <v>-1615073000</v>
+      </c>
+      <c r="S6">
+        <v>-1265355000</v>
+      </c>
+      <c r="T6">
+        <v>-39702000</v>
+      </c>
+      <c r="U6">
+        <v>-239340000</v>
+      </c>
+      <c r="V6">
+        <v>-70676000</v>
+      </c>
+      <c r="W6">
+        <v>-380790000</v>
+      </c>
+      <c r="X6">
+        <v>-190433000</v>
+      </c>
+      <c r="Y6">
+        <v>-61514000</v>
+      </c>
+      <c r="Z6">
+        <v>-66846000</v>
+      </c>
+      <c r="AA6">
+        <v>-61997000</v>
+      </c>
+      <c r="AB6">
+        <v>62269000</v>
+      </c>
+      <c r="AC6">
+        <v>-78804000</v>
+      </c>
+      <c r="AD6">
+        <v>262600000</v>
+      </c>
+      <c r="AE6">
+        <v>-57376000</v>
+      </c>
+      <c r="AF6">
+        <v>-64151000</v>
+      </c>
+      <c r="AG6">
+        <v>-250724000</v>
+      </c>
+      <c r="AH6">
+        <v>-73115000</v>
+      </c>
+      <c r="AI6">
+        <v>-56418000</v>
+      </c>
+      <c r="AJ6">
+        <v>-73428000</v>
+      </c>
+      <c r="AK6">
+        <v>-47763000</v>
+      </c>
+      <c r="AL6">
+        <v>-153993000</v>
+      </c>
+      <c r="AM6">
+        <v>-22135000</v>
+      </c>
+      <c r="AN6">
+        <v>-42069000</v>
+      </c>
+      <c r="AO6">
+        <v>-45992000</v>
+      </c>
+      <c r="AP6">
+        <v>-43797000</v>
+      </c>
+      <c r="AQ6">
+        <v>-316465000</v>
+      </c>
+      <c r="AR6">
+        <v>-172491000</v>
+      </c>
+      <c r="AS6">
+        <v>-43782000</v>
+      </c>
+      <c r="AT6">
+        <v>-52419000</v>
+      </c>
+      <c r="AU6">
+        <v>-47773000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="35">
-        <v>1722276</v>
-      </c>
-      <c r="C7" s="35">
-        <v>7682051</v>
-      </c>
-      <c r="D7" s="35">
-        <v>1685270</v>
-      </c>
-      <c r="E7" s="35">
-        <v>1382161</v>
-      </c>
-      <c r="F7" s="35">
-        <v>1695017</v>
-      </c>
-      <c r="G7" s="35">
-        <v>2919603</v>
-      </c>
-      <c r="H7" s="35">
-        <v>6360298</v>
-      </c>
-      <c r="I7" s="35">
-        <v>1570187</v>
-      </c>
-      <c r="J7" s="35">
-        <v>1475128</v>
-      </c>
-      <c r="K7" s="35">
-        <v>1478223</v>
-      </c>
-      <c r="L7" s="35">
-        <v>1836760</v>
-      </c>
-      <c r="M7" s="35">
-        <v>5800584</v>
-      </c>
-      <c r="N7" s="35">
-        <v>1487055</v>
-      </c>
-      <c r="O7" s="35">
-        <v>1215810</v>
-      </c>
-      <c r="P7" s="35">
-        <v>1456228</v>
-      </c>
-      <c r="Q7" s="35">
-        <v>1641491</v>
-      </c>
-      <c r="R7" s="35">
-        <v>4898124</v>
-      </c>
-      <c r="S7" s="35">
-        <v>749918</v>
-      </c>
-      <c r="T7" s="35">
-        <v>1509254</v>
-      </c>
-      <c r="U7" s="35">
-        <v>1131564</v>
-      </c>
-      <c r="V7" s="35">
-        <v>1507388</v>
-      </c>
-      <c r="W7" s="35">
-        <v>5569563</v>
-      </c>
-      <c r="X7" s="35">
-        <v>2064960</v>
-      </c>
-      <c r="Y7" s="35">
-        <v>1209258</v>
-      </c>
-      <c r="Z7" s="35">
-        <v>1198821</v>
-      </c>
-      <c r="AA7" s="35">
-        <v>1096524</v>
-      </c>
-      <c r="AB7" s="35">
-        <v>4294898</v>
-      </c>
-      <c r="AC7" s="35">
-        <v>1074294</v>
-      </c>
-      <c r="AD7" s="35">
-        <v>1355540</v>
-      </c>
-      <c r="AE7" s="35">
-        <v>848423</v>
-      </c>
-      <c r="AF7" s="35">
-        <v>1016641</v>
-      </c>
-      <c r="AG7" s="35">
-        <v>3667111</v>
-      </c>
-      <c r="AH7" s="35">
-        <v>903116</v>
-      </c>
-      <c r="AI7" s="35">
-        <v>849121</v>
-      </c>
-      <c r="AJ7" s="35">
-        <v>1039298</v>
-      </c>
-      <c r="AK7" s="35">
-        <v>875576</v>
-      </c>
-      <c r="AL7" s="35">
-        <v>2850210</v>
-      </c>
-      <c r="AM7" s="35">
-        <v>880511</v>
-      </c>
-      <c r="AN7" s="35">
-        <v>546655</v>
-      </c>
-      <c r="AO7" s="35">
-        <v>688379</v>
-      </c>
-      <c r="AP7" s="35">
-        <v>734665</v>
-      </c>
-      <c r="AQ7" s="35">
-        <v>2421617</v>
-      </c>
-      <c r="AR7" s="35">
-        <v>540520</v>
-      </c>
-      <c r="AS7" s="35">
-        <v>648720</v>
-      </c>
-      <c r="AT7" s="35">
-        <v>593777</v>
-      </c>
-      <c r="AU7" s="35">
-        <v>638600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:47" s="36" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="B7">
+        <v>1722276000</v>
+      </c>
+      <c r="C7">
+        <v>7682051000</v>
+      </c>
+      <c r="D7">
+        <v>1685270000</v>
+      </c>
+      <c r="E7">
+        <v>1382161000</v>
+      </c>
+      <c r="F7">
+        <v>1695017000</v>
+      </c>
+      <c r="G7">
+        <v>2919603000</v>
+      </c>
+      <c r="H7">
+        <v>6360298000</v>
+      </c>
+      <c r="I7">
+        <v>1570187000</v>
+      </c>
+      <c r="J7">
+        <v>1475128000</v>
+      </c>
+      <c r="K7">
+        <v>1478223000</v>
+      </c>
+      <c r="L7">
+        <v>1836760000</v>
+      </c>
+      <c r="M7">
+        <v>5800584000</v>
+      </c>
+      <c r="N7">
+        <v>1487055000</v>
+      </c>
+      <c r="O7">
+        <v>1215810000</v>
+      </c>
+      <c r="P7">
+        <v>1456228000</v>
+      </c>
+      <c r="Q7">
+        <v>1641491000</v>
+      </c>
+      <c r="R7">
+        <v>4898124000</v>
+      </c>
+      <c r="S7">
+        <v>749918000</v>
+      </c>
+      <c r="T7">
+        <v>1509254000</v>
+      </c>
+      <c r="U7">
+        <v>1131564000</v>
+      </c>
+      <c r="V7">
+        <v>1507388000</v>
+      </c>
+      <c r="W7">
+        <v>5569563000</v>
+      </c>
+      <c r="X7">
+        <v>2064960000</v>
+      </c>
+      <c r="Y7">
+        <v>1209258000</v>
+      </c>
+      <c r="Z7">
+        <v>1198821000</v>
+      </c>
+      <c r="AA7">
+        <v>1096524000</v>
+      </c>
+      <c r="AB7">
+        <v>4294898000</v>
+      </c>
+      <c r="AC7">
+        <v>1074294000</v>
+      </c>
+      <c r="AD7">
+        <v>1355540000</v>
+      </c>
+      <c r="AE7">
+        <v>848423000</v>
+      </c>
+      <c r="AF7">
+        <v>1016641000</v>
+      </c>
+      <c r="AG7">
+        <v>3667111000</v>
+      </c>
+      <c r="AH7">
+        <v>903116000</v>
+      </c>
+      <c r="AI7">
+        <v>849121000</v>
+      </c>
+      <c r="AJ7">
+        <v>1039298000</v>
+      </c>
+      <c r="AK7">
+        <v>875576000</v>
+      </c>
+      <c r="AL7">
+        <v>2850210000</v>
+      </c>
+      <c r="AM7">
+        <v>880511000</v>
+      </c>
+      <c r="AN7">
+        <v>546655000</v>
+      </c>
+      <c r="AO7">
+        <v>688379000</v>
+      </c>
+      <c r="AP7">
+        <v>734665000</v>
+      </c>
+      <c r="AQ7">
+        <v>2421617000</v>
+      </c>
+      <c r="AR7">
+        <v>540520000</v>
+      </c>
+      <c r="AS7">
+        <v>648720000</v>
+      </c>
+      <c r="AT7">
+        <v>593777000</v>
+      </c>
+      <c r="AU7">
+        <v>638600000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="35">
-        <v>-623395</v>
-      </c>
-      <c r="C8" s="35">
-        <v>-1976080</v>
-      </c>
-      <c r="D8" s="35">
-        <v>-447203</v>
-      </c>
-      <c r="E8" s="35">
-        <v>-487207</v>
-      </c>
-      <c r="F8" s="35">
-        <v>-516671</v>
-      </c>
-      <c r="G8" s="35">
-        <v>-524999</v>
-      </c>
-      <c r="H8" s="35">
-        <v>-1962998</v>
-      </c>
-      <c r="I8" s="35">
-        <v>-424316</v>
-      </c>
-      <c r="J8" s="35">
-        <v>-326408</v>
-      </c>
-      <c r="K8" s="35">
-        <v>-492010</v>
-      </c>
-      <c r="L8" s="35">
-        <v>-720264</v>
-      </c>
-      <c r="M8" s="35">
-        <v>-2515290</v>
-      </c>
-      <c r="N8" s="35">
-        <v>-427753</v>
-      </c>
-      <c r="O8" s="35">
-        <v>-282532</v>
-      </c>
-      <c r="P8" s="35">
-        <v>-980718</v>
-      </c>
-      <c r="Q8" s="35">
-        <v>-824287</v>
-      </c>
-      <c r="R8" s="35">
-        <v>-3078690</v>
-      </c>
-      <c r="S8" s="35">
-        <v>-820582</v>
-      </c>
-      <c r="T8" s="35">
-        <v>-669998</v>
-      </c>
-      <c r="U8" s="35">
-        <v>-755804</v>
-      </c>
-      <c r="V8" s="35">
-        <v>-832306</v>
-      </c>
-      <c r="W8" s="35">
-        <v>-1882435</v>
-      </c>
-      <c r="X8" s="35">
-        <v>-722720</v>
-      </c>
-      <c r="Y8" s="35">
-        <v>-598921</v>
-      </c>
-      <c r="Z8" s="35">
-        <v>-168538</v>
-      </c>
-      <c r="AA8" s="35">
-        <v>-392256</v>
-      </c>
-      <c r="AB8" s="35">
-        <v>-1206961</v>
-      </c>
-      <c r="AC8" s="35">
-        <v>-406828</v>
-      </c>
-      <c r="AD8" s="35">
-        <v>-295738</v>
-      </c>
-      <c r="AE8" s="35">
-        <v>-290272</v>
-      </c>
-      <c r="AF8" s="35">
-        <v>-214123</v>
-      </c>
-      <c r="AG8" s="35">
-        <v>-699295</v>
-      </c>
-      <c r="AH8" s="35">
-        <v>-161342</v>
-      </c>
-      <c r="AI8" s="35">
-        <v>-195316</v>
-      </c>
-      <c r="AJ8" s="35">
-        <v>-185735</v>
-      </c>
-      <c r="AK8" s="35">
-        <v>-156902</v>
-      </c>
-      <c r="AL8" s="35">
-        <v>-226830</v>
-      </c>
-      <c r="AM8" s="35">
-        <v>-97902</v>
-      </c>
-      <c r="AN8" s="35">
-        <v>-50458</v>
-      </c>
-      <c r="AO8" s="35">
-        <v>-6842</v>
-      </c>
-      <c r="AP8" s="35">
-        <v>-71628</v>
-      </c>
-      <c r="AQ8" s="35">
-        <v>-354844</v>
-      </c>
-      <c r="AR8" s="35">
-        <v>-44376</v>
-      </c>
-      <c r="AS8" s="35">
-        <v>-65460</v>
-      </c>
-      <c r="AT8" s="35">
-        <v>-116855</v>
-      </c>
-      <c r="AU8" s="35">
-        <v>-128153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:47" s="36" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="B8">
+        <v>-623395000</v>
+      </c>
+      <c r="C8">
+        <v>-1976080000</v>
+      </c>
+      <c r="D8">
+        <v>-447203000</v>
+      </c>
+      <c r="E8">
+        <v>-487207000</v>
+      </c>
+      <c r="F8">
+        <v>-516671000</v>
+      </c>
+      <c r="G8">
+        <v>-524999000</v>
+      </c>
+      <c r="H8">
+        <v>-1962998000</v>
+      </c>
+      <c r="I8">
+        <v>-424316000</v>
+      </c>
+      <c r="J8">
+        <v>-326408000</v>
+      </c>
+      <c r="K8">
+        <v>-492010000</v>
+      </c>
+      <c r="L8">
+        <v>-720264000</v>
+      </c>
+      <c r="M8">
+        <v>-2515290000</v>
+      </c>
+      <c r="N8">
+        <v>-427753000</v>
+      </c>
+      <c r="O8">
+        <v>-282532000</v>
+      </c>
+      <c r="P8">
+        <v>-980718000</v>
+      </c>
+      <c r="Q8">
+        <v>-824287000</v>
+      </c>
+      <c r="R8">
+        <v>-3078690000</v>
+      </c>
+      <c r="S8">
+        <v>-820582000</v>
+      </c>
+      <c r="T8">
+        <v>-669998000</v>
+      </c>
+      <c r="U8">
+        <v>-755804000</v>
+      </c>
+      <c r="V8">
+        <v>-832306000</v>
+      </c>
+      <c r="W8">
+        <v>-1882435000</v>
+      </c>
+      <c r="X8">
+        <v>-722720000</v>
+      </c>
+      <c r="Y8">
+        <v>-598921000</v>
+      </c>
+      <c r="Z8">
+        <v>-168538000</v>
+      </c>
+      <c r="AA8">
+        <v>-392256000</v>
+      </c>
+      <c r="AB8">
+        <v>-1206961000</v>
+      </c>
+      <c r="AC8">
+        <v>-406828000</v>
+      </c>
+      <c r="AD8">
+        <v>-295738000</v>
+      </c>
+      <c r="AE8">
+        <v>-290272000</v>
+      </c>
+      <c r="AF8">
+        <v>-214123000</v>
+      </c>
+      <c r="AG8">
+        <v>-699295000</v>
+      </c>
+      <c r="AH8">
+        <v>-161342000</v>
+      </c>
+      <c r="AI8">
+        <v>-195316000</v>
+      </c>
+      <c r="AJ8">
+        <v>-185735000</v>
+      </c>
+      <c r="AK8">
+        <v>-156902000</v>
+      </c>
+      <c r="AL8">
+        <v>-226830000</v>
+      </c>
+      <c r="AM8">
+        <v>-97902000</v>
+      </c>
+      <c r="AN8">
+        <v>-50458000</v>
+      </c>
+      <c r="AO8">
+        <v>-6842000</v>
+      </c>
+      <c r="AP8">
+        <v>-71628000</v>
+      </c>
+      <c r="AQ8">
+        <v>-354844000</v>
+      </c>
+      <c r="AR8">
+        <v>-44376000</v>
+      </c>
+      <c r="AS8">
+        <v>-65460000</v>
+      </c>
+      <c r="AT8">
+        <v>-116855000</v>
+      </c>
+      <c r="AU8">
+        <v>-128153000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="35">
-        <v>1098881</v>
-      </c>
-      <c r="C9" s="35">
-        <v>5705971</v>
-      </c>
-      <c r="D9" s="35">
-        <v>1238067</v>
-      </c>
-      <c r="E9" s="35">
-        <v>894954</v>
-      </c>
-      <c r="F9" s="35">
-        <v>1178346</v>
-      </c>
-      <c r="G9" s="35">
-        <v>2394604</v>
-      </c>
-      <c r="H9" s="35">
-        <v>4397300</v>
-      </c>
-      <c r="I9" s="35">
-        <v>1145871</v>
-      </c>
-      <c r="J9" s="35">
-        <v>1148720</v>
-      </c>
-      <c r="K9" s="35">
-        <v>986213</v>
-      </c>
-      <c r="L9" s="35">
-        <v>1116496</v>
-      </c>
-      <c r="M9" s="35">
-        <v>3285294</v>
-      </c>
-      <c r="N9" s="35">
-        <v>1059302</v>
-      </c>
-      <c r="O9" s="35">
-        <v>933278</v>
-      </c>
-      <c r="P9" s="35">
-        <v>475510</v>
-      </c>
-      <c r="Q9" s="35">
-        <v>817204</v>
-      </c>
-      <c r="R9" s="35">
-        <v>1819434</v>
-      </c>
-      <c r="S9" s="35">
-        <v>-70664</v>
-      </c>
-      <c r="T9" s="35">
-        <v>839256</v>
-      </c>
-      <c r="U9" s="35">
-        <v>375760</v>
-      </c>
-      <c r="V9" s="35">
-        <v>675082</v>
-      </c>
-      <c r="W9" s="35">
-        <v>3687128</v>
-      </c>
-      <c r="X9" s="35">
-        <v>1342240</v>
-      </c>
-      <c r="Y9" s="35">
-        <v>610337</v>
-      </c>
-      <c r="Z9" s="35">
-        <v>1030283</v>
-      </c>
-      <c r="AA9" s="35">
-        <v>704268</v>
-      </c>
-      <c r="AB9" s="35">
-        <v>3087937</v>
-      </c>
-      <c r="AC9" s="35">
-        <v>667466</v>
-      </c>
-      <c r="AD9" s="35">
-        <v>1059802</v>
-      </c>
-      <c r="AE9" s="35">
-        <v>558151</v>
-      </c>
-      <c r="AF9" s="35">
-        <v>802518</v>
-      </c>
-      <c r="AG9" s="35">
-        <v>2967816</v>
-      </c>
-      <c r="AH9" s="35">
-        <v>741774</v>
-      </c>
-      <c r="AI9" s="35">
-        <v>653805</v>
-      </c>
-      <c r="AJ9" s="35">
-        <v>853563</v>
-      </c>
-      <c r="AK9" s="35">
-        <v>718674</v>
-      </c>
-      <c r="AL9" s="35">
-        <v>2623380</v>
-      </c>
-      <c r="AM9" s="35">
-        <v>782609</v>
-      </c>
-      <c r="AN9" s="35">
-        <v>496197</v>
-      </c>
-      <c r="AO9" s="35">
-        <v>681537</v>
-      </c>
-      <c r="AP9" s="35">
-        <v>663037</v>
-      </c>
-      <c r="AQ9" s="35">
-        <v>2066773</v>
-      </c>
-      <c r="AR9" s="35">
-        <v>496144</v>
-      </c>
-      <c r="AS9" s="35">
-        <v>583260</v>
-      </c>
-      <c r="AT9" s="35">
-        <v>476922</v>
-      </c>
-      <c r="AU9" s="35">
-        <v>510447</v>
-      </c>
-    </row>
-    <row r="10" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1098881000</v>
+      </c>
+      <c r="C9">
+        <v>5705971000</v>
+      </c>
+      <c r="D9">
+        <v>1238067000</v>
+      </c>
+      <c r="E9">
+        <v>894954000</v>
+      </c>
+      <c r="F9">
+        <v>1178346000</v>
+      </c>
+      <c r="G9">
+        <v>2394604000</v>
+      </c>
+      <c r="H9">
+        <v>4397300000</v>
+      </c>
+      <c r="I9">
+        <v>1145871000</v>
+      </c>
+      <c r="J9">
+        <v>1148720000</v>
+      </c>
+      <c r="K9">
+        <v>986213000</v>
+      </c>
+      <c r="L9">
+        <v>1116496000</v>
+      </c>
+      <c r="M9">
+        <v>3285294000</v>
+      </c>
+      <c r="N9">
+        <v>1059302000</v>
+      </c>
+      <c r="O9">
+        <v>933278000</v>
+      </c>
+      <c r="P9">
+        <v>475510000</v>
+      </c>
+      <c r="Q9">
+        <v>817204000</v>
+      </c>
+      <c r="R9">
+        <v>1819434000</v>
+      </c>
+      <c r="S9">
+        <v>-70664000</v>
+      </c>
+      <c r="T9">
+        <v>839256000</v>
+      </c>
+      <c r="U9">
+        <v>375760000</v>
+      </c>
+      <c r="V9">
+        <v>675082000</v>
+      </c>
+      <c r="W9">
+        <v>3687128000</v>
+      </c>
+      <c r="X9">
+        <v>1342240000</v>
+      </c>
+      <c r="Y9">
+        <v>610337000</v>
+      </c>
+      <c r="Z9">
+        <v>1030283000</v>
+      </c>
+      <c r="AA9">
+        <v>704268000</v>
+      </c>
+      <c r="AB9">
+        <v>3087937000</v>
+      </c>
+      <c r="AC9">
+        <v>667466000</v>
+      </c>
+      <c r="AD9">
+        <v>1059802000</v>
+      </c>
+      <c r="AE9">
+        <v>558151000</v>
+      </c>
+      <c r="AF9">
+        <v>802518000</v>
+      </c>
+      <c r="AG9">
+        <v>2967816000</v>
+      </c>
+      <c r="AH9">
+        <v>741774000</v>
+      </c>
+      <c r="AI9">
+        <v>653805000</v>
+      </c>
+      <c r="AJ9">
+        <v>853563000</v>
+      </c>
+      <c r="AK9">
+        <v>718674000</v>
+      </c>
+      <c r="AL9">
+        <v>2623380000</v>
+      </c>
+      <c r="AM9">
+        <v>782609000</v>
+      </c>
+      <c r="AN9">
+        <v>496197000</v>
+      </c>
+      <c r="AO9">
+        <v>681537000</v>
+      </c>
+      <c r="AP9">
+        <v>663037000</v>
+      </c>
+      <c r="AQ9">
+        <v>2066773000</v>
+      </c>
+      <c r="AR9">
+        <v>496144000</v>
+      </c>
+      <c r="AS9">
+        <v>583260000</v>
+      </c>
+      <c r="AT9">
+        <v>476922000</v>
+      </c>
+      <c r="AU9">
+        <v>510447000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="17">
-        <v>-195898</v>
-      </c>
-      <c r="C10" s="17">
-        <v>-983859</v>
-      </c>
-      <c r="D10" s="17">
-        <v>-83275</v>
-      </c>
-      <c r="E10" s="17">
-        <v>-167896</v>
-      </c>
-      <c r="F10" s="17">
-        <v>-218497</v>
-      </c>
-      <c r="G10" s="17">
-        <v>-514191</v>
-      </c>
-      <c r="H10" s="17">
-        <v>-682259</v>
-      </c>
-      <c r="I10" s="17">
-        <v>-137414</v>
-      </c>
-      <c r="J10" s="17">
-        <v>-200628</v>
-      </c>
-      <c r="K10" s="17">
-        <v>-180965</v>
-      </c>
-      <c r="L10" s="17">
-        <v>-163252</v>
-      </c>
-      <c r="M10" s="17">
-        <v>-425992</v>
-      </c>
-      <c r="N10" s="17">
-        <v>-117061</v>
-      </c>
-      <c r="O10" s="17">
-        <v>-137912</v>
-      </c>
-      <c r="P10" s="17">
-        <v>-51080</v>
-      </c>
-      <c r="Q10" s="17">
-        <v>-119939</v>
-      </c>
-      <c r="R10" s="17">
-        <v>-156510</v>
-      </c>
-      <c r="S10" s="17">
-        <v>123558</v>
-      </c>
-      <c r="T10" s="17">
-        <v>-140986</v>
-      </c>
-      <c r="U10" s="17">
-        <v>-36370</v>
-      </c>
-      <c r="V10" s="17">
-        <v>-102712</v>
-      </c>
-      <c r="W10" s="17">
-        <v>-631475</v>
-      </c>
-      <c r="X10" s="17">
-        <v>-219603</v>
-      </c>
-      <c r="Y10" s="17">
-        <v>-81080</v>
-      </c>
-      <c r="Z10" s="17">
-        <v>-191447</v>
-      </c>
-      <c r="AA10" s="17">
-        <v>-139345</v>
-      </c>
-      <c r="AB10" s="17">
-        <v>-552386</v>
-      </c>
-      <c r="AC10" s="17">
-        <v>-32306</v>
-      </c>
-      <c r="AD10" s="17">
-        <v>-227814</v>
-      </c>
-      <c r="AE10" s="17">
-        <v>-122894</v>
-      </c>
-      <c r="AF10" s="17">
-        <v>-169372</v>
-      </c>
-      <c r="AG10" s="17">
-        <v>-455264</v>
-      </c>
-      <c r="AH10" s="17">
-        <v>26081</v>
-      </c>
-      <c r="AI10" s="17">
-        <v>-125621</v>
-      </c>
-      <c r="AJ10" s="17">
-        <v>-190482</v>
-      </c>
-      <c r="AK10" s="17">
-        <v>-165242</v>
-      </c>
-      <c r="AL10" s="17">
-        <v>-436228</v>
-      </c>
-      <c r="AM10" s="17">
-        <v>-51975</v>
-      </c>
-      <c r="AN10" s="17">
-        <v>-97265</v>
-      </c>
-      <c r="AO10" s="17">
-        <v>-132813</v>
-      </c>
-      <c r="AP10" s="17">
-        <v>-154175</v>
-      </c>
-      <c r="AQ10" s="17">
-        <v>-375594</v>
-      </c>
-      <c r="AR10" s="17">
-        <v>-15139</v>
-      </c>
-      <c r="AS10" s="17">
-        <v>-135449</v>
-      </c>
-      <c r="AT10" s="17">
-        <v>-106486</v>
-      </c>
-      <c r="AU10" s="17">
-        <v>-118520</v>
-      </c>
-    </row>
-    <row r="11" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>-195898000</v>
+      </c>
+      <c r="C10">
+        <v>-983859000</v>
+      </c>
+      <c r="D10">
+        <v>-83275000</v>
+      </c>
+      <c r="E10">
+        <v>-167896000</v>
+      </c>
+      <c r="F10">
+        <v>-218497000</v>
+      </c>
+      <c r="G10">
+        <v>-514191000</v>
+      </c>
+      <c r="H10">
+        <v>-682259000</v>
+      </c>
+      <c r="I10">
+        <v>-137414000</v>
+      </c>
+      <c r="J10">
+        <v>-200628000</v>
+      </c>
+      <c r="K10">
+        <v>-180965000</v>
+      </c>
+      <c r="L10">
+        <v>-163252000</v>
+      </c>
+      <c r="M10">
+        <v>-425992000</v>
+      </c>
+      <c r="N10">
+        <v>-117061000</v>
+      </c>
+      <c r="O10">
+        <v>-137912000</v>
+      </c>
+      <c r="P10">
+        <v>-51080000</v>
+      </c>
+      <c r="Q10">
+        <v>-119939000</v>
+      </c>
+      <c r="R10">
+        <v>-156510000</v>
+      </c>
+      <c r="S10">
+        <v>123558000</v>
+      </c>
+      <c r="T10">
+        <v>-140986000</v>
+      </c>
+      <c r="U10">
+        <v>-36370000</v>
+      </c>
+      <c r="V10">
+        <v>-102712000</v>
+      </c>
+      <c r="W10">
+        <v>-631475000</v>
+      </c>
+      <c r="X10">
+        <v>-219603000</v>
+      </c>
+      <c r="Y10">
+        <v>-81080000</v>
+      </c>
+      <c r="Z10">
+        <v>-191447000</v>
+      </c>
+      <c r="AA10">
+        <v>-139345000</v>
+      </c>
+      <c r="AB10">
+        <v>-552386000</v>
+      </c>
+      <c r="AC10">
+        <v>-32306000</v>
+      </c>
+      <c r="AD10">
+        <v>-227814000</v>
+      </c>
+      <c r="AE10">
+        <v>-122894000</v>
+      </c>
+      <c r="AF10">
+        <v>-169372000</v>
+      </c>
+      <c r="AG10">
+        <v>-455264000</v>
+      </c>
+      <c r="AH10">
+        <v>26081000</v>
+      </c>
+      <c r="AI10">
+        <v>-125621000</v>
+      </c>
+      <c r="AJ10">
+        <v>-190482000</v>
+      </c>
+      <c r="AK10">
+        <v>-165242000</v>
+      </c>
+      <c r="AL10">
+        <v>-436228000</v>
+      </c>
+      <c r="AM10">
+        <v>-51975000</v>
+      </c>
+      <c r="AN10">
+        <v>-97265000</v>
+      </c>
+      <c r="AO10">
+        <v>-132813000</v>
+      </c>
+      <c r="AP10">
+        <v>-154175000</v>
+      </c>
+      <c r="AQ10">
+        <v>-375594000</v>
+      </c>
+      <c r="AR10">
+        <v>-15139000</v>
+      </c>
+      <c r="AS10">
+        <v>-135449000</v>
+      </c>
+      <c r="AT10">
+        <v>-106486000</v>
+      </c>
+      <c r="AU10">
+        <v>-118520000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="17">
-        <v>-76634</v>
-      </c>
-      <c r="C11" s="17">
-        <v>-419271</v>
-      </c>
-      <c r="D11" s="17">
-        <v>-65048</v>
-      </c>
-      <c r="E11" s="17">
-        <v>-69260</v>
-      </c>
-      <c r="F11" s="17">
-        <v>-88912</v>
-      </c>
-      <c r="G11" s="17">
-        <v>-196051</v>
-      </c>
-      <c r="H11" s="17">
-        <v>-285981</v>
-      </c>
-      <c r="I11" s="17">
-        <v>-60904</v>
-      </c>
-      <c r="J11" s="17">
-        <v>-81452</v>
-      </c>
-      <c r="K11" s="17">
-        <v>-72603</v>
-      </c>
-      <c r="L11" s="17">
-        <v>-71022</v>
-      </c>
-      <c r="M11" s="17">
-        <v>-194734</v>
-      </c>
-      <c r="N11" s="17">
-        <v>-51614</v>
-      </c>
-      <c r="O11" s="17">
-        <v>-61071</v>
-      </c>
-      <c r="P11" s="17">
-        <v>-29836</v>
-      </c>
-      <c r="Q11" s="17">
-        <v>-52213</v>
-      </c>
-      <c r="R11" s="17">
-        <v>-97954</v>
-      </c>
-      <c r="S11" s="17">
-        <v>24886</v>
-      </c>
-      <c r="T11" s="17">
-        <v>-59234</v>
-      </c>
-      <c r="U11" s="17">
-        <v>-20346</v>
-      </c>
-      <c r="V11" s="17">
-        <v>-43260</v>
-      </c>
-      <c r="W11" s="17">
-        <v>-258385</v>
-      </c>
-      <c r="X11" s="17">
-        <v>-93160</v>
-      </c>
-      <c r="Y11" s="17">
-        <v>-39246</v>
-      </c>
-      <c r="Z11" s="17">
-        <v>-73076</v>
-      </c>
-      <c r="AA11" s="17">
-        <v>-52903</v>
-      </c>
-      <c r="AB11" s="17">
-        <v>-224452</v>
-      </c>
-      <c r="AC11" s="17">
-        <v>-17626</v>
-      </c>
-      <c r="AD11" s="17">
-        <v>-89281</v>
-      </c>
-      <c r="AE11" s="17">
-        <v>-49889</v>
-      </c>
-      <c r="AF11" s="17">
-        <v>-67656</v>
-      </c>
-      <c r="AG11" s="17">
-        <v>-197145</v>
-      </c>
-      <c r="AH11" s="17">
-        <v>-6293</v>
-      </c>
-      <c r="AI11" s="17">
-        <v>-52833</v>
-      </c>
-      <c r="AJ11" s="17">
-        <v>-73922</v>
-      </c>
-      <c r="AK11" s="17">
-        <v>-64097</v>
-      </c>
-      <c r="AL11" s="17">
-        <v>-182593</v>
-      </c>
-      <c r="AM11" s="17">
-        <v>-25964</v>
-      </c>
-      <c r="AN11" s="17">
-        <v>-40885</v>
-      </c>
-      <c r="AO11" s="17">
-        <v>-57577</v>
-      </c>
-      <c r="AP11" s="17">
-        <v>-58167</v>
-      </c>
-      <c r="AQ11" s="17">
-        <v>-142878</v>
-      </c>
-      <c r="AR11" s="17">
-        <v>-5447</v>
-      </c>
-      <c r="AS11" s="17">
-        <v>-50928</v>
-      </c>
-      <c r="AT11" s="17">
-        <v>-41683</v>
-      </c>
-      <c r="AU11" s="17">
-        <v>-44820</v>
-      </c>
-    </row>
-    <row r="12" spans="1:47" s="36" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="B11">
+        <v>-76634000</v>
+      </c>
+      <c r="C11">
+        <v>-419271000</v>
+      </c>
+      <c r="D11">
+        <v>-65048000</v>
+      </c>
+      <c r="E11">
+        <v>-69260000</v>
+      </c>
+      <c r="F11">
+        <v>-88912000</v>
+      </c>
+      <c r="G11">
+        <v>-196051000</v>
+      </c>
+      <c r="H11">
+        <v>-285981000</v>
+      </c>
+      <c r="I11">
+        <v>-60904000</v>
+      </c>
+      <c r="J11">
+        <v>-81452000</v>
+      </c>
+      <c r="K11">
+        <v>-72603000</v>
+      </c>
+      <c r="L11">
+        <v>-71022000</v>
+      </c>
+      <c r="M11">
+        <v>-194734000</v>
+      </c>
+      <c r="N11">
+        <v>-51614000</v>
+      </c>
+      <c r="O11">
+        <v>-61071000</v>
+      </c>
+      <c r="P11">
+        <v>-29836000</v>
+      </c>
+      <c r="Q11">
+        <v>-52213000</v>
+      </c>
+      <c r="R11">
+        <v>-97954000</v>
+      </c>
+      <c r="S11">
+        <v>24886000</v>
+      </c>
+      <c r="T11">
+        <v>-59234000</v>
+      </c>
+      <c r="U11">
+        <v>-20346000</v>
+      </c>
+      <c r="V11">
+        <v>-43260000</v>
+      </c>
+      <c r="W11">
+        <v>-258385000</v>
+      </c>
+      <c r="X11">
+        <v>-93160000</v>
+      </c>
+      <c r="Y11">
+        <v>-39246000</v>
+      </c>
+      <c r="Z11">
+        <v>-73076000</v>
+      </c>
+      <c r="AA11">
+        <v>-52903000</v>
+      </c>
+      <c r="AB11">
+        <v>-224452000</v>
+      </c>
+      <c r="AC11">
+        <v>-17626000</v>
+      </c>
+      <c r="AD11">
+        <v>-89281000</v>
+      </c>
+      <c r="AE11">
+        <v>-49889000</v>
+      </c>
+      <c r="AF11">
+        <v>-67656000</v>
+      </c>
+      <c r="AG11">
+        <v>-197145000</v>
+      </c>
+      <c r="AH11">
+        <v>-6293000</v>
+      </c>
+      <c r="AI11">
+        <v>-52833000</v>
+      </c>
+      <c r="AJ11">
+        <v>-73922000</v>
+      </c>
+      <c r="AK11">
+        <v>-64097000</v>
+      </c>
+      <c r="AL11">
+        <v>-182593000</v>
+      </c>
+      <c r="AM11">
+        <v>-25964000</v>
+      </c>
+      <c r="AN11">
+        <v>-40885000</v>
+      </c>
+      <c r="AO11">
+        <v>-57577000</v>
+      </c>
+      <c r="AP11">
+        <v>-58167000</v>
+      </c>
+      <c r="AQ11">
+        <v>-142878000</v>
+      </c>
+      <c r="AR11">
+        <v>-5447000</v>
+      </c>
+      <c r="AS11">
+        <v>-50928000</v>
+      </c>
+      <c r="AT11">
+        <v>-41683000</v>
+      </c>
+      <c r="AU11">
+        <v>-44820000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="35">
-        <v>826349</v>
-      </c>
-      <c r="C12" s="35">
-        <v>4302841</v>
-      </c>
-      <c r="D12" s="35">
-        <v>1089744</v>
-      </c>
-      <c r="E12" s="35">
-        <v>657798</v>
-      </c>
-      <c r="F12" s="35">
-        <v>870937</v>
-      </c>
-      <c r="G12" s="35">
-        <v>1684362</v>
-      </c>
-      <c r="H12" s="35">
-        <v>3429060</v>
-      </c>
-      <c r="I12" s="35">
-        <v>947553</v>
-      </c>
-      <c r="J12" s="35">
-        <v>866640</v>
-      </c>
-      <c r="K12" s="35">
-        <v>732645</v>
-      </c>
-      <c r="L12" s="35">
-        <v>882222</v>
-      </c>
-      <c r="M12" s="35">
-        <v>2664568</v>
-      </c>
-      <c r="N12" s="35">
-        <v>890627</v>
-      </c>
-      <c r="O12" s="35">
-        <v>734295</v>
-      </c>
-      <c r="P12" s="35">
-        <v>394594</v>
-      </c>
-      <c r="Q12" s="35">
-        <v>645052</v>
-      </c>
-      <c r="R12" s="35">
-        <v>1564970</v>
-      </c>
-      <c r="S12" s="35">
-        <v>77780</v>
-      </c>
-      <c r="T12" s="35">
-        <v>639036</v>
-      </c>
-      <c r="U12" s="35">
-        <v>319044</v>
-      </c>
-      <c r="V12" s="35">
-        <v>529110</v>
-      </c>
-      <c r="W12" s="35">
-        <v>2797268</v>
-      </c>
-      <c r="X12" s="35">
-        <v>1029477</v>
-      </c>
-      <c r="Y12" s="35">
-        <v>490011</v>
-      </c>
-      <c r="Z12" s="35">
-        <v>765760</v>
-      </c>
-      <c r="AA12" s="35">
-        <v>512020</v>
-      </c>
-      <c r="AB12" s="35">
-        <v>2311099</v>
-      </c>
-      <c r="AC12" s="35">
-        <v>617534</v>
-      </c>
-      <c r="AD12" s="35">
-        <v>742707</v>
-      </c>
-      <c r="AE12" s="35">
-        <v>385368</v>
-      </c>
-      <c r="AF12" s="35">
-        <v>565490</v>
-      </c>
-      <c r="AG12" s="35">
-        <v>2315407</v>
-      </c>
-      <c r="AH12" s="35">
-        <v>761562</v>
-      </c>
-      <c r="AI12" s="35">
-        <v>475351</v>
-      </c>
-      <c r="AJ12" s="35">
-        <v>589159</v>
-      </c>
-      <c r="AK12" s="35">
-        <v>489335</v>
-      </c>
-      <c r="AL12" s="35">
-        <v>2004559</v>
-      </c>
-      <c r="AM12" s="35">
-        <v>704670</v>
-      </c>
-      <c r="AN12" s="35">
-        <v>358047</v>
-      </c>
-      <c r="AO12" s="35">
-        <v>491147</v>
-      </c>
-      <c r="AP12" s="35">
-        <v>450695</v>
-      </c>
-      <c r="AQ12" s="35">
-        <v>1548301</v>
-      </c>
-      <c r="AR12" s="35">
-        <v>475558</v>
-      </c>
-      <c r="AS12" s="35">
-        <v>396883</v>
-      </c>
-      <c r="AT12" s="35">
-        <v>328753</v>
-      </c>
-      <c r="AU12" s="35">
-        <v>347107</v>
+      <c r="B12">
+        <v>826349000</v>
+      </c>
+      <c r="C12">
+        <v>4302841000</v>
+      </c>
+      <c r="D12">
+        <v>1089744000</v>
+      </c>
+      <c r="E12">
+        <v>657798000</v>
+      </c>
+      <c r="F12">
+        <v>870937000</v>
+      </c>
+      <c r="G12">
+        <v>1684362000</v>
+      </c>
+      <c r="H12">
+        <v>3429060000</v>
+      </c>
+      <c r="I12">
+        <v>947553000</v>
+      </c>
+      <c r="J12">
+        <v>866640000</v>
+      </c>
+      <c r="K12">
+        <v>732645000</v>
+      </c>
+      <c r="L12">
+        <v>882222000</v>
+      </c>
+      <c r="M12">
+        <v>2664568000</v>
+      </c>
+      <c r="N12">
+        <v>890627000</v>
+      </c>
+      <c r="O12">
+        <v>734295000</v>
+      </c>
+      <c r="P12">
+        <v>394594000</v>
+      </c>
+      <c r="Q12">
+        <v>645052000</v>
+      </c>
+      <c r="R12">
+        <v>1564970000</v>
+      </c>
+      <c r="S12">
+        <v>77780000</v>
+      </c>
+      <c r="T12">
+        <v>639036000</v>
+      </c>
+      <c r="U12">
+        <v>319044000</v>
+      </c>
+      <c r="V12">
+        <v>529110000</v>
+      </c>
+      <c r="W12">
+        <v>2797268000</v>
+      </c>
+      <c r="X12">
+        <v>1029477000</v>
+      </c>
+      <c r="Y12">
+        <v>490011000</v>
+      </c>
+      <c r="Z12">
+        <v>765760000</v>
+      </c>
+      <c r="AA12">
+        <v>512020000</v>
+      </c>
+      <c r="AB12">
+        <v>2311099000</v>
+      </c>
+      <c r="AC12">
+        <v>617534000</v>
+      </c>
+      <c r="AD12">
+        <v>742707000</v>
+      </c>
+      <c r="AE12">
+        <v>385368000</v>
+      </c>
+      <c r="AF12">
+        <v>565490000</v>
+      </c>
+      <c r="AG12">
+        <v>2315407000</v>
+      </c>
+      <c r="AH12">
+        <v>761562000</v>
+      </c>
+      <c r="AI12">
+        <v>475351000</v>
+      </c>
+      <c r="AJ12">
+        <v>589159000</v>
+      </c>
+      <c r="AK12">
+        <v>489335000</v>
+      </c>
+      <c r="AL12">
+        <v>2004559000</v>
+      </c>
+      <c r="AM12">
+        <v>704670000</v>
+      </c>
+      <c r="AN12">
+        <v>358047000</v>
+      </c>
+      <c r="AO12">
+        <v>491147000</v>
+      </c>
+      <c r="AP12">
+        <v>450695000</v>
+      </c>
+      <c r="AQ12">
+        <v>1548301000</v>
+      </c>
+      <c r="AR12">
+        <v>475558000</v>
+      </c>
+      <c r="AS12">
+        <v>396883000</v>
+      </c>
+      <c r="AT12">
+        <v>328753000</v>
+      </c>
+      <c r="AU12">
+        <v>347107000</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="27">
         <v>815927740</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="27">
         <v>815927740</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="27">
         <v>815927740</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="27">
         <v>815927740</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="27">
         <v>815927740</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="27">
         <v>815927740</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="27">
         <v>815927740</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="27">
         <v>815927740</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="27">
         <v>815927740</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="27">
         <v>815927740</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="27">
         <v>815927740</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="27">
         <v>815927740</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="27">
         <v>815927740</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O13" s="27">
         <v>815927740</v>
       </c>
-      <c r="P13" s="18">
+      <c r="P13" s="27">
         <v>815927740</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="Q13" s="27">
         <v>815927740</v>
       </c>
-      <c r="R13" s="18">
+      <c r="R13" s="27">
         <v>815927740</v>
       </c>
-      <c r="S13" s="18">
+      <c r="S13" s="27">
         <v>815927740</v>
       </c>
-      <c r="T13" s="18">
+      <c r="T13" s="27">
         <v>815927740</v>
       </c>
-      <c r="U13" s="18">
+      <c r="U13" s="27">
         <v>815927740</v>
       </c>
-      <c r="V13" s="18">
+      <c r="V13" s="27">
         <v>815927740</v>
       </c>
-      <c r="W13" s="18">
+      <c r="W13" s="27">
         <v>815927740</v>
       </c>
-      <c r="X13" s="18">
+      <c r="X13" s="27">
         <v>815927740</v>
       </c>
-      <c r="Y13" s="18">
+      <c r="Y13" s="27">
         <v>815927740</v>
       </c>
-      <c r="Z13" s="18">
+      <c r="Z13" s="27">
         <v>815927740</v>
       </c>
-      <c r="AA13" s="18">
+      <c r="AA13" s="27">
         <v>815927740</v>
       </c>
-      <c r="AB13" s="18">
+      <c r="AB13" s="27">
         <v>815927740</v>
       </c>
-      <c r="AC13" s="18">
+      <c r="AC13" s="27">
         <v>815927740</v>
       </c>
-      <c r="AD13" s="18">
+      <c r="AD13" s="27">
         <v>815927740</v>
       </c>
-      <c r="AE13" s="18">
+      <c r="AE13" s="27">
         <v>815927740</v>
       </c>
-      <c r="AF13" s="18">
+      <c r="AF13" s="27">
         <v>815927740</v>
       </c>
-      <c r="AG13" s="18">
+      <c r="AG13" s="27">
         <v>815927740</v>
       </c>
-      <c r="AH13" s="18">
+      <c r="AH13" s="27">
         <v>815927740</v>
       </c>
-      <c r="AI13" s="18">
+      <c r="AI13" s="27">
         <v>815927740</v>
       </c>
-      <c r="AJ13" s="18">
+      <c r="AJ13" s="27">
         <v>815927740</v>
       </c>
-      <c r="AK13" s="18">
+      <c r="AK13" s="27">
         <v>815927740</v>
       </c>
-      <c r="AL13" s="18">
+      <c r="AL13" s="27">
         <v>815927740</v>
       </c>
-      <c r="AM13" s="18">
+      <c r="AM13" s="27">
         <v>815927740</v>
       </c>
-      <c r="AN13" s="18">
+      <c r="AN13" s="27">
         <v>815927740</v>
       </c>
-      <c r="AO13" s="18">
+      <c r="AO13" s="27">
         <v>815927740</v>
       </c>
-      <c r="AP13" s="18">
+      <c r="AP13" s="27">
         <v>815927740</v>
       </c>
-      <c r="AQ13" s="18">
+      <c r="AQ13" s="27">
         <v>815927740</v>
       </c>
-      <c r="AR13" s="18">
+      <c r="AR13" s="27">
         <v>815927740</v>
       </c>
-      <c r="AS13" s="18">
+      <c r="AS13" s="27">
         <v>815927740</v>
       </c>
-      <c r="AT13" s="18">
+      <c r="AT13" s="27">
         <v>815927740</v>
       </c>
-      <c r="AU13" s="18">
+      <c r="AU13" s="27">
         <v>815927740</v>
       </c>
-    </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="37"/>
-      <c r="AF14" s="37"/>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="37"/>
-      <c r="AI14" s="37"/>
-      <c r="AJ14" s="37"/>
-      <c r="AK14" s="37"/>
-      <c r="AL14" s="37"/>
-      <c r="AM14" s="37"/>
-      <c r="AN14" s="37"/>
-      <c r="AO14" s="37"/>
-      <c r="AP14" s="37"/>
-      <c r="AQ14" s="37"/>
-      <c r="AR14" s="37"/>
-      <c r="AS14" s="37"/>
-      <c r="AT14" s="37"/>
-      <c r="AU14" s="37"/>
-    </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="37"/>
-      <c r="AK15" s="37"/>
-      <c r="AL15" s="37"/>
-      <c r="AM15" s="37"/>
-      <c r="AN15" s="37"/>
-      <c r="AO15" s="37"/>
-      <c r="AP15" s="37"/>
-      <c r="AQ15" s="37"/>
-      <c r="AR15" s="37"/>
-      <c r="AS15" s="37"/>
-      <c r="AT15" s="37"/>
-      <c r="AU15" s="37"/>
-    </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="38"/>
-      <c r="AE16" s="38"/>
-      <c r="AF16" s="38"/>
-      <c r="AG16" s="38"/>
-      <c r="AH16" s="38"/>
-      <c r="AI16" s="38"/>
-      <c r="AJ16" s="38"/>
-      <c r="AK16" s="38"/>
-      <c r="AL16" s="38"/>
-      <c r="AM16" s="38"/>
-      <c r="AN16" s="38"/>
-      <c r="AO16" s="38"/>
-      <c r="AP16" s="38"/>
-      <c r="AQ16" s="38"/>
-      <c r="AR16" s="38"/>
-      <c r="AS16" s="38"/>
-      <c r="AT16" s="38"/>
-      <c r="AU16" s="38"/>
-    </row>
-    <row r="18" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="39"/>
-      <c r="AB18" s="39"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="39"/>
-      <c r="AE18" s="39"/>
-      <c r="AF18" s="39"/>
-      <c r="AG18" s="39"/>
-      <c r="AH18" s="39"/>
-      <c r="AI18" s="39"/>
-      <c r="AJ18" s="39"/>
-      <c r="AK18" s="39"/>
-      <c r="AL18" s="39"/>
-      <c r="AM18" s="39"/>
-      <c r="AN18" s="39"/>
-      <c r="AO18" s="39"/>
-      <c r="AP18" s="39"/>
-      <c r="AQ18" s="39"/>
-      <c r="AR18" s="39"/>
-      <c r="AS18" s="39"/>
-      <c r="AT18" s="39"/>
-      <c r="AU18" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3499,2691 +3266,2689 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C24D03-A2FA-4395-A73D-E79720C02421}">
-  <sheetPr codeName="Planilha1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746B4EEE-5133-4AFB-9217-59FA5A1691CB}">
   <dimension ref="A1:AL23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="55.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="38" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="38" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="27">
+      <c r="A1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="22">
         <v>45747</v>
       </c>
-      <c r="C1" s="27">
+      <c r="C1" s="22">
         <v>45657</v>
       </c>
-      <c r="D1" s="27">
+      <c r="D1" s="22">
         <v>45565</v>
       </c>
-      <c r="E1" s="27">
+      <c r="E1" s="22">
         <v>45473</v>
       </c>
-      <c r="F1" s="27">
+      <c r="F1" s="22">
         <v>45382</v>
       </c>
-      <c r="G1" s="27">
+      <c r="G1" s="22">
         <v>45291</v>
       </c>
-      <c r="H1" s="27">
+      <c r="H1" s="22">
         <v>45199</v>
       </c>
-      <c r="I1" s="27">
+      <c r="I1" s="22">
         <v>45107</v>
       </c>
-      <c r="J1" s="27">
+      <c r="J1" s="22">
         <v>45016</v>
       </c>
-      <c r="K1" s="27">
+      <c r="K1" s="22">
         <v>44926</v>
       </c>
-      <c r="L1" s="27">
+      <c r="L1" s="22">
         <v>44834</v>
       </c>
-      <c r="M1" s="27">
+      <c r="M1" s="22">
         <v>44742</v>
       </c>
-      <c r="N1" s="27">
+      <c r="N1" s="22">
         <v>44651</v>
       </c>
-      <c r="O1" s="27">
+      <c r="O1" s="22">
         <v>44561</v>
       </c>
-      <c r="P1" s="27">
+      <c r="P1" s="22">
         <v>44469</v>
       </c>
-      <c r="Q1" s="27">
+      <c r="Q1" s="22">
         <v>44377</v>
       </c>
-      <c r="R1" s="27">
+      <c r="R1" s="22">
         <v>44286</v>
       </c>
-      <c r="S1" s="27">
+      <c r="S1" s="22">
         <v>44196</v>
       </c>
-      <c r="T1" s="27">
+      <c r="T1" s="22">
         <v>44104</v>
       </c>
-      <c r="U1" s="27">
+      <c r="U1" s="22">
         <v>44012</v>
       </c>
-      <c r="V1" s="27">
+      <c r="V1" s="22">
         <v>43921</v>
       </c>
-      <c r="W1" s="27">
+      <c r="W1" s="22">
         <v>43830</v>
       </c>
-      <c r="X1" s="27">
+      <c r="X1" s="22">
         <v>43738</v>
       </c>
-      <c r="Y1" s="27">
+      <c r="Y1" s="22">
         <v>43646</v>
       </c>
-      <c r="Z1" s="27">
+      <c r="Z1" s="22">
         <v>43555</v>
       </c>
-      <c r="AA1" s="27">
+      <c r="AA1" s="22">
         <v>43465</v>
       </c>
-      <c r="AB1" s="27">
+      <c r="AB1" s="22">
         <v>43373</v>
       </c>
-      <c r="AC1" s="27">
+      <c r="AC1" s="22">
         <v>43281</v>
       </c>
-      <c r="AD1" s="27">
+      <c r="AD1" s="22">
         <v>43190</v>
       </c>
-      <c r="AE1" s="27">
+      <c r="AE1" s="22">
         <v>43100</v>
       </c>
-      <c r="AF1" s="27">
+      <c r="AF1" s="22">
         <v>43008</v>
       </c>
-      <c r="AG1" s="27">
+      <c r="AG1" s="22">
         <v>42916</v>
       </c>
-      <c r="AH1" s="27">
+      <c r="AH1" s="22">
         <v>42825</v>
       </c>
-      <c r="AI1" s="27">
+      <c r="AI1" s="22">
         <v>42735</v>
       </c>
-      <c r="AJ1" s="27">
+      <c r="AJ1" s="22">
         <v>42643</v>
       </c>
-      <c r="AK1" s="27">
+      <c r="AK1" s="22">
         <v>42551</v>
       </c>
-      <c r="AL1" s="27">
+      <c r="AL1" s="22">
         <v>42460</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23">
-        <v>8806605</v>
-      </c>
-      <c r="C2" s="23">
-        <v>7198390</v>
-      </c>
-      <c r="D2" s="23">
-        <v>7310767</v>
-      </c>
-      <c r="E2" s="23">
-        <v>7630154</v>
-      </c>
-      <c r="F2" s="23">
-        <v>8595868</v>
-      </c>
-      <c r="G2" s="23">
-        <v>8913451</v>
-      </c>
-      <c r="H2" s="23">
-        <v>6324336</v>
-      </c>
-      <c r="I2" s="23">
-        <v>7818425</v>
-      </c>
-      <c r="J2" s="23">
-        <v>8041228</v>
-      </c>
-      <c r="K2" s="23">
-        <v>7378528</v>
-      </c>
-      <c r="L2" s="23">
-        <v>9389673</v>
-      </c>
-      <c r="M2" s="23">
-        <v>7815963</v>
-      </c>
-      <c r="N2" s="23">
-        <v>8048054</v>
-      </c>
-      <c r="O2" s="23">
-        <v>8517934</v>
-      </c>
-      <c r="P2" s="23">
-        <v>8598380</v>
-      </c>
-      <c r="Q2" s="23">
-        <v>8718941</v>
-      </c>
-      <c r="R2" s="23">
-        <v>7291161</v>
-      </c>
-      <c r="S2" s="23">
-        <v>7733297</v>
-      </c>
-      <c r="T2" s="23">
-        <v>9135347</v>
-      </c>
-      <c r="U2" s="23">
-        <v>8108917</v>
-      </c>
-      <c r="V2" s="23">
-        <v>7305287</v>
-      </c>
-      <c r="W2" s="23">
-        <v>6745671</v>
-      </c>
-      <c r="X2" s="23">
-        <v>4474457</v>
-      </c>
-      <c r="Y2" s="23">
-        <v>4018821</v>
-      </c>
-      <c r="Z2" s="23">
-        <v>3489298</v>
-      </c>
-      <c r="AA2" s="23">
-        <v>4556677</v>
-      </c>
-      <c r="AB2" s="23">
-        <v>4388038</v>
-      </c>
-      <c r="AC2" s="23">
-        <v>3243919</v>
-      </c>
-      <c r="AD2" s="23">
-        <v>2712584</v>
-      </c>
-      <c r="AE2" s="23">
-        <v>3735779</v>
-      </c>
-      <c r="AF2" s="23">
-        <v>3091044</v>
-      </c>
-      <c r="AG2" s="23">
-        <v>3009796</v>
-      </c>
-      <c r="AH2" s="23">
-        <v>3435856</v>
-      </c>
-      <c r="AI2" s="23">
-        <v>3355091</v>
-      </c>
-      <c r="AJ2" s="23">
-        <v>4530898</v>
-      </c>
-      <c r="AK2" s="23">
-        <v>3607107</v>
-      </c>
-      <c r="AL2" s="23">
-        <v>4068797</v>
+      <c r="B2">
+        <v>8806605000</v>
+      </c>
+      <c r="C2">
+        <v>7198390000</v>
+      </c>
+      <c r="D2">
+        <v>7310767000</v>
+      </c>
+      <c r="E2">
+        <v>7630154000</v>
+      </c>
+      <c r="F2">
+        <v>8595868000</v>
+      </c>
+      <c r="G2">
+        <v>8913451000</v>
+      </c>
+      <c r="H2">
+        <v>6324336000</v>
+      </c>
+      <c r="I2">
+        <v>7818425000</v>
+      </c>
+      <c r="J2">
+        <v>8041228000</v>
+      </c>
+      <c r="K2">
+        <v>7378528000</v>
+      </c>
+      <c r="L2">
+        <v>9389673000</v>
+      </c>
+      <c r="M2">
+        <v>7815963000</v>
+      </c>
+      <c r="N2">
+        <v>8048054000</v>
+      </c>
+      <c r="O2">
+        <v>8517934000</v>
+      </c>
+      <c r="P2">
+        <v>8598380000</v>
+      </c>
+      <c r="Q2">
+        <v>8718941000</v>
+      </c>
+      <c r="R2">
+        <v>7291161000</v>
+      </c>
+      <c r="S2">
+        <v>7733297000</v>
+      </c>
+      <c r="T2">
+        <v>9135347000</v>
+      </c>
+      <c r="U2">
+        <v>8108917000</v>
+      </c>
+      <c r="V2">
+        <v>7305287000</v>
+      </c>
+      <c r="W2">
+        <v>6745671000</v>
+      </c>
+      <c r="X2">
+        <v>4474457000</v>
+      </c>
+      <c r="Y2">
+        <v>4018821000</v>
+      </c>
+      <c r="Z2">
+        <v>3489298000</v>
+      </c>
+      <c r="AA2">
+        <v>4556677000</v>
+      </c>
+      <c r="AB2">
+        <v>4388038000</v>
+      </c>
+      <c r="AC2">
+        <v>3243919000</v>
+      </c>
+      <c r="AD2">
+        <v>2712584000</v>
+      </c>
+      <c r="AE2">
+        <v>3735779000</v>
+      </c>
+      <c r="AF2">
+        <v>3091044000</v>
+      </c>
+      <c r="AG2">
+        <v>3009796000</v>
+      </c>
+      <c r="AH2">
+        <v>3435856000</v>
+      </c>
+      <c r="AI2">
+        <v>3355091000</v>
+      </c>
+      <c r="AJ2">
+        <v>4530898000</v>
+      </c>
+      <c r="AK2">
+        <v>3607107000</v>
+      </c>
+      <c r="AL2">
+        <v>4068797000</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25">
-        <v>5574639</v>
-      </c>
-      <c r="C3" s="25">
-        <v>3958758</v>
-      </c>
-      <c r="D3" s="25">
-        <v>4049171</v>
-      </c>
-      <c r="E3" s="25">
-        <v>4211142</v>
-      </c>
-      <c r="F3" s="25">
-        <v>5262245</v>
-      </c>
-      <c r="G3" s="25">
-        <v>5255767</v>
-      </c>
-      <c r="H3" s="25">
-        <v>3085251</v>
-      </c>
-      <c r="I3" s="25">
-        <v>4753812</v>
-      </c>
-      <c r="J3" s="25">
-        <v>2941750</v>
-      </c>
-      <c r="K3" s="25">
-        <v>2235887</v>
-      </c>
-      <c r="L3" s="25">
-        <v>3764944</v>
-      </c>
-      <c r="M3" s="25">
-        <v>4313392</v>
-      </c>
-      <c r="N3" s="25">
-        <v>4587654</v>
-      </c>
-      <c r="O3" s="25">
-        <v>5156406</v>
-      </c>
-      <c r="P3" s="25">
-        <v>4639451</v>
-      </c>
-      <c r="Q3" s="25">
-        <v>5074016</v>
-      </c>
-      <c r="R3" s="25">
-        <v>4314022</v>
-      </c>
-      <c r="S3" s="25">
-        <v>4538946</v>
-      </c>
-      <c r="T3" s="25">
-        <v>5696689</v>
-      </c>
-      <c r="U3" s="25">
-        <v>4799482</v>
-      </c>
-      <c r="V3" s="25">
-        <v>4188050</v>
-      </c>
-      <c r="W3" s="25">
-        <v>3870261</v>
-      </c>
-      <c r="X3" s="25">
-        <v>1719426</v>
-      </c>
-      <c r="Y3" s="25">
-        <v>1642323</v>
-      </c>
-      <c r="Z3" s="25">
-        <v>950274</v>
-      </c>
-      <c r="AA3" s="25">
-        <v>2415792</v>
-      </c>
-      <c r="AB3" s="25">
-        <v>2442566</v>
-      </c>
-      <c r="AC3" s="25">
-        <v>1046381</v>
-      </c>
-      <c r="AD3" s="25">
-        <v>716144</v>
-      </c>
-      <c r="AE3" s="25">
-        <v>1930070</v>
-      </c>
-      <c r="AF3" s="25">
-        <v>1561517</v>
-      </c>
-      <c r="AG3" s="25">
-        <v>1505457</v>
-      </c>
-      <c r="AH3" s="25">
-        <v>1851322</v>
-      </c>
-      <c r="AI3" s="25">
-        <v>1815340</v>
-      </c>
-      <c r="AJ3" s="25">
-        <v>3085348</v>
-      </c>
-      <c r="AK3" s="25">
-        <v>2104723</v>
-      </c>
-      <c r="AL3" s="25">
-        <v>2263473</v>
+      <c r="B3">
+        <v>5574639000</v>
+      </c>
+      <c r="C3">
+        <v>3958758000</v>
+      </c>
+      <c r="D3">
+        <v>4049171000</v>
+      </c>
+      <c r="E3">
+        <v>4211142000</v>
+      </c>
+      <c r="F3">
+        <v>5262245000</v>
+      </c>
+      <c r="G3">
+        <v>5255767000</v>
+      </c>
+      <c r="H3">
+        <v>3085251000</v>
+      </c>
+      <c r="I3">
+        <v>4753812000</v>
+      </c>
+      <c r="J3">
+        <v>2941750000</v>
+      </c>
+      <c r="K3">
+        <v>2235887000</v>
+      </c>
+      <c r="L3">
+        <v>3764944000</v>
+      </c>
+      <c r="M3">
+        <v>4313392000</v>
+      </c>
+      <c r="N3">
+        <v>4587654000</v>
+      </c>
+      <c r="O3">
+        <v>5156406000</v>
+      </c>
+      <c r="P3">
+        <v>4639451000</v>
+      </c>
+      <c r="Q3">
+        <v>5074016000</v>
+      </c>
+      <c r="R3">
+        <v>4314022000</v>
+      </c>
+      <c r="S3">
+        <v>4538946000</v>
+      </c>
+      <c r="T3">
+        <v>5696689000</v>
+      </c>
+      <c r="U3">
+        <v>4799482000</v>
+      </c>
+      <c r="V3">
+        <v>4188050000</v>
+      </c>
+      <c r="W3">
+        <v>3870261000</v>
+      </c>
+      <c r="X3">
+        <v>1719426000</v>
+      </c>
+      <c r="Y3">
+        <v>1642323000</v>
+      </c>
+      <c r="Z3">
+        <v>950274000</v>
+      </c>
+      <c r="AA3">
+        <v>2415792000</v>
+      </c>
+      <c r="AB3">
+        <v>2442566000</v>
+      </c>
+      <c r="AC3">
+        <v>1046381000</v>
+      </c>
+      <c r="AD3">
+        <v>716144000</v>
+      </c>
+      <c r="AE3">
+        <v>1930070000</v>
+      </c>
+      <c r="AF3">
+        <v>1561517000</v>
+      </c>
+      <c r="AG3">
+        <v>1505457000</v>
+      </c>
+      <c r="AH3">
+        <v>1851322000</v>
+      </c>
+      <c r="AI3">
+        <v>1815340000</v>
+      </c>
+      <c r="AJ3">
+        <v>3085348000</v>
+      </c>
+      <c r="AK3">
+        <v>2104723000</v>
+      </c>
+      <c r="AL3">
+        <v>2263473000</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="25">
-        <v>1108224</v>
-      </c>
-      <c r="C4" s="25">
-        <v>1174405</v>
-      </c>
-      <c r="D4" s="25">
-        <v>1102718</v>
-      </c>
-      <c r="E4" s="25">
-        <v>1026428</v>
-      </c>
-      <c r="F4" s="25">
-        <v>1098802</v>
-      </c>
-      <c r="G4" s="25">
-        <v>1132836</v>
-      </c>
-      <c r="H4" s="25">
-        <v>1045525</v>
-      </c>
-      <c r="I4" s="25">
-        <v>988581</v>
-      </c>
-      <c r="J4" s="25">
-        <v>1089944</v>
-      </c>
-      <c r="K4" s="25">
-        <v>1143117</v>
-      </c>
-      <c r="L4" s="25">
-        <v>1173598</v>
-      </c>
-      <c r="M4" s="25">
-        <v>1075185</v>
-      </c>
-      <c r="N4" s="25">
-        <v>1202250</v>
-      </c>
-      <c r="O4" s="25">
-        <v>1114105</v>
-      </c>
-      <c r="P4" s="25">
-        <v>1289531</v>
-      </c>
-      <c r="Q4" s="25">
-        <v>1265461</v>
-      </c>
-      <c r="R4" s="25">
-        <v>1506536</v>
-      </c>
-      <c r="S4" s="25">
-        <v>1723101</v>
-      </c>
-      <c r="T4" s="25">
-        <v>1682403</v>
-      </c>
-      <c r="U4" s="25">
-        <v>1465911</v>
-      </c>
-      <c r="V4" s="25">
-        <v>1479169</v>
-      </c>
-      <c r="W4" s="25">
-        <v>1451227</v>
-      </c>
-      <c r="X4" s="25">
-        <v>1512132</v>
-      </c>
-      <c r="Y4" s="25">
-        <v>1336032</v>
-      </c>
-      <c r="Z4" s="25">
-        <v>1357040</v>
-      </c>
-      <c r="AA4" s="25">
-        <v>1181379</v>
-      </c>
-      <c r="AB4" s="25">
-        <v>1146146</v>
-      </c>
-      <c r="AC4" s="25">
-        <v>1263455</v>
-      </c>
-      <c r="AD4" s="25">
-        <v>1148924</v>
-      </c>
-      <c r="AE4" s="25">
-        <v>1058469</v>
-      </c>
-      <c r="AF4" s="25">
-        <v>745497</v>
-      </c>
-      <c r="AG4" s="25">
-        <v>726559</v>
-      </c>
-      <c r="AH4" s="25">
-        <v>808334</v>
-      </c>
-      <c r="AI4" s="25">
-        <v>824079</v>
-      </c>
-      <c r="AJ4" s="25">
-        <v>799703</v>
-      </c>
-      <c r="AK4" s="25">
-        <v>745073</v>
-      </c>
-      <c r="AL4" s="25">
-        <v>780355</v>
+      <c r="B4">
+        <v>1108224000</v>
+      </c>
+      <c r="C4">
+        <v>1174405000</v>
+      </c>
+      <c r="D4">
+        <v>1102718000</v>
+      </c>
+      <c r="E4">
+        <v>1026428000</v>
+      </c>
+      <c r="F4">
+        <v>1098802000</v>
+      </c>
+      <c r="G4">
+        <v>1132836000</v>
+      </c>
+      <c r="H4">
+        <v>1045525000</v>
+      </c>
+      <c r="I4">
+        <v>988581000</v>
+      </c>
+      <c r="J4">
+        <v>1089944000</v>
+      </c>
+      <c r="K4">
+        <v>1143117000</v>
+      </c>
+      <c r="L4">
+        <v>1173598000</v>
+      </c>
+      <c r="M4">
+        <v>1075185000</v>
+      </c>
+      <c r="N4">
+        <v>1202250000</v>
+      </c>
+      <c r="O4">
+        <v>1114105000</v>
+      </c>
+      <c r="P4">
+        <v>1289531000</v>
+      </c>
+      <c r="Q4">
+        <v>1265461000</v>
+      </c>
+      <c r="R4">
+        <v>1506536000</v>
+      </c>
+      <c r="S4">
+        <v>1723101000</v>
+      </c>
+      <c r="T4">
+        <v>1682403000</v>
+      </c>
+      <c r="U4">
+        <v>1465911000</v>
+      </c>
+      <c r="V4">
+        <v>1479169000</v>
+      </c>
+      <c r="W4">
+        <v>1451227000</v>
+      </c>
+      <c r="X4">
+        <v>1512132000</v>
+      </c>
+      <c r="Y4">
+        <v>1336032000</v>
+      </c>
+      <c r="Z4">
+        <v>1357040000</v>
+      </c>
+      <c r="AA4">
+        <v>1181379000</v>
+      </c>
+      <c r="AB4">
+        <v>1146146000</v>
+      </c>
+      <c r="AC4">
+        <v>1263455000</v>
+      </c>
+      <c r="AD4">
+        <v>1148924000</v>
+      </c>
+      <c r="AE4">
+        <v>1058469000</v>
+      </c>
+      <c r="AF4">
+        <v>745497000</v>
+      </c>
+      <c r="AG4">
+        <v>726559000</v>
+      </c>
+      <c r="AH4">
+        <v>808334000</v>
+      </c>
+      <c r="AI4">
+        <v>824079000</v>
+      </c>
+      <c r="AJ4">
+        <v>799703000</v>
+      </c>
+      <c r="AK4">
+        <v>745073000</v>
+      </c>
+      <c r="AL4">
+        <v>780355000</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="25">
+      <c r="B5">
         <v>0</v>
       </c>
-      <c r="D5" s="25">
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="E5" s="25">
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="F5" s="25">
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="G5" s="25">
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="H5" s="25">
-        <v>61847</v>
-      </c>
-      <c r="I5" s="25">
-        <v>62460</v>
-      </c>
-      <c r="J5" s="25">
-        <v>60366</v>
-      </c>
-      <c r="K5" s="25">
-        <v>59313</v>
-      </c>
-      <c r="L5" s="25">
-        <v>57460</v>
-      </c>
-      <c r="M5" s="25">
-        <v>173237</v>
-      </c>
-      <c r="N5" s="25">
-        <v>152184</v>
-      </c>
-      <c r="O5" s="25">
-        <v>151146</v>
-      </c>
-      <c r="P5" s="25">
-        <v>154794</v>
-      </c>
-      <c r="Q5" s="25">
-        <v>183881</v>
-      </c>
-      <c r="R5" s="25">
-        <v>188105</v>
-      </c>
-      <c r="S5" s="25">
-        <v>189428</v>
-      </c>
-      <c r="T5" s="25">
-        <v>238765</v>
-      </c>
-      <c r="U5" s="25">
-        <v>264181</v>
-      </c>
-      <c r="V5" s="25">
-        <v>198491</v>
-      </c>
-      <c r="W5" s="25">
-        <v>220964</v>
-      </c>
-      <c r="X5" s="25">
-        <v>227895</v>
-      </c>
-      <c r="Y5" s="25">
-        <v>217592</v>
-      </c>
-      <c r="Z5" s="25">
-        <v>192611</v>
-      </c>
-      <c r="AA5" s="25">
-        <v>125681</v>
-      </c>
-      <c r="AB5" s="25">
-        <v>95562</v>
-      </c>
-      <c r="AC5" s="25">
-        <v>133262</v>
-      </c>
-      <c r="AD5" s="25">
-        <v>138253</v>
-      </c>
-      <c r="AE5" s="25">
-        <v>98249</v>
-      </c>
-      <c r="AF5" s="25">
-        <v>105631</v>
-      </c>
-      <c r="AG5" s="25">
-        <v>105817</v>
-      </c>
-      <c r="AH5" s="25">
-        <v>110280</v>
-      </c>
-      <c r="AI5" s="25">
-        <v>105541</v>
-      </c>
-      <c r="AJ5" s="25">
-        <v>96649</v>
-      </c>
-      <c r="AK5" s="25">
-        <v>104330</v>
-      </c>
-      <c r="AL5" s="25">
-        <v>99104</v>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>61847000</v>
+      </c>
+      <c r="I5">
+        <v>62460000</v>
+      </c>
+      <c r="J5">
+        <v>60366000</v>
+      </c>
+      <c r="K5">
+        <v>59313000</v>
+      </c>
+      <c r="L5">
+        <v>57460000</v>
+      </c>
+      <c r="M5">
+        <v>173237000</v>
+      </c>
+      <c r="N5">
+        <v>152184000</v>
+      </c>
+      <c r="O5">
+        <v>151146000</v>
+      </c>
+      <c r="P5">
+        <v>154794000</v>
+      </c>
+      <c r="Q5">
+        <v>183881000</v>
+      </c>
+      <c r="R5">
+        <v>188105000</v>
+      </c>
+      <c r="S5">
+        <v>189428000</v>
+      </c>
+      <c r="T5">
+        <v>238765000</v>
+      </c>
+      <c r="U5">
+        <v>264181000</v>
+      </c>
+      <c r="V5">
+        <v>198491000</v>
+      </c>
+      <c r="W5">
+        <v>220964000</v>
+      </c>
+      <c r="X5">
+        <v>227895000</v>
+      </c>
+      <c r="Y5">
+        <v>217592000</v>
+      </c>
+      <c r="Z5">
+        <v>192611000</v>
+      </c>
+      <c r="AA5">
+        <v>125681000</v>
+      </c>
+      <c r="AB5">
+        <v>95562000</v>
+      </c>
+      <c r="AC5">
+        <v>133262000</v>
+      </c>
+      <c r="AD5">
+        <v>138253000</v>
+      </c>
+      <c r="AE5">
+        <v>98249000</v>
+      </c>
+      <c r="AF5">
+        <v>105631000</v>
+      </c>
+      <c r="AG5">
+        <v>105817000</v>
+      </c>
+      <c r="AH5">
+        <v>110280000</v>
+      </c>
+      <c r="AI5">
+        <v>105541000</v>
+      </c>
+      <c r="AJ5">
+        <v>96649000</v>
+      </c>
+      <c r="AK5">
+        <v>104330000</v>
+      </c>
+      <c r="AL5">
+        <v>99104000</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="23">
-        <v>43954616</v>
-      </c>
-      <c r="C6" s="23">
-        <v>42913911</v>
-      </c>
-      <c r="D6" s="23">
-        <v>40950189</v>
-      </c>
-      <c r="E6" s="23">
-        <v>38806573</v>
-      </c>
-      <c r="F6" s="23">
-        <v>36862083</v>
-      </c>
-      <c r="G6" s="23">
-        <v>33311022</v>
-      </c>
-      <c r="H6" s="23">
-        <v>33073065</v>
-      </c>
-      <c r="I6" s="23">
-        <v>32444537</v>
-      </c>
-      <c r="J6" s="23">
-        <v>31563231</v>
-      </c>
-      <c r="K6" s="23">
-        <v>30808224</v>
-      </c>
-      <c r="L6" s="23">
-        <v>30295861</v>
-      </c>
-      <c r="M6" s="23">
-        <v>31846987</v>
-      </c>
-      <c r="N6" s="23">
-        <v>31557090</v>
-      </c>
-      <c r="O6" s="23">
-        <v>29597791</v>
-      </c>
-      <c r="P6" s="23">
-        <v>30242282</v>
-      </c>
-      <c r="Q6" s="23">
-        <v>29109548</v>
-      </c>
-      <c r="R6" s="23">
-        <v>28646573</v>
-      </c>
-      <c r="S6" s="23">
-        <v>27452951</v>
-      </c>
-      <c r="T6" s="23">
-        <v>25262275</v>
-      </c>
-      <c r="U6" s="23">
-        <v>24084739</v>
-      </c>
-      <c r="V6" s="23">
-        <v>24093911</v>
-      </c>
-      <c r="W6" s="23">
-        <v>23389907</v>
-      </c>
-      <c r="X6" s="23">
-        <v>23430264</v>
-      </c>
-      <c r="Y6" s="23">
-        <v>23558584</v>
-      </c>
-      <c r="Z6" s="23">
-        <v>19936000</v>
-      </c>
-      <c r="AA6" s="23">
-        <v>19178868</v>
-      </c>
-      <c r="AB6" s="23">
-        <v>18349794</v>
-      </c>
-      <c r="AC6" s="23">
-        <v>16984433</v>
-      </c>
-      <c r="AD6" s="23">
-        <v>16223993</v>
-      </c>
-      <c r="AE6" s="23">
-        <v>15832734</v>
-      </c>
-      <c r="AF6" s="23">
-        <v>12144681</v>
-      </c>
-      <c r="AG6" s="23">
-        <v>11803763</v>
-      </c>
-      <c r="AH6" s="23">
-        <v>11356458</v>
-      </c>
-      <c r="AI6" s="23">
-        <v>11064600</v>
-      </c>
-      <c r="AJ6" s="23">
-        <v>11090393</v>
-      </c>
-      <c r="AK6" s="23">
-        <v>10892610</v>
-      </c>
-      <c r="AL6" s="23">
-        <v>10824961</v>
+      <c r="B6">
+        <v>43954616000</v>
+      </c>
+      <c r="C6">
+        <v>42913911000</v>
+      </c>
+      <c r="D6">
+        <v>40950189000</v>
+      </c>
+      <c r="E6">
+        <v>38806573000</v>
+      </c>
+      <c r="F6">
+        <v>36862083000</v>
+      </c>
+      <c r="G6">
+        <v>33311022000</v>
+      </c>
+      <c r="H6">
+        <v>33073065000</v>
+      </c>
+      <c r="I6">
+        <v>32444537000</v>
+      </c>
+      <c r="J6">
+        <v>31563231000</v>
+      </c>
+      <c r="K6">
+        <v>30808224000</v>
+      </c>
+      <c r="L6">
+        <v>30295861000</v>
+      </c>
+      <c r="M6">
+        <v>31846987000</v>
+      </c>
+      <c r="N6">
+        <v>31557090000</v>
+      </c>
+      <c r="O6">
+        <v>29597791000</v>
+      </c>
+      <c r="P6">
+        <v>30242282000</v>
+      </c>
+      <c r="Q6">
+        <v>29109548000</v>
+      </c>
+      <c r="R6">
+        <v>28646573000</v>
+      </c>
+      <c r="S6">
+        <v>27452951000</v>
+      </c>
+      <c r="T6">
+        <v>25262275000</v>
+      </c>
+      <c r="U6">
+        <v>24084739000</v>
+      </c>
+      <c r="V6">
+        <v>24093911000</v>
+      </c>
+      <c r="W6">
+        <v>23389907000</v>
+      </c>
+      <c r="X6">
+        <v>23430264000</v>
+      </c>
+      <c r="Y6">
+        <v>23558584000</v>
+      </c>
+      <c r="Z6">
+        <v>19936000000</v>
+      </c>
+      <c r="AA6">
+        <v>19178868000</v>
+      </c>
+      <c r="AB6">
+        <v>18349794000</v>
+      </c>
+      <c r="AC6">
+        <v>16984433000</v>
+      </c>
+      <c r="AD6">
+        <v>16223993000</v>
+      </c>
+      <c r="AE6">
+        <v>15832734000</v>
+      </c>
+      <c r="AF6">
+        <v>12144681000</v>
+      </c>
+      <c r="AG6">
+        <v>11803763000</v>
+      </c>
+      <c r="AH6">
+        <v>11356458000</v>
+      </c>
+      <c r="AI6">
+        <v>11064600000</v>
+      </c>
+      <c r="AJ6">
+        <v>11090393000</v>
+      </c>
+      <c r="AK6">
+        <v>10892610000</v>
+      </c>
+      <c r="AL6">
+        <v>10824961000</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="25">
-        <v>1349868</v>
-      </c>
-      <c r="C7" s="25">
-        <v>1250625</v>
-      </c>
-      <c r="D7" s="25">
-        <v>1294167</v>
-      </c>
-      <c r="E7" s="25">
-        <v>1421594</v>
-      </c>
-      <c r="F7" s="25">
-        <v>1592432</v>
-      </c>
-      <c r="G7" s="25">
-        <v>2713065</v>
-      </c>
-      <c r="H7" s="25">
-        <v>3675215</v>
-      </c>
-      <c r="I7" s="25">
-        <v>3412612</v>
-      </c>
-      <c r="J7" s="25">
-        <v>3234122</v>
-      </c>
-      <c r="K7" s="25">
-        <v>3006423</v>
-      </c>
-      <c r="L7" s="25">
-        <v>3001118</v>
-      </c>
-      <c r="M7" s="25">
-        <v>2817201</v>
-      </c>
-      <c r="N7" s="25">
-        <v>3035800</v>
-      </c>
-      <c r="O7" s="25">
-        <v>2366708</v>
-      </c>
-      <c r="P7" s="25">
-        <v>2549725</v>
-      </c>
-      <c r="Q7" s="25">
-        <v>2588374</v>
-      </c>
-      <c r="R7" s="25">
-        <v>2416225</v>
-      </c>
-      <c r="S7" s="25">
-        <v>2425062</v>
-      </c>
-      <c r="T7" s="25">
-        <v>2376526</v>
-      </c>
-      <c r="U7" s="25">
-        <v>2045493</v>
-      </c>
-      <c r="V7" s="25">
-        <v>2282430</v>
-      </c>
-      <c r="W7" s="25">
-        <v>2948920</v>
-      </c>
-      <c r="X7" s="25">
-        <v>3101211</v>
-      </c>
-      <c r="Y7" s="25">
-        <v>3443060</v>
-      </c>
-      <c r="Z7" s="25">
+      <c r="B7">
+        <v>1349868000</v>
+      </c>
+      <c r="C7">
+        <v>1250625000</v>
+      </c>
+      <c r="D7">
+        <v>1294167000</v>
+      </c>
+      <c r="E7">
+        <v>1421594000</v>
+      </c>
+      <c r="F7">
+        <v>1592432000</v>
+      </c>
+      <c r="G7">
+        <v>2713065000</v>
+      </c>
+      <c r="H7">
+        <v>3675215000</v>
+      </c>
+      <c r="I7">
+        <v>3412612000</v>
+      </c>
+      <c r="J7">
+        <v>3234122000</v>
+      </c>
+      <c r="K7">
+        <v>3006423000</v>
+      </c>
+      <c r="L7">
+        <v>3001118000</v>
+      </c>
+      <c r="M7">
+        <v>2817201000</v>
+      </c>
+      <c r="N7">
+        <v>3035800000</v>
+      </c>
+      <c r="O7">
+        <v>2366708000</v>
+      </c>
+      <c r="P7">
+        <v>2549725000</v>
+      </c>
+      <c r="Q7">
+        <v>2588374000</v>
+      </c>
+      <c r="R7">
+        <v>2416225000</v>
+      </c>
+      <c r="S7">
+        <v>2425062000</v>
+      </c>
+      <c r="T7">
+        <v>2376526000</v>
+      </c>
+      <c r="U7">
+        <v>2045493000</v>
+      </c>
+      <c r="V7">
+        <v>2282430000</v>
+      </c>
+      <c r="W7">
+        <v>2948920000</v>
+      </c>
+      <c r="X7">
+        <v>3101211000</v>
+      </c>
+      <c r="Y7">
+        <v>3443060000</v>
+      </c>
+      <c r="Z7">
         <v>0</v>
       </c>
-      <c r="AA7" s="25">
+      <c r="AA7">
         <v>0</v>
       </c>
-      <c r="AB7" s="25">
+      <c r="AB7">
         <v>0</v>
       </c>
-      <c r="AC7" s="25">
-        <v>18447</v>
-      </c>
-      <c r="AD7" s="25">
-        <v>17628</v>
-      </c>
-      <c r="AE7" s="25">
-        <v>19027</v>
-      </c>
-      <c r="AF7" s="25">
-        <v>14717</v>
-      </c>
-      <c r="AG7" s="25">
-        <v>12711</v>
-      </c>
-      <c r="AH7" s="25">
-        <v>7281</v>
-      </c>
-      <c r="AI7" s="25">
-        <v>4886</v>
-      </c>
-      <c r="AJ7" s="25">
-        <v>4252</v>
-      </c>
-      <c r="AK7" s="25">
-        <v>4526</v>
-      </c>
-      <c r="AL7" s="25">
+      <c r="AC7">
+        <v>18447000</v>
+      </c>
+      <c r="AD7">
+        <v>17628000</v>
+      </c>
+      <c r="AE7">
+        <v>19027000</v>
+      </c>
+      <c r="AF7">
+        <v>14717000</v>
+      </c>
+      <c r="AG7">
+        <v>12711000</v>
+      </c>
+      <c r="AH7">
+        <v>7281000</v>
+      </c>
+      <c r="AI7">
+        <v>4886000</v>
+      </c>
+      <c r="AJ7">
+        <v>4252000</v>
+      </c>
+      <c r="AK7">
+        <v>4526000</v>
+      </c>
+      <c r="AL7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="25">
-        <v>25373742</v>
-      </c>
-      <c r="C8" s="25">
-        <v>24857228</v>
-      </c>
-      <c r="D8" s="25">
-        <v>23267614</v>
-      </c>
-      <c r="E8" s="25">
-        <v>21504598</v>
-      </c>
-      <c r="F8" s="25">
-        <v>19534676</v>
-      </c>
-      <c r="G8" s="25">
-        <v>16317245</v>
-      </c>
-      <c r="H8" s="25">
-        <v>15150823</v>
-      </c>
-      <c r="I8" s="25">
-        <v>14724746</v>
-      </c>
-      <c r="J8" s="25">
-        <v>14284692</v>
-      </c>
-      <c r="K8" s="25">
-        <v>14025476</v>
-      </c>
-      <c r="L8" s="25">
-        <v>13805050</v>
-      </c>
-      <c r="M8" s="25">
-        <v>15349542</v>
-      </c>
-      <c r="N8" s="25">
-        <v>15366665</v>
-      </c>
-      <c r="O8" s="25">
-        <v>14378787</v>
-      </c>
-      <c r="P8" s="25">
-        <v>15453986</v>
-      </c>
-      <c r="Q8" s="25">
-        <v>15462603</v>
-      </c>
-      <c r="R8" s="25">
-        <v>15587791</v>
-      </c>
-      <c r="S8" s="25">
-        <v>15537837</v>
-      </c>
-      <c r="T8" s="25">
-        <v>15217889</v>
-      </c>
-      <c r="U8" s="25">
-        <v>15249837</v>
-      </c>
-      <c r="V8" s="25">
-        <v>15393404</v>
-      </c>
-      <c r="W8" s="25">
-        <v>15330211</v>
-      </c>
-      <c r="X8" s="25">
-        <v>15140472</v>
-      </c>
-      <c r="Y8" s="25">
-        <v>15323197</v>
-      </c>
-      <c r="Z8" s="25">
-        <v>15138036</v>
-      </c>
-      <c r="AA8" s="25">
-        <v>14635467</v>
-      </c>
-      <c r="AB8" s="25">
-        <v>13764885</v>
-      </c>
-      <c r="AC8" s="25">
-        <v>12654310</v>
-      </c>
-      <c r="AD8" s="25">
-        <v>12039136</v>
-      </c>
-      <c r="AE8" s="25">
-        <v>11678108</v>
-      </c>
-      <c r="AF8" s="25">
-        <v>11310933</v>
-      </c>
-      <c r="AG8" s="25">
-        <v>10924781</v>
-      </c>
-      <c r="AH8" s="25">
-        <v>10482995</v>
-      </c>
-      <c r="AI8" s="25">
-        <v>10194898</v>
-      </c>
-      <c r="AJ8" s="25">
-        <v>10214041</v>
-      </c>
-      <c r="AK8" s="25">
-        <v>10014844</v>
-      </c>
-      <c r="AL8" s="25">
-        <v>9935010</v>
+      <c r="B8">
+        <v>25373742000</v>
+      </c>
+      <c r="C8">
+        <v>24857228000</v>
+      </c>
+      <c r="D8">
+        <v>23267614000</v>
+      </c>
+      <c r="E8">
+        <v>21504598000</v>
+      </c>
+      <c r="F8">
+        <v>19534676000</v>
+      </c>
+      <c r="G8">
+        <v>16317245000</v>
+      </c>
+      <c r="H8">
+        <v>15150823000</v>
+      </c>
+      <c r="I8">
+        <v>14724746000</v>
+      </c>
+      <c r="J8">
+        <v>14284692000</v>
+      </c>
+      <c r="K8">
+        <v>14025476000</v>
+      </c>
+      <c r="L8">
+        <v>13805050000</v>
+      </c>
+      <c r="M8">
+        <v>15349542000</v>
+      </c>
+      <c r="N8">
+        <v>15366665000</v>
+      </c>
+      <c r="O8">
+        <v>14378787000</v>
+      </c>
+      <c r="P8">
+        <v>15453986000</v>
+      </c>
+      <c r="Q8">
+        <v>15462603000</v>
+      </c>
+      <c r="R8">
+        <v>15587791000</v>
+      </c>
+      <c r="S8">
+        <v>15537837000</v>
+      </c>
+      <c r="T8">
+        <v>15217889000</v>
+      </c>
+      <c r="U8">
+        <v>15249837000</v>
+      </c>
+      <c r="V8">
+        <v>15393404000</v>
+      </c>
+      <c r="W8">
+        <v>15330211000</v>
+      </c>
+      <c r="X8">
+        <v>15140472000</v>
+      </c>
+      <c r="Y8">
+        <v>15323197000</v>
+      </c>
+      <c r="Z8">
+        <v>15138036000</v>
+      </c>
+      <c r="AA8">
+        <v>14635467000</v>
+      </c>
+      <c r="AB8">
+        <v>13764885000</v>
+      </c>
+      <c r="AC8">
+        <v>12654310000</v>
+      </c>
+      <c r="AD8">
+        <v>12039136000</v>
+      </c>
+      <c r="AE8">
+        <v>11678108000</v>
+      </c>
+      <c r="AF8">
+        <v>11310933000</v>
+      </c>
+      <c r="AG8">
+        <v>10924781000</v>
+      </c>
+      <c r="AH8">
+        <v>10482995000</v>
+      </c>
+      <c r="AI8">
+        <v>10194898000</v>
+      </c>
+      <c r="AJ8">
+        <v>10214041000</v>
+      </c>
+      <c r="AK8">
+        <v>10014844000</v>
+      </c>
+      <c r="AL8">
+        <v>9935010000</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="25">
-        <v>4936673</v>
-      </c>
-      <c r="C9" s="25">
-        <v>5088963</v>
-      </c>
-      <c r="D9" s="25">
-        <v>5253264</v>
-      </c>
-      <c r="E9" s="25">
-        <v>5277962</v>
-      </c>
-      <c r="F9" s="25">
-        <v>5306177</v>
-      </c>
-      <c r="G9" s="25">
-        <v>4091783</v>
-      </c>
-      <c r="H9" s="25">
-        <v>4238217</v>
-      </c>
-      <c r="I9" s="25">
-        <v>4286702</v>
-      </c>
-      <c r="J9" s="25">
-        <v>4088496</v>
-      </c>
-      <c r="K9" s="25">
-        <v>4134944</v>
-      </c>
-      <c r="L9" s="25">
-        <v>4191572</v>
-      </c>
-      <c r="M9" s="25">
-        <v>4246518</v>
-      </c>
-      <c r="N9" s="25">
-        <v>4024857</v>
-      </c>
-      <c r="O9" s="25">
-        <v>4038156</v>
-      </c>
-      <c r="P9" s="25">
-        <v>2932687</v>
-      </c>
-      <c r="Q9" s="25">
-        <v>2547573</v>
-      </c>
-      <c r="R9" s="25">
-        <v>2559018</v>
-      </c>
-      <c r="S9" s="25">
-        <v>2513990</v>
-      </c>
-      <c r="T9" s="25">
-        <v>1591681</v>
-      </c>
-      <c r="U9" s="25">
-        <v>1600345</v>
-      </c>
-      <c r="V9" s="25">
-        <v>1526303</v>
-      </c>
-      <c r="W9" s="25">
-        <v>1296769</v>
-      </c>
-      <c r="X9" s="25">
-        <v>1287540</v>
-      </c>
-      <c r="Y9" s="25">
-        <v>1295066</v>
-      </c>
-      <c r="Z9" s="25">
-        <v>1302436</v>
-      </c>
-      <c r="AA9" s="25">
-        <v>1312845</v>
-      </c>
-      <c r="AB9" s="25">
-        <v>1320882</v>
-      </c>
-      <c r="AC9" s="25">
-        <v>1288808</v>
-      </c>
-      <c r="AD9" s="25">
-        <v>1299079</v>
-      </c>
-      <c r="AE9" s="25">
-        <v>1308951</v>
-      </c>
-      <c r="AF9" s="25">
-        <v>266219</v>
-      </c>
-      <c r="AG9" s="25">
-        <v>256850</v>
-      </c>
-      <c r="AH9" s="25">
-        <v>250928</v>
-      </c>
-      <c r="AI9" s="25">
-        <v>252514</v>
-      </c>
-      <c r="AJ9" s="25">
-        <v>252992</v>
-      </c>
-      <c r="AK9" s="25">
-        <v>254608</v>
-      </c>
-      <c r="AL9" s="25">
-        <v>255094</v>
+      <c r="B9">
+        <v>4936673000</v>
+      </c>
+      <c r="C9">
+        <v>5088963000</v>
+      </c>
+      <c r="D9">
+        <v>5253264000</v>
+      </c>
+      <c r="E9">
+        <v>5277962000</v>
+      </c>
+      <c r="F9">
+        <v>5306177000</v>
+      </c>
+      <c r="G9">
+        <v>4091783000</v>
+      </c>
+      <c r="H9">
+        <v>4238217000</v>
+      </c>
+      <c r="I9">
+        <v>4286702000</v>
+      </c>
+      <c r="J9">
+        <v>4088496000</v>
+      </c>
+      <c r="K9">
+        <v>4134944000</v>
+      </c>
+      <c r="L9">
+        <v>4191572000</v>
+      </c>
+      <c r="M9">
+        <v>4246518000</v>
+      </c>
+      <c r="N9">
+        <v>4024857000</v>
+      </c>
+      <c r="O9">
+        <v>4038156000</v>
+      </c>
+      <c r="P9">
+        <v>2932687000</v>
+      </c>
+      <c r="Q9">
+        <v>2547573000</v>
+      </c>
+      <c r="R9">
+        <v>2559018000</v>
+      </c>
+      <c r="S9">
+        <v>2513990000</v>
+      </c>
+      <c r="T9">
+        <v>1591681000</v>
+      </c>
+      <c r="U9">
+        <v>1600345000</v>
+      </c>
+      <c r="V9">
+        <v>1526303000</v>
+      </c>
+      <c r="W9">
+        <v>1296769000</v>
+      </c>
+      <c r="X9">
+        <v>1287540000</v>
+      </c>
+      <c r="Y9">
+        <v>1295066000</v>
+      </c>
+      <c r="Z9">
+        <v>1302436000</v>
+      </c>
+      <c r="AA9">
+        <v>1312845000</v>
+      </c>
+      <c r="AB9">
+        <v>1320882000</v>
+      </c>
+      <c r="AC9">
+        <v>1288808000</v>
+      </c>
+      <c r="AD9">
+        <v>1299079000</v>
+      </c>
+      <c r="AE9">
+        <v>1308951000</v>
+      </c>
+      <c r="AF9">
+        <v>266219000</v>
+      </c>
+      <c r="AG9">
+        <v>256850000</v>
+      </c>
+      <c r="AH9">
+        <v>250928000</v>
+      </c>
+      <c r="AI9">
+        <v>252514000</v>
+      </c>
+      <c r="AJ9">
+        <v>252992000</v>
+      </c>
+      <c r="AK9">
+        <v>254608000</v>
+      </c>
+      <c r="AL9">
+        <v>255094000</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="23">
-        <v>52761221</v>
-      </c>
-      <c r="C10" s="23">
-        <v>50112301</v>
-      </c>
-      <c r="D10" s="23">
-        <v>48260956</v>
-      </c>
-      <c r="E10" s="23">
-        <v>46436727</v>
-      </c>
-      <c r="F10" s="23">
-        <v>45457951</v>
-      </c>
-      <c r="G10" s="23">
-        <v>42224473</v>
-      </c>
-      <c r="H10" s="23">
-        <v>39397401</v>
-      </c>
-      <c r="I10" s="23">
-        <v>40262962</v>
-      </c>
-      <c r="J10" s="23">
-        <v>39604459</v>
-      </c>
-      <c r="K10" s="23">
-        <v>38186752</v>
-      </c>
-      <c r="L10" s="23">
-        <v>39685534</v>
-      </c>
-      <c r="M10" s="23">
-        <v>39662950</v>
-      </c>
-      <c r="N10" s="23">
-        <v>39605144</v>
-      </c>
-      <c r="O10" s="23">
-        <v>38115725</v>
-      </c>
-      <c r="P10" s="23">
-        <v>38840662</v>
-      </c>
-      <c r="Q10" s="23">
-        <v>37828489</v>
-      </c>
-      <c r="R10" s="23">
-        <v>35937734</v>
-      </c>
-      <c r="S10" s="23">
-        <v>35186248</v>
-      </c>
-      <c r="T10" s="23">
-        <v>34397622</v>
-      </c>
-      <c r="U10" s="23">
-        <v>32193656</v>
-      </c>
-      <c r="V10" s="23">
-        <v>31399198</v>
-      </c>
-      <c r="W10" s="23">
-        <v>30135578</v>
-      </c>
-      <c r="X10" s="23">
-        <v>27904721</v>
-      </c>
-      <c r="Y10" s="23">
-        <v>27577405</v>
-      </c>
-      <c r="Z10" s="23">
-        <v>23425298</v>
-      </c>
-      <c r="AA10" s="23">
-        <v>23735545</v>
-      </c>
-      <c r="AB10" s="23">
-        <v>22737832</v>
-      </c>
-      <c r="AC10" s="23">
-        <v>20228352</v>
-      </c>
-      <c r="AD10" s="23">
-        <v>18936577</v>
-      </c>
-      <c r="AE10" s="23">
-        <v>19568513</v>
-      </c>
-      <c r="AF10" s="23">
-        <v>15235725</v>
-      </c>
-      <c r="AG10" s="23">
-        <v>14813559</v>
-      </c>
-      <c r="AH10" s="23">
-        <v>14792314</v>
-      </c>
-      <c r="AI10" s="23">
-        <v>14419691</v>
-      </c>
-      <c r="AJ10" s="23">
-        <v>15621291</v>
-      </c>
-      <c r="AK10" s="23">
-        <v>14499717</v>
-      </c>
-      <c r="AL10" s="23">
-        <v>14893758</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="B10">
+        <v>52761221000</v>
+      </c>
+      <c r="C10">
+        <v>50112301000</v>
+      </c>
+      <c r="D10">
+        <v>48260956000</v>
+      </c>
+      <c r="E10">
+        <v>46436727000</v>
+      </c>
+      <c r="F10">
+        <v>45457951000</v>
+      </c>
+      <c r="G10">
+        <v>42224473000</v>
+      </c>
+      <c r="H10">
+        <v>39397401000</v>
+      </c>
+      <c r="I10">
+        <v>40262962000</v>
+      </c>
+      <c r="J10">
+        <v>39604459000</v>
+      </c>
+      <c r="K10">
+        <v>38186752000</v>
+      </c>
+      <c r="L10">
+        <v>39685534000</v>
+      </c>
+      <c r="M10">
+        <v>39662950000</v>
+      </c>
+      <c r="N10">
+        <v>39605144000</v>
+      </c>
+      <c r="O10">
+        <v>38115725000</v>
+      </c>
+      <c r="P10">
+        <v>38840662000</v>
+      </c>
+      <c r="Q10">
+        <v>37828489000</v>
+      </c>
+      <c r="R10">
+        <v>35937734000</v>
+      </c>
+      <c r="S10">
+        <v>35186248000</v>
+      </c>
+      <c r="T10">
+        <v>34397622000</v>
+      </c>
+      <c r="U10">
+        <v>32193656000</v>
+      </c>
+      <c r="V10">
+        <v>31399198000</v>
+      </c>
+      <c r="W10">
+        <v>30135578000</v>
+      </c>
+      <c r="X10">
+        <v>27904721000</v>
+      </c>
+      <c r="Y10">
+        <v>27577405000</v>
+      </c>
+      <c r="Z10">
+        <v>23425298000</v>
+      </c>
+      <c r="AA10">
+        <v>23735545000</v>
+      </c>
+      <c r="AB10">
+        <v>22737832000</v>
+      </c>
+      <c r="AC10">
+        <v>20228352000</v>
+      </c>
+      <c r="AD10">
+        <v>18936577000</v>
+      </c>
+      <c r="AE10">
+        <v>19568513000</v>
+      </c>
+      <c r="AF10">
+        <v>15235725000</v>
+      </c>
+      <c r="AG10">
+        <v>14813559000</v>
+      </c>
+      <c r="AH10">
+        <v>14792314000</v>
+      </c>
+      <c r="AI10">
+        <v>14419691000</v>
+      </c>
+      <c r="AJ10">
+        <v>15621291000</v>
+      </c>
+      <c r="AK10">
+        <v>14499717000</v>
+      </c>
+      <c r="AL10">
+        <v>14893758000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="23">
-        <v>6909487</v>
-      </c>
-      <c r="C11" s="29">
-        <v>7273026</v>
-      </c>
-      <c r="D11" s="29">
-        <v>7157174</v>
-      </c>
-      <c r="E11" s="29">
-        <v>6399887</v>
-      </c>
-      <c r="F11" s="29">
-        <v>5689275</v>
-      </c>
-      <c r="G11" s="29">
-        <v>6113665</v>
-      </c>
-      <c r="H11" s="29">
-        <v>5807371</v>
-      </c>
-      <c r="I11" s="29">
-        <v>6118500</v>
-      </c>
-      <c r="J11" s="29">
-        <v>6735339</v>
-      </c>
-      <c r="K11" s="29">
-        <v>5890219</v>
-      </c>
-      <c r="L11" s="29">
-        <v>7457749</v>
-      </c>
-      <c r="M11" s="29">
-        <v>5589275</v>
-      </c>
-      <c r="N11" s="29">
-        <v>5791562</v>
-      </c>
-      <c r="O11" s="29">
-        <v>5775159</v>
-      </c>
-      <c r="P11" s="29">
-        <v>5898206</v>
-      </c>
-      <c r="Q11" s="29">
-        <v>5709206</v>
-      </c>
-      <c r="R11" s="29">
-        <v>4067742</v>
-      </c>
-      <c r="S11" s="29">
-        <v>5380926</v>
-      </c>
-      <c r="T11" s="29">
-        <v>5880623</v>
-      </c>
-      <c r="U11" s="29">
-        <v>5520632</v>
-      </c>
-      <c r="V11" s="29">
-        <v>5865344</v>
-      </c>
-      <c r="W11" s="29">
-        <v>5979644</v>
-      </c>
-      <c r="X11" s="29">
-        <v>3302317</v>
-      </c>
-      <c r="Y11" s="29">
-        <v>3768873</v>
-      </c>
-      <c r="Z11" s="29">
-        <v>2975353</v>
-      </c>
-      <c r="AA11" s="29">
-        <v>4170261</v>
-      </c>
-      <c r="AB11" s="29">
-        <v>3224954</v>
-      </c>
-      <c r="AC11" s="29">
-        <v>2872504</v>
-      </c>
-      <c r="AD11" s="29">
-        <v>4327783</v>
-      </c>
-      <c r="AE11" s="29">
-        <v>5676471</v>
-      </c>
-      <c r="AF11" s="29">
-        <v>2508927</v>
-      </c>
-      <c r="AG11" s="29">
-        <v>1588699</v>
-      </c>
-      <c r="AH11" s="29">
-        <v>1491991</v>
-      </c>
-      <c r="AI11" s="29">
-        <v>1800794</v>
-      </c>
-      <c r="AJ11" s="29">
-        <v>2856943</v>
-      </c>
-      <c r="AK11" s="29">
-        <v>2074568</v>
-      </c>
-      <c r="AL11" s="29">
-        <v>2428695</v>
+      <c r="B11">
+        <v>6909487000</v>
+      </c>
+      <c r="C11">
+        <v>7273026000</v>
+      </c>
+      <c r="D11">
+        <v>7157174000</v>
+      </c>
+      <c r="E11">
+        <v>6399887000</v>
+      </c>
+      <c r="F11">
+        <v>5689275000</v>
+      </c>
+      <c r="G11">
+        <v>6113665000</v>
+      </c>
+      <c r="H11">
+        <v>5807371000</v>
+      </c>
+      <c r="I11">
+        <v>6118500000</v>
+      </c>
+      <c r="J11">
+        <v>6735339000</v>
+      </c>
+      <c r="K11">
+        <v>5890219000</v>
+      </c>
+      <c r="L11">
+        <v>7457749000</v>
+      </c>
+      <c r="M11">
+        <v>5589275000</v>
+      </c>
+      <c r="N11">
+        <v>5791562000</v>
+      </c>
+      <c r="O11">
+        <v>5775159000</v>
+      </c>
+      <c r="P11">
+        <v>5898206000</v>
+      </c>
+      <c r="Q11">
+        <v>5709206000</v>
+      </c>
+      <c r="R11">
+        <v>4067742000</v>
+      </c>
+      <c r="S11">
+        <v>5380926000</v>
+      </c>
+      <c r="T11">
+        <v>5880623000</v>
+      </c>
+      <c r="U11">
+        <v>5520632000</v>
+      </c>
+      <c r="V11">
+        <v>5865344000</v>
+      </c>
+      <c r="W11">
+        <v>5979644000</v>
+      </c>
+      <c r="X11">
+        <v>3302317000</v>
+      </c>
+      <c r="Y11">
+        <v>3768873000</v>
+      </c>
+      <c r="Z11">
+        <v>2975353000</v>
+      </c>
+      <c r="AA11">
+        <v>4170261000</v>
+      </c>
+      <c r="AB11">
+        <v>3224954000</v>
+      </c>
+      <c r="AC11">
+        <v>2872504000</v>
+      </c>
+      <c r="AD11">
+        <v>4327783000</v>
+      </c>
+      <c r="AE11">
+        <v>5676471000</v>
+      </c>
+      <c r="AF11">
+        <v>2508927000</v>
+      </c>
+      <c r="AG11">
+        <v>1588699000</v>
+      </c>
+      <c r="AH11">
+        <v>1491991000</v>
+      </c>
+      <c r="AI11">
+        <v>1800794000</v>
+      </c>
+      <c r="AJ11">
+        <v>2856943000</v>
+      </c>
+      <c r="AK11">
+        <v>2074568000</v>
+      </c>
+      <c r="AL11">
+        <v>2428695000</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="25">
-        <v>874250</v>
-      </c>
-      <c r="C12" s="17">
-        <v>1061422</v>
-      </c>
-      <c r="D12" s="17">
-        <v>1183504</v>
-      </c>
-      <c r="E12" s="17">
-        <v>1046432</v>
-      </c>
-      <c r="F12" s="17">
-        <v>993513</v>
-      </c>
-      <c r="G12" s="17">
-        <v>798963</v>
-      </c>
-      <c r="H12" s="17">
-        <v>610898</v>
-      </c>
-      <c r="I12" s="17">
-        <v>654174</v>
-      </c>
-      <c r="J12" s="17">
-        <v>499066</v>
-      </c>
-      <c r="K12" s="17">
-        <v>511408</v>
-      </c>
-      <c r="L12" s="17">
-        <v>569452</v>
-      </c>
-      <c r="M12" s="17">
-        <v>609743</v>
-      </c>
-      <c r="N12" s="17">
-        <v>609664</v>
-      </c>
-      <c r="O12" s="17">
-        <v>649962</v>
-      </c>
-      <c r="P12" s="17">
-        <v>990139</v>
-      </c>
-      <c r="Q12" s="17">
-        <v>779013</v>
-      </c>
-      <c r="R12" s="17">
-        <v>794615</v>
-      </c>
-      <c r="S12" s="17">
-        <v>861752</v>
-      </c>
-      <c r="T12" s="17">
-        <v>681365</v>
-      </c>
-      <c r="U12" s="17">
-        <v>611431</v>
-      </c>
-      <c r="V12" s="17">
-        <v>767785</v>
-      </c>
-      <c r="W12" s="17">
-        <v>765020</v>
-      </c>
-      <c r="X12" s="17">
-        <v>537848</v>
-      </c>
-      <c r="Y12" s="17">
-        <v>581903</v>
-      </c>
-      <c r="Z12" s="17">
-        <v>525258</v>
-      </c>
-      <c r="AA12" s="17">
-        <v>588471</v>
-      </c>
-      <c r="AB12" s="17">
-        <v>593957</v>
-      </c>
-      <c r="AC12" s="17">
-        <v>669605</v>
-      </c>
-      <c r="AD12" s="17">
-        <v>551303</v>
-      </c>
-      <c r="AE12" s="17">
-        <v>617396</v>
-      </c>
-      <c r="AF12" s="17">
-        <v>449457</v>
-      </c>
-      <c r="AG12" s="17">
-        <v>472403</v>
-      </c>
-      <c r="AH12" s="17">
-        <v>392004</v>
-      </c>
-      <c r="AI12" s="17">
-        <v>371149</v>
-      </c>
-      <c r="AJ12" s="17">
-        <v>367518</v>
-      </c>
-      <c r="AK12" s="17">
-        <v>366098</v>
-      </c>
-      <c r="AL12" s="17">
-        <v>649465</v>
+      <c r="B12">
+        <v>874250000</v>
+      </c>
+      <c r="C12">
+        <v>1061422000</v>
+      </c>
+      <c r="D12">
+        <v>1183504000</v>
+      </c>
+      <c r="E12">
+        <v>1046432000</v>
+      </c>
+      <c r="F12">
+        <v>993513000</v>
+      </c>
+      <c r="G12">
+        <v>798963000</v>
+      </c>
+      <c r="H12">
+        <v>610898000</v>
+      </c>
+      <c r="I12">
+        <v>654174000</v>
+      </c>
+      <c r="J12">
+        <v>499066000</v>
+      </c>
+      <c r="K12">
+        <v>511408000</v>
+      </c>
+      <c r="L12">
+        <v>569452000</v>
+      </c>
+      <c r="M12">
+        <v>609743000</v>
+      </c>
+      <c r="N12">
+        <v>609664000</v>
+      </c>
+      <c r="O12">
+        <v>649962000</v>
+      </c>
+      <c r="P12">
+        <v>990139000</v>
+      </c>
+      <c r="Q12">
+        <v>779013000</v>
+      </c>
+      <c r="R12">
+        <v>794615000</v>
+      </c>
+      <c r="S12">
+        <v>861752000</v>
+      </c>
+      <c r="T12">
+        <v>681365000</v>
+      </c>
+      <c r="U12">
+        <v>611431000</v>
+      </c>
+      <c r="V12">
+        <v>767785000</v>
+      </c>
+      <c r="W12">
+        <v>765020000</v>
+      </c>
+      <c r="X12">
+        <v>537848000</v>
+      </c>
+      <c r="Y12">
+        <v>581903000</v>
+      </c>
+      <c r="Z12">
+        <v>525258000</v>
+      </c>
+      <c r="AA12">
+        <v>588471000</v>
+      </c>
+      <c r="AB12">
+        <v>593957000</v>
+      </c>
+      <c r="AC12">
+        <v>669605000</v>
+      </c>
+      <c r="AD12">
+        <v>551303000</v>
+      </c>
+      <c r="AE12">
+        <v>617396000</v>
+      </c>
+      <c r="AF12">
+        <v>449457000</v>
+      </c>
+      <c r="AG12">
+        <v>472403000</v>
+      </c>
+      <c r="AH12">
+        <v>392004000</v>
+      </c>
+      <c r="AI12">
+        <v>371149000</v>
+      </c>
+      <c r="AJ12">
+        <v>367518000</v>
+      </c>
+      <c r="AK12">
+        <v>366098000</v>
+      </c>
+      <c r="AL12">
+        <v>649465000</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="25">
-        <v>1333482</v>
-      </c>
-      <c r="C13" s="17">
-        <v>1595587</v>
-      </c>
-      <c r="D13" s="17">
-        <v>1005406</v>
-      </c>
-      <c r="E13" s="17">
-        <v>1185252</v>
-      </c>
-      <c r="F13" s="17">
-        <v>462266</v>
-      </c>
-      <c r="G13" s="17">
-        <v>411578</v>
-      </c>
-      <c r="H13" s="17">
-        <v>777618</v>
-      </c>
-      <c r="I13" s="17">
-        <v>1637604</v>
-      </c>
-      <c r="J13" s="17">
-        <v>181106</v>
-      </c>
-      <c r="K13" s="17">
-        <v>181104</v>
-      </c>
-      <c r="L13" s="17">
-        <v>590827</v>
-      </c>
-      <c r="M13" s="17">
-        <v>559284</v>
-      </c>
-      <c r="N13" s="17">
-        <v>9612</v>
-      </c>
-      <c r="O13" s="17">
-        <v>56558</v>
-      </c>
-      <c r="P13" s="17">
-        <v>801782</v>
-      </c>
-      <c r="Q13" s="17">
-        <v>618017</v>
-      </c>
-      <c r="R13" s="17">
-        <v>160252</v>
-      </c>
-      <c r="S13" s="17">
-        <v>1385056</v>
-      </c>
-      <c r="T13" s="17">
-        <v>686169</v>
-      </c>
-      <c r="U13" s="17">
-        <v>38145</v>
-      </c>
-      <c r="V13" s="17">
-        <v>307426</v>
-      </c>
-      <c r="W13" s="17">
-        <v>1197924</v>
-      </c>
-      <c r="X13" s="17">
-        <v>13621</v>
-      </c>
-      <c r="Y13" s="17">
-        <v>739213</v>
-      </c>
-      <c r="Z13" s="17">
-        <v>661981</v>
-      </c>
-      <c r="AA13" s="17">
-        <v>2137039</v>
-      </c>
-      <c r="AB13" s="17">
-        <v>1156399</v>
-      </c>
-      <c r="AC13" s="17">
-        <v>10234</v>
-      </c>
-      <c r="AD13" s="17">
-        <v>7439</v>
-      </c>
-      <c r="AE13" s="17">
-        <v>1300516</v>
-      </c>
-      <c r="AF13" s="17">
-        <v>946332</v>
-      </c>
-      <c r="AG13" s="17">
-        <v>7423</v>
-      </c>
-      <c r="AH13" s="17">
-        <v>5771</v>
-      </c>
-      <c r="AI13" s="17">
-        <v>372040</v>
-      </c>
-      <c r="AJ13" s="17">
-        <v>649707</v>
-      </c>
-      <c r="AK13" s="17">
-        <v>4521</v>
-      </c>
-      <c r="AL13" s="17">
-        <v>4523</v>
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>1333482000</v>
+      </c>
+      <c r="C13">
+        <v>1595587000</v>
+      </c>
+      <c r="D13">
+        <v>1005406000</v>
+      </c>
+      <c r="E13">
+        <v>1185252000</v>
+      </c>
+      <c r="F13">
+        <v>462266000</v>
+      </c>
+      <c r="G13">
+        <v>411578000</v>
+      </c>
+      <c r="H13">
+        <v>777618000</v>
+      </c>
+      <c r="I13">
+        <v>1637604000</v>
+      </c>
+      <c r="J13">
+        <v>181106000</v>
+      </c>
+      <c r="K13">
+        <v>181104000</v>
+      </c>
+      <c r="L13">
+        <v>590827000</v>
+      </c>
+      <c r="M13">
+        <v>559284000</v>
+      </c>
+      <c r="N13">
+        <v>9612000</v>
+      </c>
+      <c r="O13">
+        <v>56558000</v>
+      </c>
+      <c r="P13">
+        <v>801782000</v>
+      </c>
+      <c r="Q13">
+        <v>618017000</v>
+      </c>
+      <c r="R13">
+        <v>160252000</v>
+      </c>
+      <c r="S13">
+        <v>1385056000</v>
+      </c>
+      <c r="T13">
+        <v>686169000</v>
+      </c>
+      <c r="U13">
+        <v>38145000</v>
+      </c>
+      <c r="V13">
+        <v>307426000</v>
+      </c>
+      <c r="W13">
+        <v>1197924000</v>
+      </c>
+      <c r="X13">
+        <v>13621000</v>
+      </c>
+      <c r="Y13">
+        <v>739213000</v>
+      </c>
+      <c r="Z13">
+        <v>661981000</v>
+      </c>
+      <c r="AA13">
+        <v>2137039000</v>
+      </c>
+      <c r="AB13">
+        <v>1156399000</v>
+      </c>
+      <c r="AC13">
+        <v>10234000</v>
+      </c>
+      <c r="AD13">
+        <v>7439000</v>
+      </c>
+      <c r="AE13">
+        <v>1300516000</v>
+      </c>
+      <c r="AF13">
+        <v>946332000</v>
+      </c>
+      <c r="AG13">
+        <v>7423000</v>
+      </c>
+      <c r="AH13">
+        <v>5771000</v>
+      </c>
+      <c r="AI13">
+        <v>372040000</v>
+      </c>
+      <c r="AJ13">
+        <v>649707000</v>
+      </c>
+      <c r="AK13">
+        <v>4521000</v>
+      </c>
+      <c r="AL13">
+        <v>4523000</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="25">
-        <v>932824</v>
-      </c>
-      <c r="C14" s="17">
-        <v>911871</v>
-      </c>
-      <c r="D14" s="17">
-        <v>884119</v>
-      </c>
-      <c r="E14" s="17">
-        <v>902168</v>
-      </c>
-      <c r="F14" s="17">
-        <v>874216</v>
-      </c>
-      <c r="G14" s="17">
-        <v>1411534</v>
-      </c>
-      <c r="H14" s="17">
-        <v>1183281</v>
-      </c>
-      <c r="I14" s="17">
-        <v>1126129</v>
-      </c>
-      <c r="J14" s="17">
-        <v>1632789</v>
-      </c>
-      <c r="K14" s="17">
-        <v>979862</v>
-      </c>
-      <c r="L14" s="17">
-        <v>2073308</v>
-      </c>
-      <c r="M14" s="17">
-        <v>2031004</v>
-      </c>
-      <c r="N14" s="17">
-        <v>2657359</v>
-      </c>
-      <c r="O14" s="17">
-        <v>2848070</v>
-      </c>
-      <c r="P14" s="17">
-        <v>1713091</v>
-      </c>
-      <c r="Q14" s="17">
-        <v>1668897</v>
-      </c>
-      <c r="R14" s="17">
-        <v>1545608</v>
-      </c>
-      <c r="S14" s="17">
-        <v>1375627</v>
-      </c>
-      <c r="T14" s="17">
-        <v>1952120</v>
-      </c>
-      <c r="U14" s="17">
-        <v>1838010</v>
-      </c>
-      <c r="V14" s="17">
-        <v>1887843</v>
-      </c>
-      <c r="W14" s="17">
-        <v>1637691</v>
-      </c>
-      <c r="X14" s="17">
-        <v>1359617</v>
-      </c>
-      <c r="Y14" s="17">
-        <v>1180307</v>
-      </c>
-      <c r="Z14" s="17">
-        <v>399787</v>
-      </c>
-      <c r="AA14" s="17">
-        <v>454513</v>
-      </c>
-      <c r="AB14" s="17">
-        <v>335473</v>
-      </c>
-      <c r="AC14" s="17">
-        <v>1072719</v>
-      </c>
-      <c r="AD14" s="17">
-        <v>955547</v>
-      </c>
-      <c r="AE14" s="17">
-        <v>948158</v>
-      </c>
-      <c r="AF14" s="17">
-        <v>308216</v>
-      </c>
-      <c r="AG14" s="17">
-        <v>294370</v>
-      </c>
-      <c r="AH14" s="17">
-        <v>296201</v>
-      </c>
-      <c r="AI14" s="17">
-        <v>283196</v>
-      </c>
-      <c r="AJ14" s="17">
-        <v>1210413</v>
-      </c>
-      <c r="AK14" s="17">
-        <v>1193065</v>
-      </c>
-      <c r="AL14" s="17">
-        <v>1276394</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>932824000</v>
+      </c>
+      <c r="C14">
+        <v>911871000</v>
+      </c>
+      <c r="D14">
+        <v>884119000</v>
+      </c>
+      <c r="E14">
+        <v>902168000</v>
+      </c>
+      <c r="F14">
+        <v>874216000</v>
+      </c>
+      <c r="G14">
+        <v>1411534000</v>
+      </c>
+      <c r="H14">
+        <v>1183281000</v>
+      </c>
+      <c r="I14">
+        <v>1126129000</v>
+      </c>
+      <c r="J14">
+        <v>1632789000</v>
+      </c>
+      <c r="K14">
+        <v>979862000</v>
+      </c>
+      <c r="L14">
+        <v>2073308000</v>
+      </c>
+      <c r="M14">
+        <v>2031004000</v>
+      </c>
+      <c r="N14">
+        <v>2657359000</v>
+      </c>
+      <c r="O14">
+        <v>2848070000</v>
+      </c>
+      <c r="P14">
+        <v>1713091000</v>
+      </c>
+      <c r="Q14">
+        <v>1668897000</v>
+      </c>
+      <c r="R14">
+        <v>1545608000</v>
+      </c>
+      <c r="S14">
+        <v>1375627000</v>
+      </c>
+      <c r="T14">
+        <v>1952120000</v>
+      </c>
+      <c r="U14">
+        <v>1838010000</v>
+      </c>
+      <c r="V14">
+        <v>1887843000</v>
+      </c>
+      <c r="W14">
+        <v>1637691000</v>
+      </c>
+      <c r="X14">
+        <v>1359617000</v>
+      </c>
+      <c r="Y14">
+        <v>1180307000</v>
+      </c>
+      <c r="Z14">
+        <v>399787000</v>
+      </c>
+      <c r="AA14">
+        <v>454513000</v>
+      </c>
+      <c r="AB14">
+        <v>335473000</v>
+      </c>
+      <c r="AC14">
+        <v>1072719000</v>
+      </c>
+      <c r="AD14">
+        <v>955547000</v>
+      </c>
+      <c r="AE14">
+        <v>948158000</v>
+      </c>
+      <c r="AF14">
+        <v>308216000</v>
+      </c>
+      <c r="AG14">
+        <v>294370000</v>
+      </c>
+      <c r="AH14">
+        <v>296201000</v>
+      </c>
+      <c r="AI14">
+        <v>283196000</v>
+      </c>
+      <c r="AJ14">
+        <v>1210413000</v>
+      </c>
+      <c r="AK14">
+        <v>1193065000</v>
+      </c>
+      <c r="AL14">
+        <v>1276394000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="25">
-        <v>1816133</v>
-      </c>
-      <c r="C15" s="17">
-        <v>1698919</v>
-      </c>
-      <c r="D15" s="17">
-        <v>1842113</v>
-      </c>
-      <c r="E15" s="17">
-        <v>1199567</v>
-      </c>
-      <c r="F15" s="17">
-        <v>1162007</v>
-      </c>
-      <c r="G15" s="17">
-        <v>1043498</v>
-      </c>
-      <c r="H15" s="17">
-        <v>995684</v>
-      </c>
-      <c r="I15" s="17">
-        <v>700521</v>
-      </c>
-      <c r="J15" s="17">
-        <v>635417</v>
-      </c>
-      <c r="K15" s="17">
-        <v>565958</v>
-      </c>
-      <c r="L15" s="17">
-        <v>527383</v>
-      </c>
-      <c r="M15" s="17">
-        <v>659460</v>
-      </c>
-      <c r="N15" s="17">
-        <v>625163</v>
-      </c>
-      <c r="O15" s="17">
-        <v>542864</v>
-      </c>
-      <c r="P15" s="17">
-        <v>475449</v>
-      </c>
-      <c r="Q15" s="17">
-        <v>605940</v>
-      </c>
-      <c r="R15" s="17">
-        <v>526466</v>
-      </c>
-      <c r="S15" s="17">
-        <v>449376</v>
-      </c>
-      <c r="T15" s="17">
-        <v>1419483</v>
-      </c>
-      <c r="U15" s="17">
-        <v>1795729</v>
-      </c>
-      <c r="V15" s="17">
-        <v>1774802</v>
-      </c>
-      <c r="W15" s="17">
-        <v>1204469</v>
-      </c>
-      <c r="X15" s="17">
-        <v>232392</v>
-      </c>
-      <c r="Y15" s="17">
-        <v>281349</v>
-      </c>
-      <c r="Z15" s="17">
-        <v>251963</v>
-      </c>
-      <c r="AA15" s="17">
-        <v>210369</v>
-      </c>
-      <c r="AB15" s="17">
-        <v>574953</v>
-      </c>
-      <c r="AC15" s="17">
-        <v>555831</v>
-      </c>
-      <c r="AD15" s="17">
-        <v>2176643</v>
-      </c>
-      <c r="AE15" s="17">
-        <v>2127760</v>
-      </c>
-      <c r="AF15" s="17">
-        <v>17792</v>
-      </c>
-      <c r="AG15" s="17">
-        <v>42180</v>
-      </c>
-      <c r="AH15" s="17">
-        <v>29424</v>
-      </c>
-      <c r="AI15" s="17">
-        <v>16547</v>
-      </c>
-      <c r="AJ15" s="17">
-        <v>16411</v>
-      </c>
-      <c r="AK15" s="17">
-        <v>6396</v>
-      </c>
-      <c r="AL15" s="17">
-        <v>3326</v>
+      <c r="B15">
+        <v>1816133000</v>
+      </c>
+      <c r="C15">
+        <v>1698919000</v>
+      </c>
+      <c r="D15">
+        <v>1842113000</v>
+      </c>
+      <c r="E15">
+        <v>1199567000</v>
+      </c>
+      <c r="F15">
+        <v>1162007000</v>
+      </c>
+      <c r="G15">
+        <v>1043498000</v>
+      </c>
+      <c r="H15">
+        <v>995684000</v>
+      </c>
+      <c r="I15">
+        <v>700521000</v>
+      </c>
+      <c r="J15">
+        <v>635417000</v>
+      </c>
+      <c r="K15">
+        <v>565958000</v>
+      </c>
+      <c r="L15">
+        <v>527383000</v>
+      </c>
+      <c r="M15">
+        <v>659460000</v>
+      </c>
+      <c r="N15">
+        <v>625163000</v>
+      </c>
+      <c r="O15">
+        <v>542864000</v>
+      </c>
+      <c r="P15">
+        <v>475449000</v>
+      </c>
+      <c r="Q15">
+        <v>605940000</v>
+      </c>
+      <c r="R15">
+        <v>526466000</v>
+      </c>
+      <c r="S15">
+        <v>449376000</v>
+      </c>
+      <c r="T15">
+        <v>1419483000</v>
+      </c>
+      <c r="U15">
+        <v>1795729000</v>
+      </c>
+      <c r="V15">
+        <v>1774802000</v>
+      </c>
+      <c r="W15">
+        <v>1204469000</v>
+      </c>
+      <c r="X15">
+        <v>232392000</v>
+      </c>
+      <c r="Y15">
+        <v>281349000</v>
+      </c>
+      <c r="Z15">
+        <v>251963000</v>
+      </c>
+      <c r="AA15">
+        <v>210369000</v>
+      </c>
+      <c r="AB15">
+        <v>574953000</v>
+      </c>
+      <c r="AC15">
+        <v>555831000</v>
+      </c>
+      <c r="AD15">
+        <v>2176643000</v>
+      </c>
+      <c r="AE15">
+        <v>2127760000</v>
+      </c>
+      <c r="AF15">
+        <v>17792000</v>
+      </c>
+      <c r="AG15">
+        <v>42180000</v>
+      </c>
+      <c r="AH15">
+        <v>29424000</v>
+      </c>
+      <c r="AI15">
+        <v>16547000</v>
+      </c>
+      <c r="AJ15">
+        <v>16411000</v>
+      </c>
+      <c r="AK15">
+        <v>6396000</v>
+      </c>
+      <c r="AL15">
+        <v>3326000</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="23">
-        <v>32699082</v>
-      </c>
-      <c r="C16" s="29">
-        <v>30558877</v>
-      </c>
-      <c r="D16" s="29">
-        <v>29300082</v>
-      </c>
-      <c r="E16" s="29">
-        <v>27971842</v>
-      </c>
-      <c r="F16" s="29">
-        <v>27984580</v>
-      </c>
-      <c r="G16" s="29">
-        <v>26294598</v>
-      </c>
-      <c r="H16" s="29">
-        <v>24197757</v>
-      </c>
-      <c r="I16" s="29">
-        <v>24846621</v>
-      </c>
-      <c r="J16" s="29">
-        <v>23620914</v>
-      </c>
-      <c r="K16" s="29">
-        <v>23856361</v>
-      </c>
-      <c r="L16" s="29">
-        <v>24179299</v>
-      </c>
-      <c r="M16" s="29">
-        <v>26147132</v>
-      </c>
-      <c r="N16" s="29">
-        <v>25450361</v>
-      </c>
-      <c r="O16" s="29">
-        <v>24407969</v>
-      </c>
-      <c r="P16" s="29">
-        <v>25056190</v>
-      </c>
-      <c r="Q16" s="29">
-        <v>23949584</v>
-      </c>
-      <c r="R16" s="29">
-        <v>23778255</v>
-      </c>
-      <c r="S16" s="29">
-        <v>22063324</v>
-      </c>
-      <c r="T16" s="29">
-        <v>21368260</v>
-      </c>
-      <c r="U16" s="29">
-        <v>19238281</v>
-      </c>
-      <c r="V16" s="29">
-        <v>18786312</v>
-      </c>
-      <c r="W16" s="29">
-        <v>17157114</v>
-      </c>
-      <c r="X16" s="29">
-        <v>17031154</v>
-      </c>
-      <c r="Y16" s="29">
-        <v>16613860</v>
-      </c>
-      <c r="Z16" s="29">
-        <v>13561620</v>
-      </c>
-      <c r="AA16" s="29">
-        <v>13244707</v>
-      </c>
-      <c r="AB16" s="29">
-        <v>12893856</v>
-      </c>
-      <c r="AC16" s="29">
-        <v>10068606</v>
-      </c>
-      <c r="AD16" s="29">
-        <v>7285608</v>
-      </c>
-      <c r="AE16" s="29">
-        <v>7057317</v>
-      </c>
-      <c r="AF16" s="29">
-        <v>6169876</v>
-      </c>
-      <c r="AG16" s="29">
-        <v>6073386</v>
-      </c>
-      <c r="AH16" s="29">
-        <v>6241394</v>
-      </c>
-      <c r="AI16" s="29">
-        <v>6004503</v>
-      </c>
-      <c r="AJ16" s="29">
-        <v>6177157</v>
-      </c>
-      <c r="AK16" s="29">
-        <v>5575676</v>
-      </c>
-      <c r="AL16" s="29">
-        <v>5598505</v>
+      <c r="B16">
+        <v>32699082000</v>
+      </c>
+      <c r="C16">
+        <v>30558877000</v>
+      </c>
+      <c r="D16">
+        <v>29300082000</v>
+      </c>
+      <c r="E16">
+        <v>27971842000</v>
+      </c>
+      <c r="F16">
+        <v>27984580000</v>
+      </c>
+      <c r="G16">
+        <v>26294598000</v>
+      </c>
+      <c r="H16">
+        <v>24197757000</v>
+      </c>
+      <c r="I16">
+        <v>24846621000</v>
+      </c>
+      <c r="J16">
+        <v>23620914000</v>
+      </c>
+      <c r="K16">
+        <v>23856361000</v>
+      </c>
+      <c r="L16">
+        <v>24179299000</v>
+      </c>
+      <c r="M16">
+        <v>26147132000</v>
+      </c>
+      <c r="N16">
+        <v>25450361000</v>
+      </c>
+      <c r="O16">
+        <v>24407969000</v>
+      </c>
+      <c r="P16">
+        <v>25056190000</v>
+      </c>
+      <c r="Q16">
+        <v>23949584000</v>
+      </c>
+      <c r="R16">
+        <v>23778255000</v>
+      </c>
+      <c r="S16">
+        <v>22063324000</v>
+      </c>
+      <c r="T16">
+        <v>21368260000</v>
+      </c>
+      <c r="U16">
+        <v>19238281000</v>
+      </c>
+      <c r="V16">
+        <v>18786312000</v>
+      </c>
+      <c r="W16">
+        <v>17157114000</v>
+      </c>
+      <c r="X16">
+        <v>17031154000</v>
+      </c>
+      <c r="Y16">
+        <v>16613860000</v>
+      </c>
+      <c r="Z16">
+        <v>13561620000</v>
+      </c>
+      <c r="AA16">
+        <v>13244707000</v>
+      </c>
+      <c r="AB16">
+        <v>12893856000</v>
+      </c>
+      <c r="AC16">
+        <v>10068606000</v>
+      </c>
+      <c r="AD16">
+        <v>7285608000</v>
+      </c>
+      <c r="AE16">
+        <v>7057317000</v>
+      </c>
+      <c r="AF16">
+        <v>6169876000</v>
+      </c>
+      <c r="AG16">
+        <v>6073386000</v>
+      </c>
+      <c r="AH16">
+        <v>6241394000</v>
+      </c>
+      <c r="AI16">
+        <v>6004503000</v>
+      </c>
+      <c r="AJ16">
+        <v>6177157000</v>
+      </c>
+      <c r="AK16">
+        <v>5575676000</v>
+      </c>
+      <c r="AL16">
+        <v>5598505000</v>
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="25">
-        <v>12902909</v>
-      </c>
-      <c r="C17" s="17">
-        <v>12931409</v>
-      </c>
-      <c r="D17" s="17">
-        <v>13067618</v>
-      </c>
-      <c r="E17" s="17">
-        <v>12305108</v>
-      </c>
-      <c r="F17" s="17">
-        <v>12240999</v>
-      </c>
-      <c r="G17" s="17">
-        <v>11008698</v>
-      </c>
-      <c r="H17" s="17">
-        <v>11285731</v>
-      </c>
-      <c r="I17" s="17">
-        <v>11316023</v>
-      </c>
-      <c r="J17" s="17">
-        <v>10308071</v>
-      </c>
-      <c r="K17" s="17">
-        <v>10930652</v>
-      </c>
-      <c r="L17" s="17">
-        <v>11003322</v>
-      </c>
-      <c r="M17" s="17">
-        <v>11724964</v>
-      </c>
-      <c r="N17" s="17">
-        <v>11153448</v>
-      </c>
-      <c r="O17" s="17">
-        <v>10749031</v>
-      </c>
-      <c r="P17" s="17">
-        <v>11438108</v>
-      </c>
-      <c r="Q17" s="17">
-        <v>10568961</v>
-      </c>
-      <c r="R17" s="17">
-        <v>11029090</v>
-      </c>
-      <c r="S17" s="17">
-        <v>9825881</v>
-      </c>
-      <c r="T17" s="17">
-        <v>10041673</v>
-      </c>
-      <c r="U17" s="17">
-        <v>8654129</v>
-      </c>
-      <c r="V17" s="17">
-        <v>8456941</v>
-      </c>
-      <c r="W17" s="17">
-        <v>7181363</v>
-      </c>
-      <c r="X17" s="17">
-        <v>6589275</v>
-      </c>
-      <c r="Y17" s="17">
-        <v>6435145</v>
-      </c>
-      <c r="Z17" s="17">
-        <v>5889059</v>
-      </c>
-      <c r="AA17" s="17">
-        <v>5854915</v>
-      </c>
-      <c r="AB17" s="17">
-        <v>5442639</v>
-      </c>
-      <c r="AC17" s="17">
-        <v>3609322</v>
-      </c>
-      <c r="AD17" s="17">
-        <v>2797092</v>
-      </c>
-      <c r="AE17" s="17">
-        <v>2867783</v>
-      </c>
-      <c r="AF17" s="17">
-        <v>2108925</v>
-      </c>
-      <c r="AG17" s="17">
-        <v>2079945</v>
-      </c>
-      <c r="AH17" s="17">
-        <v>2141537</v>
-      </c>
-      <c r="AI17" s="17">
-        <v>2001081</v>
-      </c>
-      <c r="AJ17" s="17">
-        <v>2199315</v>
-      </c>
-      <c r="AK17" s="17">
-        <v>2251215</v>
-      </c>
-      <c r="AL17" s="17">
-        <v>2295712</v>
-      </c>
-    </row>
-    <row r="18" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>12902909000</v>
+      </c>
+      <c r="C17">
+        <v>12931409000</v>
+      </c>
+      <c r="D17">
+        <v>13067618000</v>
+      </c>
+      <c r="E17">
+        <v>12305108000</v>
+      </c>
+      <c r="F17">
+        <v>12240999000</v>
+      </c>
+      <c r="G17">
+        <v>11008698000</v>
+      </c>
+      <c r="H17">
+        <v>11285731000</v>
+      </c>
+      <c r="I17">
+        <v>11316023000</v>
+      </c>
+      <c r="J17">
+        <v>10308071000</v>
+      </c>
+      <c r="K17">
+        <v>10930652000</v>
+      </c>
+      <c r="L17">
+        <v>11003322000</v>
+      </c>
+      <c r="M17">
+        <v>11724964000</v>
+      </c>
+      <c r="N17">
+        <v>11153448000</v>
+      </c>
+      <c r="O17">
+        <v>10749031000</v>
+      </c>
+      <c r="P17">
+        <v>11438108000</v>
+      </c>
+      <c r="Q17">
+        <v>10568961000</v>
+      </c>
+      <c r="R17">
+        <v>11029090000</v>
+      </c>
+      <c r="S17">
+        <v>9825881000</v>
+      </c>
+      <c r="T17">
+        <v>10041673000</v>
+      </c>
+      <c r="U17">
+        <v>8654129000</v>
+      </c>
+      <c r="V17">
+        <v>8456941000</v>
+      </c>
+      <c r="W17">
+        <v>7181363000</v>
+      </c>
+      <c r="X17">
+        <v>6589275000</v>
+      </c>
+      <c r="Y17">
+        <v>6435145000</v>
+      </c>
+      <c r="Z17">
+        <v>5889059000</v>
+      </c>
+      <c r="AA17">
+        <v>5854915000</v>
+      </c>
+      <c r="AB17">
+        <v>5442639000</v>
+      </c>
+      <c r="AC17">
+        <v>3609322000</v>
+      </c>
+      <c r="AD17">
+        <v>2797092000</v>
+      </c>
+      <c r="AE17">
+        <v>2867783000</v>
+      </c>
+      <c r="AF17">
+        <v>2108925000</v>
+      </c>
+      <c r="AG17">
+        <v>2079945000</v>
+      </c>
+      <c r="AH17">
+        <v>2141537000</v>
+      </c>
+      <c r="AI17">
+        <v>2001081000</v>
+      </c>
+      <c r="AJ17">
+        <v>2199315000</v>
+      </c>
+      <c r="AK17">
+        <v>2251215000</v>
+      </c>
+      <c r="AL17">
+        <v>2295712000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="25">
-        <v>10188699</v>
-      </c>
-      <c r="C18" s="17">
-        <v>8105450</v>
-      </c>
-      <c r="D18" s="17">
-        <v>7152024</v>
-      </c>
-      <c r="E18" s="17">
-        <v>6855965</v>
-      </c>
-      <c r="F18" s="17">
-        <v>6950725</v>
-      </c>
-      <c r="G18" s="17">
-        <v>6642526</v>
-      </c>
-      <c r="H18" s="17">
-        <v>4390957</v>
-      </c>
-      <c r="I18" s="17">
-        <v>4902512</v>
-      </c>
-      <c r="J18" s="17">
-        <v>4992725</v>
-      </c>
-      <c r="K18" s="17">
-        <v>4880587</v>
-      </c>
-      <c r="L18" s="17">
-        <v>5063481</v>
-      </c>
-      <c r="M18" s="17">
-        <v>6209315</v>
-      </c>
-      <c r="N18" s="17">
-        <v>6156720</v>
-      </c>
-      <c r="O18" s="17">
-        <v>5994752</v>
-      </c>
-      <c r="P18" s="17">
-        <v>5623628</v>
-      </c>
-      <c r="Q18" s="17">
-        <v>5505195</v>
-      </c>
-      <c r="R18" s="17">
-        <v>5245273</v>
-      </c>
-      <c r="S18" s="17">
-        <v>5113171</v>
-      </c>
-      <c r="T18" s="17">
-        <v>4600450</v>
-      </c>
-      <c r="U18" s="17">
-        <v>4701196</v>
-      </c>
-      <c r="V18" s="17">
-        <v>4806665</v>
-      </c>
-      <c r="W18" s="17">
-        <v>4739535</v>
-      </c>
-      <c r="X18" s="17">
-        <v>5740808</v>
-      </c>
-      <c r="Y18" s="17">
-        <v>5672006</v>
-      </c>
-      <c r="Z18" s="17">
-        <v>3232715</v>
-      </c>
-      <c r="AA18" s="17">
-        <v>3200437</v>
-      </c>
-      <c r="AB18" s="17">
-        <v>3260607</v>
-      </c>
-      <c r="AC18" s="17">
-        <v>2508409</v>
-      </c>
-      <c r="AD18" s="17">
-        <v>822069</v>
-      </c>
-      <c r="AE18" s="17">
-        <v>812715</v>
-      </c>
-      <c r="AF18" s="17">
-        <v>804574</v>
-      </c>
-      <c r="AG18" s="17">
-        <v>803177</v>
-      </c>
-      <c r="AH18" s="17">
-        <v>797261</v>
-      </c>
-      <c r="AI18" s="17">
-        <v>787908</v>
-      </c>
-      <c r="AJ18" s="17">
-        <v>784382</v>
-      </c>
-      <c r="AK18" s="17">
-        <v>190065</v>
-      </c>
-      <c r="AL18" s="17">
-        <v>186657</v>
+      <c r="B18">
+        <v>10188699000</v>
+      </c>
+      <c r="C18">
+        <v>8105450000</v>
+      </c>
+      <c r="D18">
+        <v>7152024000</v>
+      </c>
+      <c r="E18">
+        <v>6855965000</v>
+      </c>
+      <c r="F18">
+        <v>6950725000</v>
+      </c>
+      <c r="G18">
+        <v>6642526000</v>
+      </c>
+      <c r="H18">
+        <v>4390957000</v>
+      </c>
+      <c r="I18">
+        <v>4902512000</v>
+      </c>
+      <c r="J18">
+        <v>4992725000</v>
+      </c>
+      <c r="K18">
+        <v>4880587000</v>
+      </c>
+      <c r="L18">
+        <v>5063481000</v>
+      </c>
+      <c r="M18">
+        <v>6209315000</v>
+      </c>
+      <c r="N18">
+        <v>6156720000</v>
+      </c>
+      <c r="O18">
+        <v>5994752000</v>
+      </c>
+      <c r="P18">
+        <v>5623628000</v>
+      </c>
+      <c r="Q18">
+        <v>5505195000</v>
+      </c>
+      <c r="R18">
+        <v>5245273000</v>
+      </c>
+      <c r="S18">
+        <v>5113171000</v>
+      </c>
+      <c r="T18">
+        <v>4600450000</v>
+      </c>
+      <c r="U18">
+        <v>4701196000</v>
+      </c>
+      <c r="V18">
+        <v>4806665000</v>
+      </c>
+      <c r="W18">
+        <v>4739535000</v>
+      </c>
+      <c r="X18">
+        <v>5740808000</v>
+      </c>
+      <c r="Y18">
+        <v>5672006000</v>
+      </c>
+      <c r="Z18">
+        <v>3232715000</v>
+      </c>
+      <c r="AA18">
+        <v>3200437000</v>
+      </c>
+      <c r="AB18">
+        <v>3260607000</v>
+      </c>
+      <c r="AC18">
+        <v>2508409000</v>
+      </c>
+      <c r="AD18">
+        <v>822069000</v>
+      </c>
+      <c r="AE18">
+        <v>812715000</v>
+      </c>
+      <c r="AF18">
+        <v>804574000</v>
+      </c>
+      <c r="AG18">
+        <v>803177000</v>
+      </c>
+      <c r="AH18">
+        <v>797261000</v>
+      </c>
+      <c r="AI18">
+        <v>787908000</v>
+      </c>
+      <c r="AJ18">
+        <v>784382000</v>
+      </c>
+      <c r="AK18">
+        <v>190065000</v>
+      </c>
+      <c r="AL18">
+        <v>186657000</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="23">
-        <v>13152652</v>
-      </c>
-      <c r="C19" s="29">
-        <v>12280398</v>
-      </c>
-      <c r="D19" s="29">
-        <v>11803700</v>
-      </c>
-      <c r="E19" s="29">
-        <v>12064998</v>
-      </c>
-      <c r="F19" s="29">
-        <v>11784096</v>
-      </c>
-      <c r="G19" s="29">
-        <v>9816210</v>
-      </c>
-      <c r="H19" s="29">
-        <v>9392273</v>
-      </c>
-      <c r="I19" s="29">
-        <v>9297841</v>
-      </c>
-      <c r="J19" s="29">
-        <v>9248206</v>
-      </c>
-      <c r="K19" s="29">
-        <v>8440172</v>
-      </c>
-      <c r="L19" s="29">
-        <v>8048486</v>
-      </c>
-      <c r="M19" s="29">
-        <v>7926543</v>
-      </c>
-      <c r="N19" s="29">
-        <v>8363221</v>
-      </c>
-      <c r="O19" s="29">
-        <v>7932597</v>
-      </c>
-      <c r="P19" s="29">
-        <v>7886266</v>
-      </c>
-      <c r="Q19" s="29">
-        <v>8169699</v>
-      </c>
-      <c r="R19" s="29">
-        <v>8091737</v>
-      </c>
-      <c r="S19" s="29">
-        <v>7741998</v>
-      </c>
-      <c r="T19" s="29">
-        <v>7148739</v>
-      </c>
-      <c r="U19" s="29">
-        <v>7434743</v>
-      </c>
-      <c r="V19" s="29">
-        <v>6747542</v>
-      </c>
-      <c r="W19" s="29">
-        <v>6998820</v>
-      </c>
-      <c r="X19" s="29">
-        <v>7571250</v>
-      </c>
-      <c r="Y19" s="29">
-        <v>7194672</v>
-      </c>
-      <c r="Z19" s="29">
-        <v>6888325</v>
-      </c>
-      <c r="AA19" s="29">
-        <v>6320577</v>
-      </c>
-      <c r="AB19" s="29">
-        <v>6619022</v>
-      </c>
-      <c r="AC19" s="29">
-        <v>7287242</v>
-      </c>
-      <c r="AD19" s="29">
-        <v>7323186</v>
-      </c>
-      <c r="AE19" s="29">
-        <v>6834725</v>
-      </c>
-      <c r="AF19" s="29">
-        <v>6556922</v>
-      </c>
-      <c r="AG19" s="29">
-        <v>7151474</v>
-      </c>
-      <c r="AH19" s="29">
-        <v>7058929</v>
-      </c>
-      <c r="AI19" s="29">
-        <v>6614394</v>
-      </c>
-      <c r="AJ19" s="29">
-        <v>6587191</v>
-      </c>
-      <c r="AK19" s="29">
-        <v>6849473</v>
-      </c>
-      <c r="AL19" s="29">
-        <v>6866558</v>
+      <c r="B19">
+        <v>13152652000</v>
+      </c>
+      <c r="C19">
+        <v>12280398000</v>
+      </c>
+      <c r="D19">
+        <v>11803700000</v>
+      </c>
+      <c r="E19">
+        <v>12064998000</v>
+      </c>
+      <c r="F19">
+        <v>11784096000</v>
+      </c>
+      <c r="G19">
+        <v>9816210000</v>
+      </c>
+      <c r="H19">
+        <v>9392273000</v>
+      </c>
+      <c r="I19">
+        <v>9297841000</v>
+      </c>
+      <c r="J19">
+        <v>9248206000</v>
+      </c>
+      <c r="K19">
+        <v>8440172000</v>
+      </c>
+      <c r="L19">
+        <v>8048486000</v>
+      </c>
+      <c r="M19">
+        <v>7926543000</v>
+      </c>
+      <c r="N19">
+        <v>8363221000</v>
+      </c>
+      <c r="O19">
+        <v>7932597000</v>
+      </c>
+      <c r="P19">
+        <v>7886266000</v>
+      </c>
+      <c r="Q19">
+        <v>8169699000</v>
+      </c>
+      <c r="R19">
+        <v>8091737000</v>
+      </c>
+      <c r="S19">
+        <v>7741998000</v>
+      </c>
+      <c r="T19">
+        <v>7148739000</v>
+      </c>
+      <c r="U19">
+        <v>7434743000</v>
+      </c>
+      <c r="V19">
+        <v>6747542000</v>
+      </c>
+      <c r="W19">
+        <v>6998820000</v>
+      </c>
+      <c r="X19">
+        <v>7571250000</v>
+      </c>
+      <c r="Y19">
+        <v>7194672000</v>
+      </c>
+      <c r="Z19">
+        <v>6888325000</v>
+      </c>
+      <c r="AA19">
+        <v>6320577000</v>
+      </c>
+      <c r="AB19">
+        <v>6619022000</v>
+      </c>
+      <c r="AC19">
+        <v>7287242000</v>
+      </c>
+      <c r="AD19">
+        <v>7323186000</v>
+      </c>
+      <c r="AE19">
+        <v>6834725000</v>
+      </c>
+      <c r="AF19">
+        <v>6556922000</v>
+      </c>
+      <c r="AG19">
+        <v>7151474000</v>
+      </c>
+      <c r="AH19">
+        <v>7058929000</v>
+      </c>
+      <c r="AI19">
+        <v>6614394000</v>
+      </c>
+      <c r="AJ19">
+        <v>6587191000</v>
+      </c>
+      <c r="AK19">
+        <v>6849473000</v>
+      </c>
+      <c r="AL19">
+        <v>6866558000</v>
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="25">
-        <v>4902648</v>
-      </c>
-      <c r="C20" s="17">
-        <v>4902648</v>
-      </c>
-      <c r="D20" s="17">
-        <v>4902648</v>
-      </c>
-      <c r="E20" s="17">
-        <v>4902648</v>
-      </c>
-      <c r="F20" s="17">
-        <v>4902648</v>
-      </c>
-      <c r="G20" s="17">
-        <v>4902648</v>
-      </c>
-      <c r="H20" s="17">
-        <v>4902648</v>
-      </c>
-      <c r="I20" s="17">
-        <v>4902648</v>
-      </c>
-      <c r="J20" s="17">
-        <v>4902648</v>
-      </c>
-      <c r="K20" s="17">
-        <v>4902648</v>
-      </c>
-      <c r="L20" s="17">
-        <v>4902648</v>
-      </c>
-      <c r="M20" s="17">
-        <v>4902648</v>
-      </c>
-      <c r="N20" s="17">
-        <v>4902648</v>
-      </c>
-      <c r="O20" s="17">
-        <v>4902648</v>
-      </c>
-      <c r="P20" s="17">
-        <v>4902648</v>
-      </c>
-      <c r="Q20" s="17">
-        <v>4902648</v>
-      </c>
-      <c r="R20" s="17">
-        <v>4902648</v>
-      </c>
-      <c r="S20" s="17">
-        <v>4902648</v>
-      </c>
-      <c r="T20" s="17">
-        <v>4902648</v>
-      </c>
-      <c r="U20" s="17">
-        <v>4902648</v>
-      </c>
-      <c r="V20" s="17">
-        <v>4902648</v>
-      </c>
-      <c r="W20" s="17">
-        <v>4902648</v>
-      </c>
-      <c r="X20" s="17">
-        <v>4902648</v>
-      </c>
-      <c r="Y20" s="17">
-        <v>4902648</v>
-      </c>
-      <c r="Z20" s="17">
-        <v>4902648</v>
-      </c>
-      <c r="AA20" s="17">
-        <v>4902648</v>
-      </c>
-      <c r="AB20" s="17">
-        <v>2829056</v>
-      </c>
-      <c r="AC20" s="17">
-        <v>2829056</v>
-      </c>
-      <c r="AD20" s="17">
-        <v>2829056</v>
-      </c>
-      <c r="AE20" s="17">
-        <v>2829056</v>
-      </c>
-      <c r="AF20" s="17">
-        <v>2829056</v>
-      </c>
-      <c r="AG20" s="17">
-        <v>2829056</v>
-      </c>
-      <c r="AH20" s="17">
-        <v>2829056</v>
-      </c>
-      <c r="AI20" s="17">
-        <v>2829056</v>
-      </c>
-      <c r="AJ20" s="17">
-        <v>2737361</v>
-      </c>
-      <c r="AK20" s="17">
-        <v>2737361</v>
-      </c>
-      <c r="AL20" s="17">
-        <v>2736253</v>
-      </c>
-    </row>
-    <row r="21" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>4902648000</v>
+      </c>
+      <c r="C20">
+        <v>4902648000</v>
+      </c>
+      <c r="D20">
+        <v>4902648000</v>
+      </c>
+      <c r="E20">
+        <v>4902648000</v>
+      </c>
+      <c r="F20">
+        <v>4902648000</v>
+      </c>
+      <c r="G20">
+        <v>4902648000</v>
+      </c>
+      <c r="H20">
+        <v>4902648000</v>
+      </c>
+      <c r="I20">
+        <v>4902648000</v>
+      </c>
+      <c r="J20">
+        <v>4902648000</v>
+      </c>
+      <c r="K20">
+        <v>4902648000</v>
+      </c>
+      <c r="L20">
+        <v>4902648000</v>
+      </c>
+      <c r="M20">
+        <v>4902648000</v>
+      </c>
+      <c r="N20">
+        <v>4902648000</v>
+      </c>
+      <c r="O20">
+        <v>4902648000</v>
+      </c>
+      <c r="P20">
+        <v>4902648000</v>
+      </c>
+      <c r="Q20">
+        <v>4902648000</v>
+      </c>
+      <c r="R20">
+        <v>4902648000</v>
+      </c>
+      <c r="S20">
+        <v>4902648000</v>
+      </c>
+      <c r="T20">
+        <v>4902648000</v>
+      </c>
+      <c r="U20">
+        <v>4902648000</v>
+      </c>
+      <c r="V20">
+        <v>4902648000</v>
+      </c>
+      <c r="W20">
+        <v>4902648000</v>
+      </c>
+      <c r="X20">
+        <v>4902648000</v>
+      </c>
+      <c r="Y20">
+        <v>4902648000</v>
+      </c>
+      <c r="Z20">
+        <v>4902648000</v>
+      </c>
+      <c r="AA20">
+        <v>4902648000</v>
+      </c>
+      <c r="AB20">
+        <v>2829056000</v>
+      </c>
+      <c r="AC20">
+        <v>2829056000</v>
+      </c>
+      <c r="AD20">
+        <v>2829056000</v>
+      </c>
+      <c r="AE20">
+        <v>2829056000</v>
+      </c>
+      <c r="AF20">
+        <v>2829056000</v>
+      </c>
+      <c r="AG20">
+        <v>2829056000</v>
+      </c>
+      <c r="AH20">
+        <v>2829056000</v>
+      </c>
+      <c r="AI20">
+        <v>2829056000</v>
+      </c>
+      <c r="AJ20">
+        <v>2737361000</v>
+      </c>
+      <c r="AK20">
+        <v>2737361000</v>
+      </c>
+      <c r="AL20">
+        <v>2736253000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="25">
-        <v>176543</v>
-      </c>
-      <c r="C21" s="17">
-        <v>176543</v>
-      </c>
-      <c r="D21" s="17">
-        <v>176543</v>
-      </c>
-      <c r="E21" s="17">
-        <v>176543</v>
-      </c>
-      <c r="F21" s="17">
-        <v>176543</v>
-      </c>
-      <c r="G21" s="17">
-        <v>176543</v>
-      </c>
-      <c r="H21" s="17">
-        <v>176543</v>
-      </c>
-      <c r="I21" s="17">
-        <v>176543</v>
-      </c>
-      <c r="J21" s="17">
-        <v>156743</v>
-      </c>
-      <c r="K21" s="17">
-        <v>156743</v>
-      </c>
-      <c r="L21" s="17">
-        <v>192449</v>
-      </c>
-      <c r="M21" s="17">
-        <v>192449</v>
-      </c>
-      <c r="N21" s="17">
-        <v>192449</v>
-      </c>
-      <c r="O21" s="17">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>176543000</v>
+      </c>
+      <c r="C21">
+        <v>176543000</v>
+      </c>
+      <c r="D21">
+        <v>176543000</v>
+      </c>
+      <c r="E21">
+        <v>176543000</v>
+      </c>
+      <c r="F21">
+        <v>176543000</v>
+      </c>
+      <c r="G21">
+        <v>176543000</v>
+      </c>
+      <c r="H21">
+        <v>176543000</v>
+      </c>
+      <c r="I21">
+        <v>176543000</v>
+      </c>
+      <c r="J21">
+        <v>156743000</v>
+      </c>
+      <c r="K21">
+        <v>156743000</v>
+      </c>
+      <c r="L21">
+        <v>192449000</v>
+      </c>
+      <c r="M21">
+        <v>192449000</v>
+      </c>
+      <c r="N21">
+        <v>192449000</v>
+      </c>
+      <c r="O21">
         <v>0</v>
       </c>
-      <c r="P21" s="17">
+      <c r="P21">
         <v>0</v>
       </c>
-      <c r="Q21" s="17">
+      <c r="Q21">
         <v>0</v>
       </c>
-      <c r="R21" s="17">
+      <c r="R21">
         <v>0</v>
       </c>
-      <c r="S21" s="17">
+      <c r="S21">
         <v>0</v>
       </c>
-      <c r="T21" s="17">
+      <c r="T21">
         <v>0</v>
       </c>
-      <c r="U21" s="17">
+      <c r="U21">
         <v>0</v>
       </c>
-      <c r="V21" s="17">
+      <c r="V21">
         <v>0</v>
       </c>
-      <c r="W21" s="17">
+      <c r="W21">
         <v>0</v>
       </c>
-      <c r="X21" s="17">
+      <c r="X21">
         <v>0</v>
       </c>
-      <c r="Y21" s="17">
+      <c r="Y21">
         <v>0</v>
       </c>
-      <c r="Z21" s="17">
+      <c r="Z21">
         <v>0</v>
       </c>
-      <c r="AA21" s="17">
+      <c r="AA21">
         <v>0</v>
       </c>
-      <c r="AB21" s="17">
+      <c r="AB21">
         <v>0</v>
       </c>
-      <c r="AC21" s="17">
+      <c r="AC21">
         <v>0</v>
       </c>
-      <c r="AD21" s="17">
+      <c r="AD21">
         <v>0</v>
       </c>
-      <c r="AE21" s="17">
+      <c r="AE21">
         <v>0</v>
       </c>
-      <c r="AF21" s="17">
+      <c r="AF21">
         <v>0</v>
       </c>
-      <c r="AG21" s="17">
+      <c r="AG21">
         <v>0</v>
       </c>
-      <c r="AH21" s="17">
+      <c r="AH21">
         <v>0</v>
       </c>
-      <c r="AI21" s="17">
+      <c r="AI21">
         <v>0</v>
       </c>
-      <c r="AJ21" s="17">
-        <v>91695</v>
-      </c>
-      <c r="AK21" s="17">
-        <v>91695</v>
-      </c>
-      <c r="AL21" s="17">
-        <v>91695</v>
+      <c r="AJ21">
+        <v>91695000</v>
+      </c>
+      <c r="AK21">
+        <v>91695000</v>
+      </c>
+      <c r="AL21">
+        <v>91695000</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="25">
-        <v>6386073</v>
-      </c>
-      <c r="C22" s="17">
-        <v>6386073</v>
-      </c>
-      <c r="D22" s="17">
-        <v>3953569</v>
-      </c>
-      <c r="E22" s="17">
-        <v>3954593</v>
-      </c>
-      <c r="F22" s="17">
-        <v>3953008</v>
-      </c>
-      <c r="G22" s="17">
-        <v>3950408</v>
-      </c>
-      <c r="H22" s="17">
-        <v>2381683</v>
-      </c>
-      <c r="I22" s="17">
-        <v>2381683</v>
-      </c>
-      <c r="J22" s="17">
-        <v>2390349</v>
-      </c>
-      <c r="K22" s="17">
-        <v>2381683</v>
-      </c>
-      <c r="L22" s="17">
-        <v>2398204</v>
-      </c>
-      <c r="M22" s="17">
-        <v>2389583</v>
-      </c>
-      <c r="N22" s="17">
-        <v>2670980</v>
-      </c>
-      <c r="O22" s="17">
-        <v>3561197</v>
-      </c>
-      <c r="P22" s="17">
-        <v>2942691</v>
-      </c>
-      <c r="Q22" s="17">
-        <v>2942691</v>
-      </c>
-      <c r="R22" s="17">
-        <v>3546496</v>
-      </c>
-      <c r="S22" s="17">
-        <v>3546496</v>
-      </c>
-      <c r="T22" s="17">
-        <v>2139271</v>
-      </c>
-      <c r="U22" s="17">
-        <v>2123245</v>
-      </c>
-      <c r="V22" s="17">
-        <v>2123245</v>
-      </c>
-      <c r="W22" s="17">
-        <v>2123245</v>
-      </c>
-      <c r="X22" s="17">
-        <v>1055576</v>
-      </c>
-      <c r="Y22" s="17">
-        <v>1049580</v>
-      </c>
-      <c r="Z22" s="17">
-        <v>1117540</v>
-      </c>
-      <c r="AA22" s="17">
-        <v>1106277</v>
-      </c>
-      <c r="AB22" s="17">
-        <v>2981490</v>
-      </c>
-      <c r="AC22" s="17">
-        <v>2980833</v>
-      </c>
-      <c r="AD22" s="17">
-        <v>3610616</v>
-      </c>
-      <c r="AE22" s="17">
-        <v>3600738</v>
-      </c>
-      <c r="AF22" s="17">
-        <v>2953637</v>
-      </c>
-      <c r="AG22" s="17">
-        <v>2945923</v>
-      </c>
-      <c r="AH22" s="17">
-        <v>3342079</v>
-      </c>
-      <c r="AI22" s="17">
-        <v>3336013</v>
-      </c>
-      <c r="AJ22" s="17">
-        <v>2850960</v>
-      </c>
-      <c r="AK22" s="17">
-        <v>2845637</v>
-      </c>
-      <c r="AL22" s="17">
-        <v>3047734</v>
+      <c r="B22">
+        <v>6386073000</v>
+      </c>
+      <c r="C22">
+        <v>6386073000</v>
+      </c>
+      <c r="D22">
+        <v>3953569000</v>
+      </c>
+      <c r="E22">
+        <v>3954593000</v>
+      </c>
+      <c r="F22">
+        <v>3953008000</v>
+      </c>
+      <c r="G22">
+        <v>3950408000</v>
+      </c>
+      <c r="H22">
+        <v>2381683000</v>
+      </c>
+      <c r="I22">
+        <v>2381683000</v>
+      </c>
+      <c r="J22">
+        <v>2390349000</v>
+      </c>
+      <c r="K22">
+        <v>2381683000</v>
+      </c>
+      <c r="L22">
+        <v>2398204000</v>
+      </c>
+      <c r="M22">
+        <v>2389583000</v>
+      </c>
+      <c r="N22">
+        <v>2670980000</v>
+      </c>
+      <c r="O22">
+        <v>3561197000</v>
+      </c>
+      <c r="P22">
+        <v>2942691000</v>
+      </c>
+      <c r="Q22">
+        <v>2942691000</v>
+      </c>
+      <c r="R22">
+        <v>3546496000</v>
+      </c>
+      <c r="S22">
+        <v>3546496000</v>
+      </c>
+      <c r="T22">
+        <v>2139271000</v>
+      </c>
+      <c r="U22">
+        <v>2123245000</v>
+      </c>
+      <c r="V22">
+        <v>2123245000</v>
+      </c>
+      <c r="W22">
+        <v>2123245000</v>
+      </c>
+      <c r="X22">
+        <v>1055576000</v>
+      </c>
+      <c r="Y22">
+        <v>1049580000</v>
+      </c>
+      <c r="Z22">
+        <v>1117540000</v>
+      </c>
+      <c r="AA22">
+        <v>1106277000</v>
+      </c>
+      <c r="AB22">
+        <v>2981490000</v>
+      </c>
+      <c r="AC22">
+        <v>2980833000</v>
+      </c>
+      <c r="AD22">
+        <v>3610616000</v>
+      </c>
+      <c r="AE22">
+        <v>3600738000</v>
+      </c>
+      <c r="AF22">
+        <v>2953637000</v>
+      </c>
+      <c r="AG22">
+        <v>2945923000</v>
+      </c>
+      <c r="AH22">
+        <v>3342079000</v>
+      </c>
+      <c r="AI22">
+        <v>3336013000</v>
+      </c>
+      <c r="AJ22">
+        <v>2850960000</v>
+      </c>
+      <c r="AK22">
+        <v>2845637000</v>
+      </c>
+      <c r="AL22">
+        <v>3047734000</v>
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="31">
-        <v>52761221</v>
-      </c>
-      <c r="C23" s="32">
-        <v>50112301</v>
-      </c>
-      <c r="D23" s="32">
-        <v>48260956</v>
-      </c>
-      <c r="E23" s="32">
-        <v>46436727</v>
-      </c>
-      <c r="F23" s="32">
-        <v>45457951</v>
-      </c>
-      <c r="G23" s="32">
-        <v>42224473</v>
-      </c>
-      <c r="H23" s="32">
-        <v>39397401</v>
-      </c>
-      <c r="I23" s="32">
-        <v>40262962</v>
-      </c>
-      <c r="J23" s="32">
-        <v>39604459</v>
-      </c>
-      <c r="K23" s="32">
-        <v>38186752</v>
-      </c>
-      <c r="L23" s="32">
-        <v>39685534</v>
-      </c>
-      <c r="M23" s="32">
-        <v>39662950</v>
-      </c>
-      <c r="N23" s="32">
-        <v>39605144</v>
-      </c>
-      <c r="O23" s="32">
-        <v>38115725</v>
-      </c>
-      <c r="P23" s="32">
-        <v>38840662</v>
-      </c>
-      <c r="Q23" s="32">
-        <v>37828489</v>
-      </c>
-      <c r="R23" s="32">
-        <v>35937734</v>
-      </c>
-      <c r="S23" s="32">
-        <v>35186248</v>
-      </c>
-      <c r="T23" s="32">
-        <v>34397622</v>
-      </c>
-      <c r="U23" s="32">
-        <v>32193656</v>
-      </c>
-      <c r="V23" s="32">
-        <v>31399198</v>
-      </c>
-      <c r="W23" s="32">
-        <v>30135578</v>
-      </c>
-      <c r="X23" s="32">
-        <v>27904721</v>
-      </c>
-      <c r="Y23" s="32">
-        <v>27577405</v>
-      </c>
-      <c r="Z23" s="32">
-        <v>23425298</v>
-      </c>
-      <c r="AA23" s="32">
-        <v>23735545</v>
-      </c>
-      <c r="AB23" s="32">
-        <v>22737832</v>
-      </c>
-      <c r="AC23" s="32">
-        <v>20228352</v>
-      </c>
-      <c r="AD23" s="32">
-        <v>18936577</v>
-      </c>
-      <c r="AE23" s="32">
-        <v>19568513</v>
-      </c>
-      <c r="AF23" s="32">
-        <v>15235725</v>
-      </c>
-      <c r="AG23" s="32">
-        <v>14813559</v>
-      </c>
-      <c r="AH23" s="32">
-        <v>14792314</v>
-      </c>
-      <c r="AI23" s="32">
-        <v>14419691</v>
-      </c>
-      <c r="AJ23" s="32">
-        <v>15621291</v>
-      </c>
-      <c r="AK23" s="32">
-        <v>14499717</v>
-      </c>
-      <c r="AL23" s="32">
-        <v>14893758</v>
+      <c r="B23">
+        <v>52761221000</v>
+      </c>
+      <c r="C23">
+        <v>50112301000</v>
+      </c>
+      <c r="D23">
+        <v>48260956000</v>
+      </c>
+      <c r="E23">
+        <v>46436727000</v>
+      </c>
+      <c r="F23">
+        <v>45457951000</v>
+      </c>
+      <c r="G23">
+        <v>42224473000</v>
+      </c>
+      <c r="H23">
+        <v>39397401000</v>
+      </c>
+      <c r="I23">
+        <v>40262962000</v>
+      </c>
+      <c r="J23">
+        <v>39604459000</v>
+      </c>
+      <c r="K23">
+        <v>38186752000</v>
+      </c>
+      <c r="L23">
+        <v>39685534000</v>
+      </c>
+      <c r="M23">
+        <v>39662950000</v>
+      </c>
+      <c r="N23">
+        <v>39605144000</v>
+      </c>
+      <c r="O23">
+        <v>38115725000</v>
+      </c>
+      <c r="P23">
+        <v>38840662000</v>
+      </c>
+      <c r="Q23">
+        <v>37828489000</v>
+      </c>
+      <c r="R23">
+        <v>35937734000</v>
+      </c>
+      <c r="S23">
+        <v>35186248000</v>
+      </c>
+      <c r="T23">
+        <v>34397622000</v>
+      </c>
+      <c r="U23">
+        <v>32193656000</v>
+      </c>
+      <c r="V23">
+        <v>31399198000</v>
+      </c>
+      <c r="W23">
+        <v>30135578000</v>
+      </c>
+      <c r="X23">
+        <v>27904721000</v>
+      </c>
+      <c r="Y23">
+        <v>27577405000</v>
+      </c>
+      <c r="Z23">
+        <v>23425298000</v>
+      </c>
+      <c r="AA23">
+        <v>23735545000</v>
+      </c>
+      <c r="AB23">
+        <v>22737832000</v>
+      </c>
+      <c r="AC23">
+        <v>20228352000</v>
+      </c>
+      <c r="AD23">
+        <v>18936577000</v>
+      </c>
+      <c r="AE23">
+        <v>19568513000</v>
+      </c>
+      <c r="AF23">
+        <v>15235725000</v>
+      </c>
+      <c r="AG23">
+        <v>14813559000</v>
+      </c>
+      <c r="AH23">
+        <v>14792314000</v>
+      </c>
+      <c r="AI23">
+        <v>14419691000</v>
+      </c>
+      <c r="AJ23">
+        <v>15621291000</v>
+      </c>
+      <c r="AK23">
+        <v>14499717000</v>
+      </c>
+      <c r="AL23">
+        <v>14893758000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="25" type="noConversion"/>
-  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
@@ -6192,7 +5957,7 @@
   <sheetPr codeName="Planilha4"/>
   <dimension ref="A1:K1840"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1816" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A1816" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D1840" sqref="D1839:E1840"/>
     </sheetView>
   </sheetViews>
@@ -6205,13 +5970,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>27</v>
       </c>
     </row>
@@ -23903,7 +23668,7 @@
       <c r="C1596" s="14">
         <v>84.6</v>
       </c>
-      <c r="D1596" s="21"/>
+      <c r="D1596" s="18"/>
     </row>
     <row r="1597" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1597" s="12">
